--- a/temp/Temp_TR_Solutions.xlsx
+++ b/temp/Temp_TR_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="16">
   <si>
     <t>0_NAME</t>
   </si>
@@ -186,10 +186,10 @@
         <v>41.057835</v>
       </c>
       <c r="E3" t="n">
-        <v>25.393569469451904</v>
+        <v>22.091572284698486</v>
       </c>
       <c r="F3" t="n">
-        <v>25.393569946289062</v>
+        <v>22.091571807861328</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -217,12 +217,12 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>22.091572284698486</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>-2.0</v>
+        <v>6.0</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -230,10 +230,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -245,12 +245,12 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.393569469451904</v>
+        <v>4.609101295471191</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>4.0</v>
+        <v>24.0</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -258,30 +258,34 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.831668376922607</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
+      <c r="C6" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.057835</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -289,13 +293,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-80.046878</v>
+        <v>-80.0488</v>
       </c>
       <c r="D7" t="n">
-        <v>41.057835</v>
+        <v>41.06003739</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -303,8 +307,8 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
+      <c r="G7" t="n">
+        <v>0.0</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -313,7 +317,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -321,13 +325,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>32.0</v>
+        <v>49.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-80.04666</v>
+        <v>-80.05009</v>
       </c>
       <c r="D8" t="n">
-        <v>41.05817512</v>
+        <v>41.06067186</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -335,8 +339,8 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
+      <c r="G8" t="n">
+        <v>0.0</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -345,7 +349,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -353,13 +357,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0</v>
+        <v>57.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-80.04257</v>
+        <v>-80.05152</v>
       </c>
       <c r="D9" t="n">
-        <v>41.06085219</v>
+        <v>41.061453</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -367,8 +371,8 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
+      <c r="G9" t="n">
+        <v>0.0</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -377,7 +381,7 @@
         <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -385,13 +389,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>13.0</v>
+        <v>50.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-80.03464</v>
+        <v>-80.04951</v>
       </c>
       <c r="D10" t="n">
-        <v>41.06182129</v>
+        <v>41.06127026</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -399,8 +403,8 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
+      <c r="G10" t="n">
+        <v>0.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -409,7 +413,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -417,13 +421,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>11.0</v>
+        <v>36.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-80.03329</v>
+        <v>-80.04431</v>
       </c>
       <c r="D11" t="n">
-        <v>41.06307594</v>
+        <v>41.06092536</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -431,8 +435,8 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
+      <c r="G11" t="n">
+        <v>0.0</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -441,7 +445,7 @@
         <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -449,13 +453,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-80.03358</v>
+        <v>-80.04273</v>
       </c>
       <c r="D12" t="n">
-        <v>41.06328294</v>
+        <v>41.06188615</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -463,8 +467,8 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
+      <c r="G12" t="n">
+        <v>0.0</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -473,7 +477,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -481,13 +485,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-80.03693</v>
+        <v>-80.04349</v>
       </c>
       <c r="D13" t="n">
-        <v>41.06944105</v>
+        <v>41.06326948</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -495,8 +499,8 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
+      <c r="G13" t="n">
+        <v>0.0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -505,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -513,13 +517,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-80.03939</v>
+        <v>-80.04381</v>
       </c>
       <c r="D14" t="n">
-        <v>41.06750213</v>
+        <v>41.0649643</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -527,8 +531,8 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
+      <c r="G14" t="n">
+        <v>0.0</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -537,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -545,13 +549,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-80.04046</v>
+        <v>-80.0436</v>
       </c>
       <c r="D15" t="n">
-        <v>41.06778319</v>
+        <v>41.06516554</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -559,8 +563,8 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
+      <c r="G15" t="n">
+        <v>0.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -569,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -577,13 +581,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-80.04038</v>
+        <v>-80.0422</v>
       </c>
       <c r="D16" t="n">
-        <v>41.06717882</v>
+        <v>41.06527751</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -591,8 +595,8 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>11</v>
+      <c r="G16" t="n">
+        <v>0.0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -601,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -623,8 +627,8 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>11</v>
+      <c r="G17" t="n">
+        <v>0.0</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -641,13 +645,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-80.0436</v>
+        <v>-80.03939</v>
       </c>
       <c r="D18" t="n">
-        <v>41.06516554</v>
+        <v>41.06750213</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -655,8 +659,8 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>11</v>
+      <c r="G18" t="n">
+        <v>0.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -665,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -673,13 +677,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-80.04381</v>
+        <v>-80.03876</v>
       </c>
       <c r="D19" t="n">
-        <v>41.0649643</v>
+        <v>41.06529995</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -687,8 +691,8 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>11</v>
+      <c r="G19" t="n">
+        <v>0.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -705,13 +709,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="n">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-80.0422</v>
+        <v>-80.03329</v>
       </c>
       <c r="D20" t="n">
-        <v>41.06527751</v>
+        <v>41.06307594</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -719,8 +723,8 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
+      <c r="G20" t="n">
+        <v>0.0</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -729,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -737,13 +741,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-80.03876</v>
+        <v>-80.04046</v>
       </c>
       <c r="D21" t="n">
-        <v>41.06529995</v>
+        <v>41.06106754</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -751,8 +755,8 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
+      <c r="G21" t="n">
+        <v>0.0</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -761,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -769,13 +773,13 @@
         <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>15.0</v>
+        <v>34.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-80.03649</v>
+        <v>-80.04257</v>
       </c>
       <c r="D22" t="n">
-        <v>41.06399662</v>
+        <v>41.06085219</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -783,8 +787,8 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>11</v>
+      <c r="G22" t="n">
+        <v>0.0</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -793,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -801,13 +805,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-80.03641</v>
+        <v>-80.047</v>
       </c>
       <c r="D23" t="n">
-        <v>41.06307329</v>
+        <v>41.05760118</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -815,8 +819,8 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
+      <c r="G23" t="n">
+        <v>0.0</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -833,13 +837,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-80.03837</v>
+        <v>-80.04759</v>
       </c>
       <c r="D24" t="n">
-        <v>41.0630362</v>
+        <v>41.05780933</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -847,8 +851,8 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
+      <c r="G24" t="n">
+        <v>0.0</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -865,13 +869,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-80.04046</v>
+        <v>-80.04808</v>
       </c>
       <c r="D25" t="n">
-        <v>41.06106754</v>
+        <v>41.05762051</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -879,8 +883,8 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>11</v>
+      <c r="G25" t="n">
+        <v>0.0</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -889,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -897,13 +901,13 @@
         <v>15</v>
       </c>
       <c r="B26" t="n">
-        <v>31.0</v>
+        <v>39.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-80.04273</v>
+        <v>-80.04841</v>
       </c>
       <c r="D26" t="n">
-        <v>41.06188615</v>
+        <v>41.05778901</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -911,8 +915,8 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
+      <c r="G26" t="n">
+        <v>0.0</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -921,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -929,13 +933,13 @@
         <v>15</v>
       </c>
       <c r="B27" t="n">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-80.04349</v>
+        <v>-80.04773</v>
       </c>
       <c r="D27" t="n">
-        <v>41.06326948</v>
+        <v>41.0580007</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -943,8 +947,8 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
+      <c r="G27" t="n">
+        <v>0.0</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -953,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -961,13 +965,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>36.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-80.04431</v>
+        <v>-80.04754</v>
       </c>
       <c r="D28" t="n">
-        <v>41.06092536</v>
+        <v>41.05828804</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -975,8 +979,8 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>11</v>
+      <c r="G28" t="n">
+        <v>0.0</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -985,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="J28" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -993,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B29" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-80.0459</v>
+        <v>-80.046878</v>
       </c>
       <c r="D29" t="n">
-        <v>41.06011254</v>
+        <v>41.057835</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1007,8 +1011,8 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>11</v>
+      <c r="G29" t="n">
+        <v>0.0</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1017,39 +1021,35 @@
         <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-80.04595</v>
-      </c>
-      <c r="D30" t="n">
-        <v>41.05988253</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.637298822402954</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>-80.04838</v>
+        <v>-80.046878</v>
       </c>
       <c r="D31" t="n">
-        <v>41.06107385</v>
+        <v>41.057835</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1071,8 +1071,8 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>11</v>
+      <c r="G31" t="n">
+        <v>0.0</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
@@ -1081,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="J31" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -1089,13 +1089,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="C32" t="n">
-        <v>-80.04951</v>
+        <v>-80.04967</v>
       </c>
       <c r="D32" t="n">
-        <v>41.06127026</v>
+        <v>41.05954292</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1103,8 +1103,8 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
+      <c r="G32" t="n">
+        <v>0.0</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1113,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -1135,8 +1135,8 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>11</v>
+      <c r="G33" t="n">
+        <v>0.0</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1153,13 +1153,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>57.0</v>
+        <v>51.0</v>
       </c>
       <c r="C34" t="n">
-        <v>-80.05152</v>
+        <v>-80.04918</v>
       </c>
       <c r="D34" t="n">
-        <v>41.061453</v>
+        <v>41.06111633</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1167,8 +1167,8 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>11</v>
+      <c r="G34" t="n">
+        <v>0.0</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1185,13 +1185,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="C35" t="n">
-        <v>-80.05309</v>
+        <v>-80.04951</v>
       </c>
       <c r="D35" t="n">
-        <v>41.0620405</v>
+        <v>41.06127026</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1199,8 +1199,8 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>11</v>
+      <c r="G35" t="n">
+        <v>0.0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1209,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="J35" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
@@ -1217,13 +1217,13 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>48.0</v>
+        <v>58.0</v>
       </c>
       <c r="C36" t="n">
-        <v>-80.05073</v>
+        <v>-80.05221</v>
       </c>
       <c r="D36" t="n">
-        <v>41.05993479</v>
+        <v>41.0612051</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1231,8 +1231,8 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>11</v>
+      <c r="G36" t="n">
+        <v>0.0</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1241,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="J36" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -1249,13 +1249,13 @@
         <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>47.0</v>
+        <v>57.0</v>
       </c>
       <c r="C37" t="n">
-        <v>-80.05088</v>
+        <v>-80.05152</v>
       </c>
       <c r="D37" t="n">
-        <v>41.05933591</v>
+        <v>41.061453</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1263,8 +1263,8 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>11</v>
+      <c r="G37" t="n">
+        <v>0.0</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -1273,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="J37" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
@@ -1281,13 +1281,13 @@
         <v>15</v>
       </c>
       <c r="B38" t="n">
-        <v>44.0</v>
+        <v>56.0</v>
       </c>
       <c r="C38" t="n">
-        <v>-80.0488</v>
+        <v>-80.05029</v>
       </c>
       <c r="D38" t="n">
-        <v>41.06003739</v>
+        <v>41.06199246</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1295,8 +1295,8 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>11</v>
+      <c r="G38" t="n">
+        <v>0.0</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -1313,13 +1313,13 @@
         <v>15</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0</v>
+        <v>52.0</v>
       </c>
       <c r="C39" t="n">
-        <v>-80.04743</v>
+        <v>-80.04904</v>
       </c>
       <c r="D39" t="n">
-        <v>41.05852433</v>
+        <v>41.06199026</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1327,8 +1327,8 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>11</v>
+      <c r="G39" t="n">
+        <v>0.0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1337,7 +1337,7 @@
         <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -1345,13 +1345,13 @@
         <v>15</v>
       </c>
       <c r="B40" t="n">
-        <v>30.0</v>
+        <v>53.0</v>
       </c>
       <c r="C40" t="n">
-        <v>-80.04738</v>
+        <v>-80.04843</v>
       </c>
       <c r="D40" t="n">
-        <v>41.05841401</v>
+        <v>41.06219888</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1359,8 +1359,8 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>11</v>
+      <c r="G40" t="n">
+        <v>0.0</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -1369,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="J40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -1377,13 +1377,13 @@
         <v>15</v>
       </c>
       <c r="B41" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="C41" t="n">
-        <v>-80.04754</v>
+        <v>-80.04618</v>
       </c>
       <c r="D41" t="n">
-        <v>41.05828804</v>
+        <v>41.06131199</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1391,8 +1391,8 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>11</v>
+      <c r="G41" t="n">
+        <v>0.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1401,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="J41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1409,13 +1409,13 @@
         <v>15</v>
       </c>
       <c r="B42" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="C42" t="n">
-        <v>-80.04773</v>
+        <v>-80.0457</v>
       </c>
       <c r="D42" t="n">
-        <v>41.0580007</v>
+        <v>41.06212885</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1423,8 +1423,8 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>11</v>
+      <c r="G42" t="n">
+        <v>0.0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
@@ -1441,13 +1441,13 @@
         <v>15</v>
       </c>
       <c r="B43" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="C43" t="n">
-        <v>-80.04759</v>
+        <v>-80.04349</v>
       </c>
       <c r="D43" t="n">
-        <v>41.05780933</v>
+        <v>41.06326948</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1455,8 +1455,8 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>11</v>
+      <c r="G43" t="n">
+        <v>0.0</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -1465,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
@@ -1473,13 +1473,13 @@
         <v>15</v>
       </c>
       <c r="B44" t="n">
-        <v>39.0</v>
+        <v>18.0</v>
       </c>
       <c r="C44" t="n">
-        <v>-80.04841</v>
+        <v>-80.03876</v>
       </c>
       <c r="D44" t="n">
-        <v>41.05778901</v>
+        <v>41.06529995</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1487,8 +1487,8 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>11</v>
+      <c r="G44" t="n">
+        <v>0.0</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -1497,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -1505,13 +1505,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="n">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
       <c r="C45" t="n">
-        <v>-80.04808</v>
+        <v>-80.04068</v>
       </c>
       <c r="D45" t="n">
-        <v>41.05762051</v>
+        <v>41.06667837</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1519,8 +1519,8 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>11</v>
+      <c r="G45" t="n">
+        <v>0.0</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -1529,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -1537,13 +1537,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="C46" t="n">
-        <v>-80.04781</v>
+        <v>-80.04078</v>
       </c>
       <c r="D46" t="n">
-        <v>41.05762504</v>
+        <v>41.06539249</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1551,8 +1551,8 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>11</v>
+      <c r="G46" t="n">
+        <v>0.0</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -1569,13 +1569,13 @@
         <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
       <c r="C47" t="n">
-        <v>-80.047</v>
+        <v>-80.04192</v>
       </c>
       <c r="D47" t="n">
-        <v>41.05760118</v>
+        <v>41.06552861</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1583,8 +1583,8 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>11</v>
+      <c r="G47" t="n">
+        <v>0.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1593,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -1601,13 +1601,13 @@
         <v>15</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="C48" t="n">
-        <v>-80.046878</v>
+        <v>-80.0422</v>
       </c>
       <c r="D48" t="n">
-        <v>41.057835</v>
+        <v>41.06527751</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -1615,8 +1615,8 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>11</v>
+      <c r="G48" t="n">
+        <v>0.0</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -1625,35 +1625,39 @@
         <v>11</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3.637298822402954</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>11</v>
+        <v>29.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-80.0436</v>
+      </c>
+      <c r="D49" t="n">
+        <v>41.06516554</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
@@ -1661,13 +1665,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="C50" t="n">
-        <v>-80.046878</v>
+        <v>-80.04381</v>
       </c>
       <c r="D50" t="n">
-        <v>41.057835</v>
+        <v>41.0649643</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1675,8 +1679,8 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>11</v>
+      <c r="G50" t="n">
+        <v>0.0</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1685,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -1693,13 +1697,13 @@
         <v>15</v>
       </c>
       <c r="B51" t="n">
-        <v>46.0</v>
+        <v>36.0</v>
       </c>
       <c r="C51" t="n">
-        <v>-80.04967</v>
+        <v>-80.04431</v>
       </c>
       <c r="D51" t="n">
-        <v>41.05954292</v>
+        <v>41.06092536</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -1707,8 +1711,8 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>11</v>
+      <c r="G51" t="n">
+        <v>0.0</v>
       </c>
       <c r="H51" t="s">
         <v>11</v>
@@ -1717,7 +1721,7 @@
         <v>11</v>
       </c>
       <c r="J51" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -1725,13 +1729,13 @@
         <v>15</v>
       </c>
       <c r="B52" t="n">
-        <v>49.0</v>
+        <v>35.0</v>
       </c>
       <c r="C52" t="n">
-        <v>-80.05009</v>
+        <v>-80.04429</v>
       </c>
       <c r="D52" t="n">
-        <v>41.06067186</v>
+        <v>41.06019151</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -1739,8 +1743,8 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>11</v>
+      <c r="G52" t="n">
+        <v>0.0</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
@@ -1749,7 +1753,7 @@
         <v>11</v>
       </c>
       <c r="J52" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -1757,13 +1761,13 @@
         <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>-80.04918</v>
+        <v>-80.046878</v>
       </c>
       <c r="D53" t="n">
-        <v>41.06111633</v>
+        <v>41.057835</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1771,8 +1775,8 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>11</v>
+      <c r="G53" t="n">
+        <v>0.0</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
@@ -1781,39 +1785,35 @@
         <v>11</v>
       </c>
       <c r="J53" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-80.04951</v>
-      </c>
-      <c r="D54" t="n">
-        <v>41.06127026</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.413088321685791</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1821,13 +1821,13 @@
         <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>58.0</v>
+        <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>-80.05221</v>
+        <v>-80.046878</v>
       </c>
       <c r="D55" t="n">
-        <v>41.0612051</v>
+        <v>41.057835</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -1835,8 +1835,8 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>11</v>
+      <c r="G55" t="n">
+        <v>0.0</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -1845,7 +1845,7 @@
         <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -1853,13 +1853,13 @@
         <v>15</v>
       </c>
       <c r="B56" t="n">
-        <v>57.0</v>
+        <v>34.0</v>
       </c>
       <c r="C56" t="n">
-        <v>-80.05152</v>
+        <v>-80.04257</v>
       </c>
       <c r="D56" t="n">
-        <v>41.061453</v>
+        <v>41.06085219</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -1867,8 +1867,8 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>11</v>
+      <c r="G56" t="n">
+        <v>0.0</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -1877,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="J56" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="57">
@@ -1885,13 +1885,13 @@
         <v>15</v>
       </c>
       <c r="B57" t="n">
-        <v>56.0</v>
+        <v>33.0</v>
       </c>
       <c r="C57" t="n">
-        <v>-80.05029</v>
+        <v>-80.04046</v>
       </c>
       <c r="D57" t="n">
-        <v>41.06199246</v>
+        <v>41.06106754</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -1899,8 +1899,8 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>11</v>
+      <c r="G57" t="n">
+        <v>0.0</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
@@ -1909,7 +1909,7 @@
         <v>11</v>
       </c>
       <c r="J57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -1917,13 +1917,13 @@
         <v>15</v>
       </c>
       <c r="B58" t="n">
-        <v>52.0</v>
+        <v>18.0</v>
       </c>
       <c r="C58" t="n">
-        <v>-80.04904</v>
+        <v>-80.03876</v>
       </c>
       <c r="D58" t="n">
-        <v>41.06199026</v>
+        <v>41.06529995</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1931,8 +1931,8 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>11</v>
+      <c r="G58" t="n">
+        <v>0.0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
@@ -1949,13 +1949,13 @@
         <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>53.0</v>
+        <v>26.0</v>
       </c>
       <c r="C59" t="n">
-        <v>-80.04843</v>
+        <v>-80.04192</v>
       </c>
       <c r="D59" t="n">
-        <v>41.06219888</v>
+        <v>41.06552861</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -1963,8 +1963,8 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>11</v>
+      <c r="G59" t="n">
+        <v>0.0</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
@@ -1973,7 +1973,7 @@
         <v>11</v>
       </c>
       <c r="J59" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
@@ -1981,13 +1981,13 @@
         <v>15</v>
       </c>
       <c r="B60" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="C60" t="n">
-        <v>-80.04618</v>
+        <v>-80.0422</v>
       </c>
       <c r="D60" t="n">
-        <v>41.06131199</v>
+        <v>41.06527751</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -1995,8 +1995,8 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>11</v>
+      <c r="G60" t="n">
+        <v>0.0</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
@@ -2005,7 +2005,7 @@
         <v>11</v>
       </c>
       <c r="J60" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -2013,13 +2013,13 @@
         <v>15</v>
       </c>
       <c r="B61" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="C61" t="n">
-        <v>-80.0457</v>
+        <v>-80.0436</v>
       </c>
       <c r="D61" t="n">
-        <v>41.06212885</v>
+        <v>41.06516554</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2027,8 +2027,8 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>11</v>
+      <c r="G61" t="n">
+        <v>0.0</v>
       </c>
       <c r="H61" t="s">
         <v>11</v>
@@ -2037,7 +2037,7 @@
         <v>11</v>
       </c>
       <c r="J61" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62">
@@ -2045,13 +2045,13 @@
         <v>15</v>
       </c>
       <c r="B62" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="C62" t="n">
-        <v>-80.04349</v>
+        <v>-80.04381</v>
       </c>
       <c r="D62" t="n">
-        <v>41.06326948</v>
+        <v>41.0649643</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -2059,8 +2059,8 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>11</v>
+      <c r="G62" t="n">
+        <v>0.0</v>
       </c>
       <c r="H62" t="s">
         <v>11</v>
@@ -2077,13 +2077,13 @@
         <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="C63" t="n">
-        <v>-80.03876</v>
+        <v>-80.04349</v>
       </c>
       <c r="D63" t="n">
-        <v>41.06529995</v>
+        <v>41.06326948</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2091,8 +2091,8 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>11</v>
+      <c r="G63" t="n">
+        <v>0.0</v>
       </c>
       <c r="H63" t="s">
         <v>11</v>
@@ -2109,13 +2109,13 @@
         <v>15</v>
       </c>
       <c r="B64" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="C64" t="n">
-        <v>-80.04068</v>
+        <v>-80.04273</v>
       </c>
       <c r="D64" t="n">
-        <v>41.06667837</v>
+        <v>41.06188615</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -2123,8 +2123,8 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>11</v>
+      <c r="G64" t="n">
+        <v>0.0</v>
       </c>
       <c r="H64" t="s">
         <v>11</v>
@@ -2133,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="J64" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
@@ -2141,13 +2141,13 @@
         <v>15</v>
       </c>
       <c r="B65" t="n">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
       <c r="C65" t="n">
-        <v>-80.04078</v>
+        <v>-80.04431</v>
       </c>
       <c r="D65" t="n">
-        <v>41.06539249</v>
+        <v>41.06092536</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2155,8 +2155,8 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>11</v>
+      <c r="G65" t="n">
+        <v>0.0</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -2165,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
@@ -2173,13 +2173,13 @@
         <v>15</v>
       </c>
       <c r="B66" t="n">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="C66" t="n">
-        <v>-80.04192</v>
+        <v>-80.04951</v>
       </c>
       <c r="D66" t="n">
-        <v>41.06552861</v>
+        <v>41.06127026</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2187,8 +2187,8 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>11</v>
+      <c r="G66" t="n">
+        <v>0.0</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2197,7 +2197,7 @@
         <v>11</v>
       </c>
       <c r="J66" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
@@ -2205,13 +2205,13 @@
         <v>15</v>
       </c>
       <c r="B67" t="n">
-        <v>27.0</v>
+        <v>57.0</v>
       </c>
       <c r="C67" t="n">
-        <v>-80.0422</v>
+        <v>-80.05152</v>
       </c>
       <c r="D67" t="n">
-        <v>41.06527751</v>
+        <v>41.061453</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2219,8 +2219,8 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>11</v>
+      <c r="G67" t="n">
+        <v>0.0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -2237,13 +2237,13 @@
         <v>15</v>
       </c>
       <c r="B68" t="n">
-        <v>29.0</v>
+        <v>49.0</v>
       </c>
       <c r="C68" t="n">
-        <v>-80.0436</v>
+        <v>-80.05009</v>
       </c>
       <c r="D68" t="n">
-        <v>41.06516554</v>
+        <v>41.06067186</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2251,8 +2251,8 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>11</v>
+      <c r="G68" t="n">
+        <v>0.0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2269,13 +2269,13 @@
         <v>15</v>
       </c>
       <c r="B69" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="C69" t="n">
-        <v>-80.04381</v>
+        <v>-80.0488</v>
       </c>
       <c r="D69" t="n">
-        <v>41.0649643</v>
+        <v>41.06003739</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2283,8 +2283,8 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>11</v>
+      <c r="G69" t="n">
+        <v>0.0</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
@@ -2293,7 +2293,7 @@
         <v>11</v>
       </c>
       <c r="J69" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
@@ -2301,13 +2301,13 @@
         <v>15</v>
       </c>
       <c r="B70" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="C70" t="n">
-        <v>-80.04431</v>
+        <v>-80.04841</v>
       </c>
       <c r="D70" t="n">
-        <v>41.06092536</v>
+        <v>41.05778901</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2315,8 +2315,8 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>11</v>
+      <c r="G70" t="n">
+        <v>0.0</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
@@ -2325,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="J70" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -2333,13 +2333,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="C71" t="n">
-        <v>-80.04429</v>
+        <v>-80.04808</v>
       </c>
       <c r="D71" t="n">
-        <v>41.06019151</v>
+        <v>41.05762051</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2347,8 +2347,8 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>11</v>
+      <c r="G71" t="n">
+        <v>0.0</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
@@ -2357,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="J71" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
@@ -2379,8 +2379,8 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>11</v>
+      <c r="G72" t="n">
+        <v>0.0</v>
       </c>
       <c r="H72" t="s">
         <v>11</v>
@@ -2397,7 +2397,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -2409,12 +2409,12 @@
         <v>0.0</v>
       </c>
       <c r="F73" t="n">
-        <v>3.9416000843048096</v>
+        <v>3.637298822402954</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="J73" t="s">
         <v>11</v>
@@ -2439,8 +2439,8 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>11</v>
+      <c r="G74" t="n">
+        <v>0.0</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -2457,13 +2457,13 @@
         <v>15</v>
       </c>
       <c r="B75" t="n">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
       <c r="C75" t="n">
-        <v>-80.04257</v>
+        <v>-80.04967</v>
       </c>
       <c r="D75" t="n">
-        <v>41.06085219</v>
+        <v>41.05954292</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2471,8 +2471,8 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>11</v>
+      <c r="G75" t="n">
+        <v>0.0</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -2481,7 +2481,7 @@
         <v>11</v>
       </c>
       <c r="J75" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -2489,13 +2489,13 @@
         <v>15</v>
       </c>
       <c r="B76" t="n">
-        <v>33.0</v>
+        <v>49.0</v>
       </c>
       <c r="C76" t="n">
-        <v>-80.04046</v>
+        <v>-80.05009</v>
       </c>
       <c r="D76" t="n">
-        <v>41.06106754</v>
+        <v>41.06067186</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2503,8 +2503,8 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>11</v>
+      <c r="G76" t="n">
+        <v>0.0</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
@@ -2513,7 +2513,7 @@
         <v>11</v>
       </c>
       <c r="J76" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77">
@@ -2521,13 +2521,13 @@
         <v>15</v>
       </c>
       <c r="B77" t="n">
-        <v>18.0</v>
+        <v>51.0</v>
       </c>
       <c r="C77" t="n">
-        <v>-80.03876</v>
+        <v>-80.04918</v>
       </c>
       <c r="D77" t="n">
-        <v>41.06529995</v>
+        <v>41.06111633</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2535,8 +2535,8 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>11</v>
+      <c r="G77" t="n">
+        <v>0.0</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2545,7 +2545,7 @@
         <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -2553,13 +2553,13 @@
         <v>15</v>
       </c>
       <c r="B78" t="n">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="C78" t="n">
-        <v>-80.04192</v>
+        <v>-80.04951</v>
       </c>
       <c r="D78" t="n">
-        <v>41.06552861</v>
+        <v>41.06127026</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2567,8 +2567,8 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>11</v>
+      <c r="G78" t="n">
+        <v>0.0</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -2577,7 +2577,7 @@
         <v>11</v>
       </c>
       <c r="J78" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="79">
@@ -2585,13 +2585,13 @@
         <v>15</v>
       </c>
       <c r="B79" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="C79" t="n">
-        <v>-80.0422</v>
+        <v>-80.05221</v>
       </c>
       <c r="D79" t="n">
-        <v>41.06527751</v>
+        <v>41.0612051</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2599,8 +2599,8 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>11</v>
+      <c r="G79" t="n">
+        <v>0.0</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="J79" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
@@ -2617,13 +2617,13 @@
         <v>15</v>
       </c>
       <c r="B80" t="n">
-        <v>29.0</v>
+        <v>57.0</v>
       </c>
       <c r="C80" t="n">
-        <v>-80.0436</v>
+        <v>-80.05152</v>
       </c>
       <c r="D80" t="n">
-        <v>41.06516554</v>
+        <v>41.061453</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2631,8 +2631,8 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>11</v>
+      <c r="G80" t="n">
+        <v>0.0</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
@@ -2649,13 +2649,13 @@
         <v>15</v>
       </c>
       <c r="B81" t="n">
-        <v>28.0</v>
+        <v>56.0</v>
       </c>
       <c r="C81" t="n">
-        <v>-80.04381</v>
+        <v>-80.05029</v>
       </c>
       <c r="D81" t="n">
-        <v>41.0649643</v>
+        <v>41.06199246</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2663,8 +2663,8 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>11</v>
+      <c r="G81" t="n">
+        <v>0.0</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -2673,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="J81" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -2681,13 +2681,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="n">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
       <c r="C82" t="n">
-        <v>-80.04349</v>
+        <v>-80.04904</v>
       </c>
       <c r="D82" t="n">
-        <v>41.06326948</v>
+        <v>41.06199026</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2695,8 +2695,8 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>11</v>
+      <c r="G82" t="n">
+        <v>0.0</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -2705,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="J82" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -2713,13 +2713,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="n">
-        <v>31.0</v>
+        <v>53.0</v>
       </c>
       <c r="C83" t="n">
-        <v>-80.04273</v>
+        <v>-80.04843</v>
       </c>
       <c r="D83" t="n">
-        <v>41.06188615</v>
+        <v>41.06219888</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -2727,8 +2727,8 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>11</v>
+      <c r="G83" t="n">
+        <v>0.0</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -2737,7 +2737,7 @@
         <v>11</v>
       </c>
       <c r="J83" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
@@ -2745,13 +2745,13 @@
         <v>15</v>
       </c>
       <c r="B84" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C84" t="n">
-        <v>-80.04431</v>
+        <v>-80.04618</v>
       </c>
       <c r="D84" t="n">
-        <v>41.06092536</v>
+        <v>41.06131199</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -2759,8 +2759,8 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>11</v>
+      <c r="G84" t="n">
+        <v>0.0</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2769,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="J84" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
@@ -2777,13 +2777,13 @@
         <v>15</v>
       </c>
       <c r="B85" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="C85" t="n">
-        <v>-80.0459</v>
+        <v>-80.0457</v>
       </c>
       <c r="D85" t="n">
-        <v>41.06011254</v>
+        <v>41.06212885</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -2791,8 +2791,8 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>11</v>
+      <c r="G85" t="n">
+        <v>0.0</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -2809,13 +2809,13 @@
         <v>15</v>
       </c>
       <c r="B86" t="n">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
       <c r="C86" t="n">
-        <v>-80.04595</v>
+        <v>-80.04349</v>
       </c>
       <c r="D86" t="n">
-        <v>41.05988253</v>
+        <v>41.06326948</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -2823,8 +2823,8 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>11</v>
+      <c r="G86" t="n">
+        <v>0.0</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -2833,7 +2833,7 @@
         <v>11</v>
       </c>
       <c r="J86" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="87">
@@ -2841,13 +2841,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="n">
-        <v>44.0</v>
+        <v>18.0</v>
       </c>
       <c r="C87" t="n">
-        <v>-80.0488</v>
+        <v>-80.03876</v>
       </c>
       <c r="D87" t="n">
-        <v>41.06003739</v>
+        <v>41.06529995</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2855,8 +2855,8 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>11</v>
+      <c r="G87" t="n">
+        <v>0.0</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
@@ -2865,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="J87" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="88">
@@ -2873,13 +2873,13 @@
         <v>15</v>
       </c>
       <c r="B88" t="n">
-        <v>45.0</v>
+        <v>22.0</v>
       </c>
       <c r="C88" t="n">
-        <v>-80.04838</v>
+        <v>-80.04068</v>
       </c>
       <c r="D88" t="n">
-        <v>41.06107385</v>
+        <v>41.06667837</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -2887,8 +2887,8 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>11</v>
+      <c r="G88" t="n">
+        <v>0.0</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2905,13 +2905,13 @@
         <v>15</v>
       </c>
       <c r="B89" t="n">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
       <c r="C89" t="n">
-        <v>-80.04951</v>
+        <v>-80.04078</v>
       </c>
       <c r="D89" t="n">
-        <v>41.06127026</v>
+        <v>41.06539249</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -2919,8 +2919,8 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>11</v>
+      <c r="G89" t="n">
+        <v>0.0</v>
       </c>
       <c r="H89" t="s">
         <v>11</v>
@@ -2929,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="J89" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="90">
@@ -2937,13 +2937,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="n">
-        <v>49.0</v>
+        <v>26.0</v>
       </c>
       <c r="C90" t="n">
-        <v>-80.05009</v>
+        <v>-80.04192</v>
       </c>
       <c r="D90" t="n">
-        <v>41.06067186</v>
+        <v>41.06552861</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -2951,8 +2951,8 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>11</v>
+      <c r="G90" t="n">
+        <v>0.0</v>
       </c>
       <c r="H90" t="s">
         <v>11</v>
@@ -2969,13 +2969,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="n">
-        <v>57.0</v>
+        <v>27.0</v>
       </c>
       <c r="C91" t="n">
-        <v>-80.05152</v>
+        <v>-80.0422</v>
       </c>
       <c r="D91" t="n">
-        <v>41.061453</v>
+        <v>41.06527751</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -2983,8 +2983,8 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>11</v>
+      <c r="G91" t="n">
+        <v>0.0</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
@@ -3001,13 +3001,13 @@
         <v>15</v>
       </c>
       <c r="B92" t="n">
-        <v>59.0</v>
+        <v>29.0</v>
       </c>
       <c r="C92" t="n">
-        <v>-80.05309</v>
+        <v>-80.0436</v>
       </c>
       <c r="D92" t="n">
-        <v>41.0620405</v>
+        <v>41.06516554</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -3015,8 +3015,8 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>11</v>
+      <c r="G92" t="n">
+        <v>0.0</v>
       </c>
       <c r="H92" t="s">
         <v>11</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="J92" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="93">
@@ -3033,13 +3033,13 @@
         <v>15</v>
       </c>
       <c r="B93" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="C93" t="n">
-        <v>-80.05073</v>
+        <v>-80.04381</v>
       </c>
       <c r="D93" t="n">
-        <v>41.05993479</v>
+        <v>41.0649643</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3047,8 +3047,8 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>11</v>
+      <c r="G93" t="n">
+        <v>0.0</v>
       </c>
       <c r="H93" t="s">
         <v>11</v>
@@ -3057,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="J93" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="94">
@@ -3065,13 +3065,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="n">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
       <c r="C94" t="n">
-        <v>-80.05088</v>
+        <v>-80.04431</v>
       </c>
       <c r="D94" t="n">
-        <v>41.05933591</v>
+        <v>41.06092536</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -3079,8 +3079,8 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>11</v>
+      <c r="G94" t="n">
+        <v>0.0</v>
       </c>
       <c r="H94" t="s">
         <v>11</v>
@@ -3089,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="J94" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="95">
@@ -3097,13 +3097,13 @@
         <v>15</v>
       </c>
       <c r="B95" t="n">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="C95" t="n">
-        <v>-80.04841</v>
+        <v>-80.04429</v>
       </c>
       <c r="D95" t="n">
-        <v>41.05778901</v>
+        <v>41.06019151</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3111,8 +3111,8 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>11</v>
+      <c r="G95" t="n">
+        <v>0.0</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -3121,7 +3121,7 @@
         <v>11</v>
       </c>
       <c r="J95" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="96">
@@ -3129,13 +3129,13 @@
         <v>15</v>
       </c>
       <c r="B96" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="C96" t="n">
-        <v>-80.04808</v>
+        <v>-80.046878</v>
       </c>
       <c r="D96" t="n">
-        <v>41.05762051</v>
+        <v>41.057835</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3143,8 +3143,8 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>11</v>
+      <c r="G96" t="n">
+        <v>0.0</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
@@ -3153,67 +3153,67 @@
         <v>11</v>
       </c>
       <c r="J96" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D97" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E97" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.18915057182312</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B98" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3.637298822402954</v>
-      </c>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>11</v>
+        <v>0.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="D98" t="n">
+        <v>41.057835</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -3221,13 +3221,13 @@
         <v>15</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="C99" t="n">
-        <v>-80.046878</v>
+        <v>-80.04431</v>
       </c>
       <c r="D99" t="n">
-        <v>41.057835</v>
+        <v>41.06092536</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3235,8 +3235,8 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>11</v>
+      <c r="G99" t="n">
+        <v>0.0</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -3245,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="100">
@@ -3253,13 +3253,13 @@
         <v>15</v>
       </c>
       <c r="B100" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="C100" t="n">
-        <v>-80.04967</v>
+        <v>-80.04257</v>
       </c>
       <c r="D100" t="n">
-        <v>41.05954292</v>
+        <v>41.06085219</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -3267,8 +3267,8 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>11</v>
+      <c r="G100" t="n">
+        <v>0.0</v>
       </c>
       <c r="H100" t="s">
         <v>11</v>
@@ -3277,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="101">
@@ -3285,13 +3285,13 @@
         <v>15</v>
       </c>
       <c r="B101" t="n">
-        <v>49.0</v>
+        <v>31.0</v>
       </c>
       <c r="C101" t="n">
-        <v>-80.05009</v>
+        <v>-80.04273</v>
       </c>
       <c r="D101" t="n">
-        <v>41.06067186</v>
+        <v>41.06188615</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3299,8 +3299,8 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>11</v>
+      <c r="G101" t="n">
+        <v>0.0</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -3309,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="J101" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="102">
@@ -3317,13 +3317,13 @@
         <v>15</v>
       </c>
       <c r="B102" t="n">
-        <v>51.0</v>
+        <v>18.0</v>
       </c>
       <c r="C102" t="n">
-        <v>-80.04918</v>
+        <v>-80.03876</v>
       </c>
       <c r="D102" t="n">
-        <v>41.06111633</v>
+        <v>41.06529995</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3331,8 +3331,8 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>11</v>
+      <c r="G102" t="n">
+        <v>0.0</v>
       </c>
       <c r="H102" t="s">
         <v>11</v>
@@ -3341,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="J102" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="103">
@@ -3349,13 +3349,13 @@
         <v>15</v>
       </c>
       <c r="B103" t="n">
-        <v>50.0</v>
+        <v>26.0</v>
       </c>
       <c r="C103" t="n">
-        <v>-80.04951</v>
+        <v>-80.04192</v>
       </c>
       <c r="D103" t="n">
-        <v>41.06127026</v>
+        <v>41.06552861</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3363,8 +3363,8 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>11</v>
+      <c r="G103" t="n">
+        <v>0.0</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
@@ -3373,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="J103" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="104">
@@ -3381,13 +3381,13 @@
         <v>15</v>
       </c>
       <c r="B104" t="n">
-        <v>58.0</v>
+        <v>27.0</v>
       </c>
       <c r="C104" t="n">
-        <v>-80.05221</v>
+        <v>-80.0422</v>
       </c>
       <c r="D104" t="n">
-        <v>41.0612051</v>
+        <v>41.06527751</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3395,8 +3395,8 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>11</v>
+      <c r="G104" t="n">
+        <v>0.0</v>
       </c>
       <c r="H104" t="s">
         <v>11</v>
@@ -3405,7 +3405,7 @@
         <v>11</v>
       </c>
       <c r="J104" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="105">
@@ -3413,13 +3413,13 @@
         <v>15</v>
       </c>
       <c r="B105" t="n">
-        <v>57.0</v>
+        <v>29.0</v>
       </c>
       <c r="C105" t="n">
-        <v>-80.05152</v>
+        <v>-80.0436</v>
       </c>
       <c r="D105" t="n">
-        <v>41.061453</v>
+        <v>41.06516554</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3427,8 +3427,8 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>11</v>
+      <c r="G105" t="n">
+        <v>0.0</v>
       </c>
       <c r="H105" t="s">
         <v>11</v>
@@ -3445,13 +3445,13 @@
         <v>15</v>
       </c>
       <c r="B106" t="n">
-        <v>56.0</v>
+        <v>28.0</v>
       </c>
       <c r="C106" t="n">
-        <v>-80.05029</v>
+        <v>-80.04381</v>
       </c>
       <c r="D106" t="n">
-        <v>41.06199246</v>
+        <v>41.0649643</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -3459,8 +3459,8 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>11</v>
+      <c r="G106" t="n">
+        <v>0.0</v>
       </c>
       <c r="H106" t="s">
         <v>11</v>
@@ -3469,7 +3469,7 @@
         <v>11</v>
       </c>
       <c r="J106" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="107">
@@ -3477,13 +3477,13 @@
         <v>15</v>
       </c>
       <c r="B107" t="n">
-        <v>52.0</v>
+        <v>30.0</v>
       </c>
       <c r="C107" t="n">
-        <v>-80.04904</v>
+        <v>-80.04349</v>
       </c>
       <c r="D107" t="n">
-        <v>41.06199026</v>
+        <v>41.06326948</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3491,8 +3491,8 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>11</v>
+      <c r="G107" t="n">
+        <v>0.0</v>
       </c>
       <c r="H107" t="s">
         <v>11</v>
@@ -3501,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="J107" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="108">
@@ -3509,13 +3509,13 @@
         <v>15</v>
       </c>
       <c r="B108" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="C108" t="n">
-        <v>-80.04843</v>
+        <v>-80.04951</v>
       </c>
       <c r="D108" t="n">
-        <v>41.06219888</v>
+        <v>41.06127026</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3523,8 +3523,8 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>11</v>
+      <c r="G108" t="n">
+        <v>0.0</v>
       </c>
       <c r="H108" t="s">
         <v>11</v>
@@ -3533,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="J108" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="109">
@@ -3541,13 +3541,13 @@
         <v>15</v>
       </c>
       <c r="B109" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="C109" t="n">
-        <v>-80.04618</v>
+        <v>-80.05152</v>
       </c>
       <c r="D109" t="n">
-        <v>41.06131199</v>
+        <v>41.061453</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3555,8 +3555,8 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>11</v>
+      <c r="G109" t="n">
+        <v>0.0</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -3565,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="J109" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="110">
@@ -3573,13 +3573,13 @@
         <v>15</v>
       </c>
       <c r="B110" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="C110" t="n">
-        <v>-80.0457</v>
+        <v>-80.05009</v>
       </c>
       <c r="D110" t="n">
-        <v>41.06212885</v>
+        <v>41.06067186</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -3587,8 +3587,8 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>11</v>
+      <c r="G110" t="n">
+        <v>0.0</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
@@ -3597,7 +3597,7 @@
         <v>11</v>
       </c>
       <c r="J110" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="111">
@@ -3605,13 +3605,13 @@
         <v>15</v>
       </c>
       <c r="B111" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
       <c r="C111" t="n">
-        <v>-80.04349</v>
+        <v>-80.0488</v>
       </c>
       <c r="D111" t="n">
-        <v>41.06326948</v>
+        <v>41.06003739</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -3619,8 +3619,8 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>11</v>
+      <c r="G111" t="n">
+        <v>0.0</v>
       </c>
       <c r="H111" t="s">
         <v>11</v>
@@ -3629,7 +3629,7 @@
         <v>11</v>
       </c>
       <c r="J111" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="112">
@@ -3637,13 +3637,13 @@
         <v>15</v>
       </c>
       <c r="B112" t="n">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="C112" t="n">
-        <v>-80.03876</v>
+        <v>-80.04808</v>
       </c>
       <c r="D112" t="n">
-        <v>41.06529995</v>
+        <v>41.05762051</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -3651,8 +3651,8 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>11</v>
+      <c r="G112" t="n">
+        <v>0.0</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
@@ -3661,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="J112" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
@@ -3669,13 +3669,13 @@
         <v>15</v>
       </c>
       <c r="B113" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="C113" t="n">
-        <v>-80.04068</v>
+        <v>-80.046878</v>
       </c>
       <c r="D113" t="n">
-        <v>41.06667837</v>
+        <v>41.057835</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -3683,8 +3683,8 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>11</v>
+      <c r="G113" t="n">
+        <v>0.0</v>
       </c>
       <c r="H113" t="s">
         <v>11</v>
@@ -3693,39 +3693,35 @@
         <v>11</v>
       </c>
       <c r="J113" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>-80.04078</v>
-      </c>
-      <c r="D114" t="n">
-        <v>41.06539249</v>
-      </c>
-      <c r="E114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" t="s">
-        <v>11</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.6056344509124756</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -3733,13 +3729,13 @@
         <v>15</v>
       </c>
       <c r="B115" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="C115" t="n">
-        <v>-80.04192</v>
+        <v>-80.046878</v>
       </c>
       <c r="D115" t="n">
-        <v>41.06552861</v>
+        <v>41.057835</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -3747,8 +3743,8 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>11</v>
+      <c r="G115" t="n">
+        <v>0.0</v>
       </c>
       <c r="H115" t="s">
         <v>11</v>
@@ -3757,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="J115" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
@@ -3765,13 +3761,13 @@
         <v>15</v>
       </c>
       <c r="B116" t="n">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
       <c r="C116" t="n">
-        <v>-80.0422</v>
+        <v>-80.04431</v>
       </c>
       <c r="D116" t="n">
-        <v>41.06527751</v>
+        <v>41.06092536</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -3779,8 +3775,8 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>11</v>
+      <c r="G116" t="n">
+        <v>0.0</v>
       </c>
       <c r="H116" t="s">
         <v>11</v>
@@ -3797,13 +3793,13 @@
         <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="C117" t="n">
-        <v>-80.0436</v>
+        <v>-80.04257</v>
       </c>
       <c r="D117" t="n">
-        <v>41.06516554</v>
+        <v>41.06085219</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -3811,8 +3807,8 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>11</v>
+      <c r="G117" t="n">
+        <v>0.0</v>
       </c>
       <c r="H117" t="s">
         <v>11</v>
@@ -3821,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="J117" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="118">
@@ -3829,13 +3825,13 @@
         <v>15</v>
       </c>
       <c r="B118" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="C118" t="n">
-        <v>-80.04381</v>
+        <v>-80.04273</v>
       </c>
       <c r="D118" t="n">
-        <v>41.0649643</v>
+        <v>41.06188615</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -3843,8 +3839,8 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>11</v>
+      <c r="G118" t="n">
+        <v>0.0</v>
       </c>
       <c r="H118" t="s">
         <v>11</v>
@@ -3853,7 +3849,7 @@
         <v>11</v>
       </c>
       <c r="J118" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="119">
@@ -3861,13 +3857,13 @@
         <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="C119" t="n">
-        <v>-80.04431</v>
+        <v>-80.04046</v>
       </c>
       <c r="D119" t="n">
-        <v>41.06092536</v>
+        <v>41.06106754</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -3875,8 +3871,8 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>11</v>
+      <c r="G119" t="n">
+        <v>0.0</v>
       </c>
       <c r="H119" t="s">
         <v>11</v>
@@ -3885,7 +3881,7 @@
         <v>11</v>
       </c>
       <c r="J119" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="120">
@@ -3893,13 +3889,13 @@
         <v>15</v>
       </c>
       <c r="B120" t="n">
-        <v>35.0</v>
+        <v>18.0</v>
       </c>
       <c r="C120" t="n">
-        <v>-80.04429</v>
+        <v>-80.03876</v>
       </c>
       <c r="D120" t="n">
-        <v>41.06019151</v>
+        <v>41.06529995</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -3907,8 +3903,8 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>11</v>
+      <c r="G120" t="n">
+        <v>0.0</v>
       </c>
       <c r="H120" t="s">
         <v>11</v>
@@ -3917,7 +3913,7 @@
         <v>11</v>
       </c>
       <c r="J120" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="121">
@@ -3925,13 +3921,13 @@
         <v>15</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="C121" t="n">
-        <v>-80.046878</v>
+        <v>-80.04078</v>
       </c>
       <c r="D121" t="n">
-        <v>41.057835</v>
+        <v>41.06539249</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -3939,8 +3935,8 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>11</v>
+      <c r="G121" t="n">
+        <v>0.0</v>
       </c>
       <c r="H121" t="s">
         <v>11</v>
@@ -3949,35 +3945,39 @@
         <v>11</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3.7400689125061035</v>
-      </c>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122" t="n">
         <v>22.0</v>
       </c>
-      <c r="J122" t="s">
-        <v>11</v>
+      <c r="C122" t="n">
+        <v>-80.04068</v>
+      </c>
+      <c r="D122" t="n">
+        <v>41.06667837</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
@@ -3985,13 +3985,13 @@
         <v>15</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="C123" t="n">
-        <v>-80.046878</v>
+        <v>-80.04192</v>
       </c>
       <c r="D123" t="n">
-        <v>41.057835</v>
+        <v>41.06552861</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -3999,8 +3999,8 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>11</v>
+      <c r="G123" t="n">
+        <v>0.0</v>
       </c>
       <c r="H123" t="s">
         <v>11</v>
@@ -4009,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="124">
@@ -4017,13 +4017,13 @@
         <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>40.0</v>
+        <v>27.0</v>
       </c>
       <c r="C124" t="n">
-        <v>-80.04808</v>
+        <v>-80.0422</v>
       </c>
       <c r="D124" t="n">
-        <v>41.05762051</v>
+        <v>41.06527751</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -4031,8 +4031,8 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>11</v>
+      <c r="G124" t="n">
+        <v>0.0</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
@@ -4041,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="J124" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="125">
@@ -4049,13 +4049,13 @@
         <v>15</v>
       </c>
       <c r="B125" t="n">
-        <v>47.0</v>
+        <v>29.0</v>
       </c>
       <c r="C125" t="n">
-        <v>-80.05088</v>
+        <v>-80.0436</v>
       </c>
       <c r="D125" t="n">
-        <v>41.05933591</v>
+        <v>41.06516554</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -4063,8 +4063,8 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>11</v>
+      <c r="G125" t="n">
+        <v>0.0</v>
       </c>
       <c r="H125" t="s">
         <v>11</v>
@@ -4073,7 +4073,7 @@
         <v>11</v>
       </c>
       <c r="J125" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         <v>15</v>
       </c>
       <c r="B126" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="C126" t="n">
-        <v>-80.05073</v>
+        <v>-80.04381</v>
       </c>
       <c r="D126" t="n">
-        <v>41.05993479</v>
+        <v>41.0649643</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -4095,8 +4095,8 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>11</v>
+      <c r="G126" t="n">
+        <v>0.0</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -4105,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="J126" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="127">
@@ -4113,13 +4113,13 @@
         <v>15</v>
       </c>
       <c r="B127" t="n">
-        <v>59.0</v>
+        <v>30.0</v>
       </c>
       <c r="C127" t="n">
-        <v>-80.05309</v>
+        <v>-80.04349</v>
       </c>
       <c r="D127" t="n">
-        <v>41.0620405</v>
+        <v>41.06326948</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -4127,8 +4127,8 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>11</v>
+      <c r="G127" t="n">
+        <v>0.0</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -4137,7 +4137,7 @@
         <v>11</v>
       </c>
       <c r="J127" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="128">
@@ -4145,13 +4145,13 @@
         <v>15</v>
       </c>
       <c r="B128" t="n">
-        <v>57.0</v>
+        <v>38.0</v>
       </c>
       <c r="C128" t="n">
-        <v>-80.05152</v>
+        <v>-80.0457</v>
       </c>
       <c r="D128" t="n">
-        <v>41.061453</v>
+        <v>41.06212885</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -4159,8 +4159,8 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>11</v>
+      <c r="G128" t="n">
+        <v>0.0</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -4169,7 +4169,7 @@
         <v>11</v>
       </c>
       <c r="J128" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="129">
@@ -4177,13 +4177,13 @@
         <v>15</v>
       </c>
       <c r="B129" t="n">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="C129" t="n">
-        <v>-80.04951</v>
+        <v>-80.05152</v>
       </c>
       <c r="D129" t="n">
-        <v>41.06127026</v>
+        <v>41.061453</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -4191,8 +4191,8 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>11</v>
+      <c r="G129" t="n">
+        <v>0.0</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
@@ -4201,7 +4201,7 @@
         <v>11</v>
       </c>
       <c r="J129" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="130">
@@ -4223,8 +4223,8 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>11</v>
+      <c r="G130" t="n">
+        <v>0.0</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -4255,8 +4255,8 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>11</v>
+      <c r="G131" t="n">
+        <v>0.0</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -4273,13 +4273,13 @@
         <v>15</v>
       </c>
       <c r="B132" t="n">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="C132" t="n">
-        <v>-80.04838</v>
+        <v>-80.04841</v>
       </c>
       <c r="D132" t="n">
-        <v>41.06107385</v>
+        <v>41.05778901</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -4287,8 +4287,8 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>11</v>
+      <c r="G132" t="n">
+        <v>0.0</v>
       </c>
       <c r="H132" t="s">
         <v>11</v>
@@ -4305,13 +4305,13 @@
         <v>15</v>
       </c>
       <c r="B133" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="C133" t="n">
-        <v>-80.04349</v>
+        <v>-80.04808</v>
       </c>
       <c r="D133" t="n">
-        <v>41.06326948</v>
+        <v>41.05762051</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -4319,8 +4319,8 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>11</v>
+      <c r="G133" t="n">
+        <v>0.0</v>
       </c>
       <c r="H133" t="s">
         <v>11</v>
@@ -4329,7 +4329,7 @@
         <v>11</v>
       </c>
       <c r="J133" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="134">
@@ -4337,13 +4337,13 @@
         <v>15</v>
       </c>
       <c r="B134" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>-80.04381</v>
+        <v>-80.046878</v>
       </c>
       <c r="D134" t="n">
-        <v>41.0649643</v>
+        <v>41.057835</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -4351,8 +4351,8 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>11</v>
+      <c r="G134" t="n">
+        <v>0.0</v>
       </c>
       <c r="H134" t="s">
         <v>11</v>
@@ -4361,994 +4361,6 @@
         <v>11</v>
       </c>
       <c r="J134" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>-80.0436</v>
-      </c>
-      <c r="D135" t="n">
-        <v>41.06516554</v>
-      </c>
-      <c r="E135" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>-80.0422</v>
-      </c>
-      <c r="D136" t="n">
-        <v>41.06527751</v>
-      </c>
-      <c r="E136" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" t="s">
-        <v>11</v>
-      </c>
-      <c r="J136" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>-80.04192</v>
-      </c>
-      <c r="D137" t="n">
-        <v>41.06552861</v>
-      </c>
-      <c r="E137" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" t="s">
-        <v>11</v>
-      </c>
-      <c r="J137" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>-80.03876</v>
-      </c>
-      <c r="D138" t="n">
-        <v>41.06529995</v>
-      </c>
-      <c r="E138" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" t="s">
-        <v>11</v>
-      </c>
-      <c r="J138" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>-80.04273</v>
-      </c>
-      <c r="D139" t="n">
-        <v>41.06188615</v>
-      </c>
-      <c r="E139" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" t="s">
-        <v>11</v>
-      </c>
-      <c r="I139" t="s">
-        <v>11</v>
-      </c>
-      <c r="J139" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>-80.04257</v>
-      </c>
-      <c r="D140" t="n">
-        <v>41.06085219</v>
-      </c>
-      <c r="E140" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" t="s">
-        <v>11</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>-80.04431</v>
-      </c>
-      <c r="D141" t="n">
-        <v>41.06092536</v>
-      </c>
-      <c r="E141" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" t="s">
-        <v>11</v>
-      </c>
-      <c r="J141" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>-80.0459</v>
-      </c>
-      <c r="D142" t="n">
-        <v>41.06011254</v>
-      </c>
-      <c r="E142" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" t="s">
-        <v>11</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>-80.04595</v>
-      </c>
-      <c r="D143" t="n">
-        <v>41.05988253</v>
-      </c>
-      <c r="E143" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" t="s">
-        <v>11</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D144" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" t="s">
-        <v>11</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3.6056344509124756</v>
-      </c>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J145" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C146" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D146" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E146" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146" t="s">
-        <v>11</v>
-      </c>
-      <c r="I146" t="s">
-        <v>11</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="C147" t="n">
-        <v>-80.04431</v>
-      </c>
-      <c r="D147" t="n">
-        <v>41.06092536</v>
-      </c>
-      <c r="E147" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" t="s">
-        <v>11</v>
-      </c>
-      <c r="J147" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="C148" t="n">
-        <v>-80.04257</v>
-      </c>
-      <c r="D148" t="n">
-        <v>41.06085219</v>
-      </c>
-      <c r="E148" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" t="s">
-        <v>11</v>
-      </c>
-      <c r="I148" t="s">
-        <v>11</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="C149" t="n">
-        <v>-80.04273</v>
-      </c>
-      <c r="D149" t="n">
-        <v>41.06188615</v>
-      </c>
-      <c r="E149" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" t="s">
-        <v>11</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="C150" t="n">
-        <v>-80.04046</v>
-      </c>
-      <c r="D150" t="n">
-        <v>41.06106754</v>
-      </c>
-      <c r="E150" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" t="s">
-        <v>11</v>
-      </c>
-      <c r="I150" t="s">
-        <v>11</v>
-      </c>
-      <c r="J150" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C151" t="n">
-        <v>-80.03876</v>
-      </c>
-      <c r="D151" t="n">
-        <v>41.06529995</v>
-      </c>
-      <c r="E151" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" t="s">
-        <v>11</v>
-      </c>
-      <c r="J151" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="C152" t="n">
-        <v>-80.04078</v>
-      </c>
-      <c r="D152" t="n">
-        <v>41.06539249</v>
-      </c>
-      <c r="E152" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" t="s">
-        <v>11</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C153" t="n">
-        <v>-80.04068</v>
-      </c>
-      <c r="D153" t="n">
-        <v>41.06667837</v>
-      </c>
-      <c r="E153" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" t="s">
-        <v>11</v>
-      </c>
-      <c r="I153" t="s">
-        <v>11</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>15</v>
-      </c>
-      <c r="B154" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="C154" t="n">
-        <v>-80.04192</v>
-      </c>
-      <c r="D154" t="n">
-        <v>41.06552861</v>
-      </c>
-      <c r="E154" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s">
-        <v>11</v>
-      </c>
-      <c r="H154" t="s">
-        <v>11</v>
-      </c>
-      <c r="I154" t="s">
-        <v>11</v>
-      </c>
-      <c r="J154" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="C155" t="n">
-        <v>-80.0422</v>
-      </c>
-      <c r="D155" t="n">
-        <v>41.06527751</v>
-      </c>
-      <c r="E155" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s">
-        <v>11</v>
-      </c>
-      <c r="H155" t="s">
-        <v>11</v>
-      </c>
-      <c r="I155" t="s">
-        <v>11</v>
-      </c>
-      <c r="J155" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>-80.0436</v>
-      </c>
-      <c r="D156" t="n">
-        <v>41.06516554</v>
-      </c>
-      <c r="E156" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s">
-        <v>11</v>
-      </c>
-      <c r="H156" t="s">
-        <v>11</v>
-      </c>
-      <c r="I156" t="s">
-        <v>11</v>
-      </c>
-      <c r="J156" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="C157" t="n">
-        <v>-80.04381</v>
-      </c>
-      <c r="D157" t="n">
-        <v>41.0649643</v>
-      </c>
-      <c r="E157" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157" t="s">
-        <v>11</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>-80.04349</v>
-      </c>
-      <c r="D158" t="n">
-        <v>41.06326948</v>
-      </c>
-      <c r="E158" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158" t="s">
-        <v>11</v>
-      </c>
-      <c r="J158" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>-80.0457</v>
-      </c>
-      <c r="D159" t="n">
-        <v>41.06212885</v>
-      </c>
-      <c r="E159" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" t="s">
-        <v>11</v>
-      </c>
-      <c r="I159" t="s">
-        <v>11</v>
-      </c>
-      <c r="J159" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>15</v>
-      </c>
-      <c r="B160" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="C160" t="n">
-        <v>-80.05152</v>
-      </c>
-      <c r="D160" t="n">
-        <v>41.061453</v>
-      </c>
-      <c r="E160" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" t="s">
-        <v>11</v>
-      </c>
-      <c r="I160" t="s">
-        <v>11</v>
-      </c>
-      <c r="J160" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="C161" t="n">
-        <v>-80.05009</v>
-      </c>
-      <c r="D161" t="n">
-        <v>41.06067186</v>
-      </c>
-      <c r="E161" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s">
-        <v>11</v>
-      </c>
-      <c r="H161" t="s">
-        <v>11</v>
-      </c>
-      <c r="I161" t="s">
-        <v>11</v>
-      </c>
-      <c r="J161" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B162" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="C162" t="n">
-        <v>-80.0488</v>
-      </c>
-      <c r="D162" t="n">
-        <v>41.06003739</v>
-      </c>
-      <c r="E162" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s">
-        <v>11</v>
-      </c>
-      <c r="H162" t="s">
-        <v>11</v>
-      </c>
-      <c r="I162" t="s">
-        <v>11</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>-80.04841</v>
-      </c>
-      <c r="D163" t="n">
-        <v>41.05778901</v>
-      </c>
-      <c r="E163" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" t="s">
-        <v>11</v>
-      </c>
-      <c r="I163" t="s">
-        <v>11</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>15</v>
-      </c>
-      <c r="B164" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-80.04808</v>
-      </c>
-      <c r="D164" t="n">
-        <v>41.05762051</v>
-      </c>
-      <c r="E164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s">
-        <v>11</v>
-      </c>
-      <c r="H164" t="s">
-        <v>11</v>
-      </c>
-      <c r="I164" t="s">
-        <v>11</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D165" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E165" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s">
-        <v>11</v>
-      </c>
-      <c r="H165" t="s">
-        <v>11</v>
-      </c>
-      <c r="I165" t="s">
-        <v>11</v>
-      </c>
-      <c r="J165" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/temp/Temp_TR_Solutions.xlsx
+++ b/temp/Temp_TR_Solutions.xlsx
@@ -214,7 +214,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>648.0</v>
       </c>
       <c r="F4" t="n">
         <v>22.091572284698486</v>
@@ -242,7 +242,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>108.0</v>
       </c>
       <c r="F5" t="n">
         <v>4.609101295471191</v>
@@ -308,7 +308,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -340,7 +340,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -372,7 +372,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -404,7 +404,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -436,7 +436,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -468,7 +468,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -596,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -660,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -692,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -756,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -852,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -948,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -980,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>124.0</v>
       </c>
       <c r="F30" t="n">
         <v>3.637298822402954</v>
@@ -1104,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
@@ -1200,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1232,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -1296,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1328,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1360,7 +1360,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -1392,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1424,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -1456,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -1488,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -1520,7 +1520,7 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -1552,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1584,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -1648,7 +1648,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H49" t="s">
         <v>11</v>
@@ -1680,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1712,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H51" t="s">
         <v>11</v>
@@ -1744,7 +1744,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
@@ -1802,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0</v>
+        <v>97.0</v>
       </c>
       <c r="F54" t="n">
         <v>3.413088321685791</v>
@@ -1868,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -1900,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
@@ -1932,7 +1932,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
@@ -1964,7 +1964,7 @@
         <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
@@ -2028,7 +2028,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H61" t="s">
         <v>11</v>
@@ -2060,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H62" t="s">
         <v>11</v>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H63" t="s">
         <v>11</v>
@@ -2124,7 +2124,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H64" t="s">
         <v>11</v>
@@ -2156,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -2188,7 +2188,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2220,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -2252,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2284,7 +2284,7 @@
         <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
@@ -2316,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
@@ -2348,7 +2348,7 @@
         <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
@@ -2406,7 +2406,7 @@
         <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0</v>
+        <v>124.0</v>
       </c>
       <c r="F73" t="n">
         <v>3.637298822402954</v>
@@ -2472,7 +2472,7 @@
         <v>11</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -2504,7 +2504,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
@@ -2536,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2568,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -2600,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
@@ -2632,7 +2632,7 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
@@ -2664,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -2696,7 +2696,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -2728,7 +2728,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -2760,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2792,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -2824,7 +2824,7 @@
         <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -2856,7 +2856,7 @@
         <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
@@ -2888,7 +2888,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2920,7 +2920,7 @@
         <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H89" t="s">
         <v>11</v>
@@ -2952,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H90" t="s">
         <v>11</v>
@@ -2984,7 +2984,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
@@ -3016,7 +3016,7 @@
         <v>11</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H92" t="s">
         <v>11</v>
@@ -3048,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H93" t="s">
         <v>11</v>
@@ -3080,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H94" t="s">
         <v>11</v>
@@ -3112,7 +3112,7 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -3170,7 +3170,7 @@
         <v>11</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
       <c r="F97" t="n">
         <v>3.18915057182312</v>
@@ -3236,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -3268,7 +3268,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H100" t="s">
         <v>11</v>
@@ -3300,7 +3300,7 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -3332,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H102" t="s">
         <v>11</v>
@@ -3364,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
@@ -3396,7 +3396,7 @@
         <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H104" t="s">
         <v>11</v>
@@ -3428,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H105" t="s">
         <v>11</v>
@@ -3460,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H106" t="s">
         <v>11</v>
@@ -3492,7 +3492,7 @@
         <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H107" t="s">
         <v>11</v>
@@ -3524,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H108" t="s">
         <v>11</v>
@@ -3556,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -3588,7 +3588,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
@@ -3620,7 +3620,7 @@
         <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H111" t="s">
         <v>11</v>
@@ -3652,7 +3652,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
@@ -3710,7 +3710,7 @@
         <v>11</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
       <c r="F114" t="n">
         <v>3.6056344509124756</v>
@@ -3776,7 +3776,7 @@
         <v>11</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H116" t="s">
         <v>11</v>
@@ -3808,7 +3808,7 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H117" t="s">
         <v>11</v>
@@ -3840,7 +3840,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H118" t="s">
         <v>11</v>
@@ -3872,7 +3872,7 @@
         <v>11</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H119" t="s">
         <v>11</v>
@@ -3904,7 +3904,7 @@
         <v>11</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H120" t="s">
         <v>11</v>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H121" t="s">
         <v>11</v>
@@ -3968,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H122" t="s">
         <v>11</v>
@@ -4000,7 +4000,7 @@
         <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H123" t="s">
         <v>11</v>
@@ -4032,7 +4032,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
@@ -4064,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H125" t="s">
         <v>11</v>
@@ -4096,7 +4096,7 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -4128,7 +4128,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -4160,7 +4160,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -4192,7 +4192,7 @@
         <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
@@ -4224,7 +4224,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -4256,7 +4256,7 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -4288,7 +4288,7 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H132" t="s">
         <v>11</v>
@@ -4320,7 +4320,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H133" t="s">
         <v>11</v>

--- a/temp/Temp_TR_Solutions.xlsx
+++ b/temp/Temp_TR_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="17">
   <si>
     <t>0_NAME</t>
   </si>
@@ -20,10 +20,10 @@
     <t>1_INDEX</t>
   </si>
   <si>
-    <t>2_LONG</t>
+    <t>2_X/LONG</t>
   </si>
   <si>
-    <t>3_LAT</t>
+    <t>3_Y/LAT</t>
   </si>
   <si>
     <t>COST</t>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>cartesian</t>
   </si>
   <si>
     <t>Depot</t>
@@ -150,10 +153,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -176,25 +179,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>-1.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.0</v>
+        <v>30.0</v>
       </c>
       <c r="E3" t="n">
-        <v>160.0</v>
+        <v>1.972102665580078E10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1972.1025390625</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -202,7 +205,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>-1.0</v>
@@ -214,15 +217,15 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>44.0</v>
+        <v>937.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>657.3675231933594</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -230,7 +233,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -242,15 +245,15 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>44.0</v>
+        <v>520.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>301.8073425292969</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -258,16 +261,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -290,16 +293,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -308,7 +311,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -317,21 +320,21 @@
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0</v>
+        <v>41.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.0</v>
+        <v>17.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -340,7 +343,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>27.0</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -349,21 +352,21 @@
         <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.0</v>
+        <v>26.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.0</v>
+        <v>20.0</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -372,7 +375,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -381,21 +384,21 @@
         <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0</v>
+        <v>51.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.0</v>
+        <v>40.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -404,7 +407,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>160.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -413,21 +416,21 @@
         <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0</v>
+        <v>46.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.0</v>
+        <v>32.0</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -436,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -445,21 +448,21 @@
         <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.0</v>
+        <v>46.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.0</v>
+        <v>38.0</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -468,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -477,21 +480,21 @@
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.0</v>
+        <v>48.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.0</v>
+        <v>30.0</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -500,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -509,21 +512,21 @@
         <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.0</v>
+        <v>47.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.0</v>
+        <v>21.0</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -532,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -541,21 +544,21 @@
         <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.0</v>
+        <v>63.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.0</v>
+        <v>17.0</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -564,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -573,21 +576,21 @@
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.0</v>
+        <v>68.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.0</v>
+        <v>27.0</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -596,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -605,21 +608,21 @@
         <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.0</v>
+        <v>62.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.0</v>
+        <v>31.0</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -628,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -637,21 +640,21 @@
         <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.0</v>
+        <v>57.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.0</v>
+        <v>42.0</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -660,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -669,21 +672,21 @@
         <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.0</v>
+        <v>64.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.0</v>
+        <v>52.0</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -692,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -701,21 +704,21 @@
         <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>7.0</v>
+        <v>36.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.0</v>
+        <v>69.0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.0</v>
+        <v>63.0</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -724,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -733,21 +736,21 @@
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.0</v>
+        <v>58.0</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.0</v>
+        <v>57.0</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -756,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -765,21 +768,21 @@
         <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.0</v>
+        <v>49.0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.0</v>
+        <v>49.0</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -788,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -797,21 +800,21 @@
         <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.0</v>
+        <v>33.0</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.0</v>
+        <v>52.0</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -820,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -829,21 +832,21 @@
         <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.0</v>
+        <v>27.0</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.0</v>
+        <v>58.0</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -852,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -861,21 +864,21 @@
         <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>2.0</v>
+        <v>39.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.0</v>
+        <v>15.0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.0</v>
+        <v>59.0</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -884,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -893,21 +896,21 @@
         <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0</v>
+        <v>49.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.0</v>
+        <v>28.0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.0</v>
+        <v>48.0</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -916,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -925,21 +928,21 @@
         <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.0</v>
+        <v>35.0</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.0</v>
+        <v>45.0</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -948,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -957,49 +960,53 @@
         <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>11</v>
+        <v>5.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.0</v>
+        <v>22.0</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.0</v>
+        <v>32.0</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1008,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1017,21 +1024,21 @@
         <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.0</v>
+        <v>16.0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.0</v>
+        <v>36.0</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1040,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1049,49 +1056,53 @@
         <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>11</v>
+        <v>44.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1117,73 +1128,73 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>355.5601806640625</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>11</v>
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1192,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1201,21 +1212,21 @@
         <v>11</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.0</v>
+        <v>21.0</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1224,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1233,77 +1244,85 @@
         <v>11</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>11</v>
+        <v>17.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>11</v>
+        <v>45.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.0</v>
+        <v>46.0</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1312,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1321,21 +1340,21 @@
         <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.0</v>
+        <v>21.0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.0</v>
+        <v>51.0</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1344,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -1353,21 +1372,21 @@
         <v>11</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.0</v>
+        <v>33.0</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.0</v>
+        <v>61.0</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1376,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1385,21 +1404,21 @@
         <v>11</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>18.0</v>
+        <v>50.0</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.0</v>
+        <v>37.0</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.0</v>
+        <v>56.0</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1408,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -1417,21 +1436,21 @@
         <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.0</v>
+        <v>42.0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.0</v>
+        <v>62.0</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1440,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -1449,21 +1468,21 @@
         <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.0</v>
+        <v>48.0</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.0</v>
+        <v>58.0</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1472,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -1481,31 +1500,31 @@
         <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="n">
         <v>15.0</v>
       </c>
-      <c r="C45" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.0</v>
-      </c>
       <c r="H45" t="s">
         <v>11</v>
       </c>
@@ -1513,21 +1532,21 @@
         <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.0</v>
+        <v>41.0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.0</v>
+        <v>42.0</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1536,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1545,21 +1564,21 @@
         <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>13.0</v>
+        <v>35.0</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.0</v>
+        <v>63.0</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.0</v>
+        <v>62.0</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1568,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1577,21 +1596,21 @@
         <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.0</v>
+        <v>67.0</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.0</v>
+        <v>43.0</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -1600,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -1609,31 +1628,31 @@
         <v>11</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="n">
         <v>11.0</v>
       </c>
-      <c r="C49" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2.0</v>
-      </c>
       <c r="H49" t="s">
         <v>11</v>
       </c>
@@ -1641,21 +1660,21 @@
         <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.0</v>
+        <v>52.0</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.0</v>
+        <v>37.0</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1664,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1673,21 +1692,21 @@
         <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.0</v>
+        <v>32.0</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.0</v>
+        <v>31.0</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -1696,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
       <c r="H51" t="s">
         <v>11</v>
@@ -1705,21 +1724,21 @@
         <v>11</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" t="n">
-        <v>8.0</v>
+        <v>47.0</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.0</v>
+        <v>32.0</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.0</v>
+        <v>25.0</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -1728,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>2.0</v>
+        <v>25.0</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
@@ -1737,21 +1756,21 @@
         <v>11</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.0</v>
+        <v>33.0</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.0</v>
+        <v>17.0</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1760,7 +1779,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>2.0</v>
+        <v>41.0</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
@@ -1769,21 +1788,21 @@
         <v>11</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>6.0</v>
+        <v>48.0</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.0</v>
+        <v>55.0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.0</v>
+        <v>25.0</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -1792,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="H54" t="s">
         <v>11</v>
@@ -1801,21 +1820,21 @@
         <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.0</v>
+        <v>57.0</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.0</v>
+        <v>16.0</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -1824,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -1833,21 +1852,21 @@
         <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>4.0</v>
+        <v>43.0</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.0</v>
+        <v>64.0</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -1856,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -1865,21 +1884,21 @@
         <v>11</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.0</v>
+        <v>52.0</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -1888,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
@@ -1897,21 +1916,21 @@
         <v>11</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.0</v>
+        <v>42.0</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.0</v>
+        <v>12.0</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1920,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
@@ -1929,21 +1948,21 @@
         <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.0</v>
+        <v>38.0</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -1952,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
@@ -1961,21 +1980,21 @@
         <v>11</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.0</v>
+        <v>25.0</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -1984,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
@@ -1993,67 +2012,67 @@
         <v>11</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>11</v>
+        <v>0.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C62" t="n">
         <v>-1.0</v>
       </c>
-      <c r="D62" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.0</v>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="n">
+        <v>937.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>657.3675231933594</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -2063,71 +2082,71 @@
       <c r="B63" t="n">
         <v>0.0</v>
       </c>
-      <c r="C63" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.0</v>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>301.8073425292969</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>11</v>
+        <v>0.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2136,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -2145,21 +2164,21 @@
         <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.0</v>
+        <v>17.0</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2168,7 +2187,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2177,49 +2196,53 @@
         <v>11</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B67" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>11</v>
+        <v>4.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.0</v>
+        <v>40.0</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.0</v>
+        <v>30.0</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2228,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0</v>
+        <v>160.0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2237,38 +2260,3478 @@
         <v>11</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
         <v>15</v>
       </c>
-      <c r="B69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C69" t="n">
+      <c r="B91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>355.5601806640625</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="n">
         <v>-1.0</v>
       </c>
-      <c r="D69" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H69" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="n">
+        <v>937.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>657.3675231933594</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>301.8073425292969</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" t="s">
+        <v>11</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" t="s">
+        <v>11</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" t="s">
+        <v>11</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" t="s">
+        <v>11</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" t="s">
+        <v>11</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" t="s">
+        <v>11</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" t="s">
+        <v>11</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" t="s">
+        <v>11</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>355.5601806640625</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" t="s">
+        <v>11</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" t="s">
+        <v>11</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" t="s">
+        <v>11</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" t="s">
+        <v>11</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" t="s">
+        <v>11</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>11</v>
+      </c>
+      <c r="I156" t="s">
+        <v>11</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157" t="s">
+        <v>11</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" t="s">
+        <v>11</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" t="s">
+        <v>11</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" t="s">
+        <v>11</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" t="s">
+        <v>11</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162" t="s">
+        <v>11</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" t="s">
+        <v>11</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>11</v>
+      </c>
+      <c r="I164" t="s">
+        <v>11</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>11</v>
+      </c>
+      <c r="I165" t="s">
+        <v>11</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" t="s">
+        <v>11</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>11</v>
+      </c>
+      <c r="I167" t="s">
+        <v>11</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>11</v>
+      </c>
+      <c r="I168" t="s">
+        <v>11</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>11</v>
+      </c>
+      <c r="I169" t="s">
+        <v>11</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" t="s">
+        <v>11</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>11</v>
+      </c>
+      <c r="I171" t="s">
+        <v>11</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>11</v>
+      </c>
+      <c r="I172" t="s">
+        <v>11</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>11</v>
+      </c>
+      <c r="I173" t="s">
+        <v>11</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H174" t="s">
+        <v>11</v>
+      </c>
+      <c r="I174" t="s">
+        <v>11</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>11</v>
+      </c>
+      <c r="I175" t="s">
+        <v>11</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>11</v>
+      </c>
+      <c r="I176" t="s">
+        <v>11</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>11</v>
+      </c>
+      <c r="I177" t="s">
+        <v>11</v>
+      </c>
+      <c r="J177" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/temp/Temp_TR_Solutions.xlsx
+++ b/temp/Temp_TR_Solutions.xlsx
@@ -189,10 +189,10 @@
         <v>30.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.972102665580078E10</v>
+        <v>2.0191859480507812E10</v>
       </c>
       <c r="F3" t="n">
-        <v>1972.1025390625</v>
+        <v>2019.185791015625</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -220,7 +220,7 @@
         <v>937.0</v>
       </c>
       <c r="F4" t="n">
-        <v>657.3675231933594</v>
+        <v>673.0619506835938</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -245,10 +245,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>520.0</v>
+        <v>540.0</v>
       </c>
       <c r="F5" t="n">
-        <v>301.8073425292969</v>
+        <v>362.7698059082031</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -296,10 +296,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
       <c r="D7" t="n">
         <v>5.0</v>
@@ -311,7 +311,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -328,13 +328,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="D8" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -343,7 +343,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -360,13 +360,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C9" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="D9" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -375,7 +375,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -392,13 +392,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="C10" t="n">
-        <v>40.0</v>
+        <v>52.0</v>
       </c>
       <c r="D10" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -407,7 +407,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>160.0</v>
+        <v>10.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -424,13 +424,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="C11" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -439,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -456,13 +456,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="D12" t="n">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.0</v>
+        <v>63.0</v>
       </c>
       <c r="D13" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="C14" t="n">
-        <v>47.0</v>
+        <v>68.0</v>
       </c>
       <c r="D14" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -552,22 +552,22 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>7.0</v>
+        <v>48.0</v>
       </c>
       <c r="C15" t="n">
-        <v>63.0</v>
+        <v>55.0</v>
       </c>
       <c r="D15" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
         <v>17.0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="n">
-        <v>19.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="C16" t="n">
-        <v>68.0</v>
+        <v>47.0</v>
       </c>
       <c r="D16" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -616,22 +616,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
         <v>8.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="n">
-        <v>23.0</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -648,13 +648,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="C18" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="D18" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -680,13 +680,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="C19" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D19" t="n">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -695,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -776,13 +776,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="C22" t="n">
-        <v>49.0</v>
+        <v>46.0</v>
       </c>
       <c r="D22" t="n">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -791,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -808,13 +808,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="C23" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="D23" t="n">
-        <v>52.0</v>
+        <v>32.0</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -823,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -840,14 +840,14 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D24" t="n">
         <v>30.0</v>
       </c>
-      <c r="C24" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>58.0</v>
-      </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
@@ -855,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>19.0</v>
+        <v>160.0</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>39.0</v>
+        <v>47.0</v>
       </c>
       <c r="C25" t="n">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="D25" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -904,13 +904,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>49.0</v>
+        <v>12.0</v>
       </c>
       <c r="C26" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="D26" t="n">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C27" t="n">
-        <v>35.0</v>
+        <v>15.0</v>
       </c>
       <c r="D27" t="n">
-        <v>45.0</v>
+        <v>59.0</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -951,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -968,13 +968,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="C28" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="C29" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1015,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1032,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C30" t="n">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="D30" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1064,13 +1064,13 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="C31" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="D31" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1079,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
@@ -1137,10 +1137,10 @@
         <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>417.0</v>
+        <v>397.0</v>
       </c>
       <c r="F33" t="n">
-        <v>355.5601806640625</v>
+        <v>310.2921447753906</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -1188,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="C35" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="D35" t="n">
-        <v>13.0</v>
+        <v>39.0</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1220,22 +1220,22 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="C36" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="n">
         <v>10.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="n">
-        <v>13.0</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1252,13 +1252,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="C37" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="D37" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -1284,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="C38" t="n">
-        <v>10.0</v>
+        <v>28.0</v>
       </c>
       <c r="D38" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1299,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1316,13 +1316,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="D39" t="n">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1331,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1348,13 +1348,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="C40" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="D40" t="n">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -1380,13 +1380,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="C41" t="n">
         <v>33.0</v>
       </c>
       <c r="D41" t="n">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1395,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1444,13 +1444,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="C43" t="n">
-        <v>42.0</v>
+        <v>33.0</v>
       </c>
       <c r="D43" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1459,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -1476,13 +1476,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="C44" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
       <c r="D44" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1491,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -1508,13 +1508,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="C45" t="n">
-        <v>41.0</v>
+        <v>48.0</v>
       </c>
       <c r="D45" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1523,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -1540,13 +1540,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C46" t="n">
         <v>41.0</v>
       </c>
       <c r="D46" t="n">
-        <v>42.0</v>
+        <v>52.0</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1555,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1572,13 +1572,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="C47" t="n">
-        <v>63.0</v>
+        <v>49.0</v>
       </c>
       <c r="D47" t="n">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1604,13 +1604,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="C48" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="D48" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -1636,13 +1636,13 @@
         <v>16</v>
       </c>
       <c r="B49" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="C49" t="n">
-        <v>69.0</v>
+        <v>64.0</v>
       </c>
       <c r="D49" t="n">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -1651,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="H49" t="s">
         <v>11</v>
@@ -1668,13 +1668,13 @@
         <v>16</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C50" t="n">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
       <c r="D50" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1683,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1700,13 +1700,13 @@
         <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C51" t="n">
-        <v>32.0</v>
+        <v>52.0</v>
       </c>
       <c r="D51" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="H51" t="s">
         <v>11</v>
@@ -1732,13 +1732,13 @@
         <v>16</v>
       </c>
       <c r="B52" t="n">
-        <v>47.0</v>
+        <v>27.0</v>
       </c>
       <c r="C52" t="n">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="D52" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
@@ -1764,13 +1764,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C53" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="D53" t="n">
-        <v>17.0</v>
+        <v>42.0</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1779,7 +1779,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
@@ -1796,13 +1796,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>48.0</v>
+        <v>38.0</v>
       </c>
       <c r="C54" t="n">
-        <v>55.0</v>
+        <v>35.0</v>
       </c>
       <c r="D54" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -1811,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="H54" t="s">
         <v>11</v>
@@ -1828,13 +1828,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="C55" t="n">
-        <v>57.0</v>
+        <v>22.0</v>
       </c>
       <c r="D55" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -1843,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -1860,13 +1860,13 @@
         <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="C56" t="n">
-        <v>64.0</v>
+        <v>23.0</v>
       </c>
       <c r="D56" t="n">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -1875,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -1892,13 +1892,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="C57" t="n">
-        <v>52.0</v>
+        <v>33.0</v>
       </c>
       <c r="D57" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
@@ -1924,13 +1924,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="C58" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="D58" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1939,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
@@ -1956,13 +1956,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="C59" t="n">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c r="D59" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
@@ -1988,10 +1988,10 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="C60" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="D60" t="n">
         <v>5.0</v>
@@ -2003,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
@@ -2064,7 +2064,7 @@
         <v>937.0</v>
       </c>
       <c r="F62" t="n">
-        <v>657.3675231933594</v>
+        <v>673.0619506835938</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -2089,10 +2089,10 @@
         <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>520.0</v>
+        <v>540.0</v>
       </c>
       <c r="F63" t="n">
-        <v>301.8073425292969</v>
+        <v>362.7698059082031</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -2140,10 +2140,10 @@
         <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="C65" t="n">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
       <c r="D65" t="n">
         <v>5.0</v>
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -2172,13 +2172,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="C66" t="n">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="D66" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2187,7 +2187,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2204,13 +2204,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C67" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="D67" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2219,7 +2219,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -2236,13 +2236,13 @@
         <v>16</v>
       </c>
       <c r="B68" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="C68" t="n">
-        <v>40.0</v>
+        <v>52.0</v>
       </c>
       <c r="D68" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2251,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>160.0</v>
+        <v>10.0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2268,13 +2268,13 @@
         <v>16</v>
       </c>
       <c r="B69" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="C69" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="D69" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2283,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
@@ -2300,13 +2300,13 @@
         <v>16</v>
       </c>
       <c r="B70" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="C70" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="D70" t="n">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2315,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
@@ -2332,13 +2332,13 @@
         <v>16</v>
       </c>
       <c r="B71" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="C71" t="n">
-        <v>48.0</v>
+        <v>63.0</v>
       </c>
       <c r="D71" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2347,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
@@ -2364,13 +2364,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="C72" t="n">
-        <v>47.0</v>
+        <v>68.0</v>
       </c>
       <c r="D72" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2379,7 +2379,7 @@
         <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="H72" t="s">
         <v>11</v>
@@ -2396,22 +2396,22 @@
         <v>16</v>
       </c>
       <c r="B73" t="n">
-        <v>7.0</v>
+        <v>48.0</v>
       </c>
       <c r="C73" t="n">
-        <v>63.0</v>
+        <v>55.0</v>
       </c>
       <c r="D73" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="n">
         <v>17.0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="n">
-        <v>19.0</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
@@ -2428,13 +2428,13 @@
         <v>16</v>
       </c>
       <c r="B74" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="C74" t="n">
-        <v>68.0</v>
+        <v>47.0</v>
       </c>
       <c r="D74" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2443,7 +2443,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -2460,22 +2460,22 @@
         <v>16</v>
       </c>
       <c r="B75" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="n">
         <v>8.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="n">
-        <v>23.0</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -2492,13 +2492,13 @@
         <v>16</v>
       </c>
       <c r="B76" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="C76" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="D76" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2507,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
@@ -2524,13 +2524,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="C77" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D77" t="n">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2539,7 +2539,7 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2620,13 +2620,13 @@
         <v>16</v>
       </c>
       <c r="B80" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="C80" t="n">
-        <v>49.0</v>
+        <v>46.0</v>
       </c>
       <c r="D80" t="n">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2635,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
@@ -2652,13 +2652,13 @@
         <v>16</v>
       </c>
       <c r="B81" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="C81" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="D81" t="n">
-        <v>52.0</v>
+        <v>32.0</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2667,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -2684,14 +2684,14 @@
         <v>16</v>
       </c>
       <c r="B82" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D82" t="n">
         <v>30.0</v>
       </c>
-      <c r="C82" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>58.0</v>
-      </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>19.0</v>
+        <v>160.0</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -2716,13 +2716,13 @@
         <v>16</v>
       </c>
       <c r="B83" t="n">
-        <v>39.0</v>
+        <v>47.0</v>
       </c>
       <c r="C83" t="n">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="D83" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -2731,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -2748,13 +2748,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="n">
-        <v>49.0</v>
+        <v>12.0</v>
       </c>
       <c r="C84" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="D84" t="n">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -2763,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2780,13 +2780,13 @@
         <v>16</v>
       </c>
       <c r="B85" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C85" t="n">
-        <v>35.0</v>
+        <v>15.0</v>
       </c>
       <c r="D85" t="n">
-        <v>45.0</v>
+        <v>59.0</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -2795,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -2812,13 +2812,13 @@
         <v>16</v>
       </c>
       <c r="B86" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="C86" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="D86" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -2827,7 +2827,7 @@
         <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -2844,13 +2844,13 @@
         <v>16</v>
       </c>
       <c r="B87" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="C87" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D87" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2859,7 +2859,7 @@
         <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
@@ -2876,13 +2876,13 @@
         <v>16</v>
       </c>
       <c r="B88" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C88" t="n">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="D88" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -2891,7 +2891,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2908,13 +2908,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="C89" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="D89" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -2923,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="H89" t="s">
         <v>11</v>
@@ -2981,10 +2981,10 @@
         <v>11</v>
       </c>
       <c r="E91" t="n">
-        <v>417.0</v>
+        <v>397.0</v>
       </c>
       <c r="F91" t="n">
-        <v>355.5601806640625</v>
+        <v>310.2921447753906</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3032,13 +3032,13 @@
         <v>16</v>
       </c>
       <c r="B93" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="C93" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="D93" t="n">
-        <v>13.0</v>
+        <v>39.0</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3047,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H93" t="s">
         <v>11</v>
@@ -3064,22 +3064,22 @@
         <v>16</v>
       </c>
       <c r="B94" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="C94" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="n">
         <v>10.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="n">
-        <v>13.0</v>
       </c>
       <c r="H94" t="s">
         <v>11</v>
@@ -3096,13 +3096,13 @@
         <v>16</v>
       </c>
       <c r="B95" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="C95" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="D95" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3111,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -3128,13 +3128,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="C96" t="n">
-        <v>10.0</v>
+        <v>28.0</v>
       </c>
       <c r="D96" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3143,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
@@ -3160,13 +3160,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="C97" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="D97" t="n">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -3175,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
@@ -3192,13 +3192,13 @@
         <v>16</v>
       </c>
       <c r="B98" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="C98" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="D98" t="n">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -3207,7 +3207,7 @@
         <v>11</v>
       </c>
       <c r="G98" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="H98" t="s">
         <v>11</v>
@@ -3224,13 +3224,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="C99" t="n">
         <v>33.0</v>
       </c>
       <c r="D99" t="n">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3239,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -3288,13 +3288,13 @@
         <v>16</v>
       </c>
       <c r="B101" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="C101" t="n">
-        <v>42.0</v>
+        <v>33.0</v>
       </c>
       <c r="D101" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3303,7 +3303,7 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -3320,13 +3320,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="C102" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
       <c r="D102" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3335,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H102" t="s">
         <v>11</v>
@@ -3352,13 +3352,13 @@
         <v>16</v>
       </c>
       <c r="B103" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="C103" t="n">
-        <v>41.0</v>
+        <v>48.0</v>
       </c>
       <c r="D103" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3367,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
@@ -3384,13 +3384,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C104" t="n">
         <v>41.0</v>
       </c>
       <c r="D104" t="n">
-        <v>42.0</v>
+        <v>52.0</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3399,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H104" t="s">
         <v>11</v>
@@ -3416,13 +3416,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="C105" t="n">
-        <v>63.0</v>
+        <v>49.0</v>
       </c>
       <c r="D105" t="n">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3431,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="H105" t="s">
         <v>11</v>
@@ -3448,13 +3448,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="C106" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="D106" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -3463,7 +3463,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="H106" t="s">
         <v>11</v>
@@ -3480,13 +3480,13 @@
         <v>16</v>
       </c>
       <c r="B107" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="C107" t="n">
-        <v>69.0</v>
+        <v>64.0</v>
       </c>
       <c r="D107" t="n">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3495,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="H107" t="s">
         <v>11</v>
@@ -3512,13 +3512,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C108" t="n">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
       <c r="D108" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3527,7 +3527,7 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="H108" t="s">
         <v>11</v>
@@ -3544,13 +3544,13 @@
         <v>16</v>
       </c>
       <c r="B109" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C109" t="n">
-        <v>32.0</v>
+        <v>52.0</v>
       </c>
       <c r="D109" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3559,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -3576,13 +3576,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="n">
-        <v>47.0</v>
+        <v>27.0</v>
       </c>
       <c r="C110" t="n">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="D110" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -3591,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
@@ -3608,13 +3608,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C111" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="D111" t="n">
-        <v>17.0</v>
+        <v>42.0</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -3623,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="H111" t="s">
         <v>11</v>
@@ -3640,13 +3640,13 @@
         <v>16</v>
       </c>
       <c r="B112" t="n">
-        <v>48.0</v>
+        <v>38.0</v>
       </c>
       <c r="C112" t="n">
-        <v>55.0</v>
+        <v>35.0</v>
       </c>
       <c r="D112" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
@@ -3672,13 +3672,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="C113" t="n">
-        <v>57.0</v>
+        <v>22.0</v>
       </c>
       <c r="D113" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -3687,7 +3687,7 @@
         <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="H113" t="s">
         <v>11</v>
@@ -3704,13 +3704,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="C114" t="n">
-        <v>64.0</v>
+        <v>23.0</v>
       </c>
       <c r="D114" t="n">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -3719,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="G114" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="H114" t="s">
         <v>11</v>
@@ -3736,13 +3736,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="C115" t="n">
-        <v>52.0</v>
+        <v>33.0</v>
       </c>
       <c r="D115" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -3751,7 +3751,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="H115" t="s">
         <v>11</v>
@@ -3768,13 +3768,13 @@
         <v>16</v>
       </c>
       <c r="B116" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="C116" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="D116" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -3783,7 +3783,7 @@
         <v>11</v>
       </c>
       <c r="G116" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="H116" t="s">
         <v>11</v>
@@ -3800,13 +3800,13 @@
         <v>16</v>
       </c>
       <c r="B117" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="C117" t="n">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c r="D117" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -3815,7 +3815,7 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="H117" t="s">
         <v>11</v>
@@ -3832,10 +3832,10 @@
         <v>16</v>
       </c>
       <c r="B118" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="C118" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="D118" t="n">
         <v>5.0</v>
@@ -3847,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="H118" t="s">
         <v>11</v>
@@ -3908,7 +3908,7 @@
         <v>937.0</v>
       </c>
       <c r="F120" t="n">
-        <v>657.3675231933594</v>
+        <v>673.0619506835938</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
@@ -3933,10 +3933,10 @@
         <v>11</v>
       </c>
       <c r="E121" t="n">
-        <v>520.0</v>
+        <v>540.0</v>
       </c>
       <c r="F121" t="n">
-        <v>301.8073425292969</v>
+        <v>362.7698059082031</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -3984,10 +3984,10 @@
         <v>16</v>
       </c>
       <c r="B123" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="C123" t="n">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
       <c r="D123" t="n">
         <v>5.0</v>
@@ -3999,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="H123" t="s">
         <v>11</v>
@@ -4016,13 +4016,13 @@
         <v>16</v>
       </c>
       <c r="B124" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="C124" t="n">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="D124" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -4031,7 +4031,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
@@ -4048,13 +4048,13 @@
         <v>16</v>
       </c>
       <c r="B125" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C125" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="D125" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -4063,7 +4063,7 @@
         <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="H125" t="s">
         <v>11</v>
@@ -4080,13 +4080,13 @@
         <v>16</v>
       </c>
       <c r="B126" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="C126" t="n">
-        <v>40.0</v>
+        <v>52.0</v>
       </c>
       <c r="D126" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -4095,7 +4095,7 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>160.0</v>
+        <v>10.0</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -4112,13 +4112,13 @@
         <v>16</v>
       </c>
       <c r="B127" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="C127" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="D127" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -4127,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -4144,13 +4144,13 @@
         <v>16</v>
       </c>
       <c r="B128" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="C128" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="D128" t="n">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -4159,7 +4159,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -4176,13 +4176,13 @@
         <v>16</v>
       </c>
       <c r="B129" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="C129" t="n">
-        <v>48.0</v>
+        <v>63.0</v>
       </c>
       <c r="D129" t="n">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -4191,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
@@ -4208,13 +4208,13 @@
         <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="C130" t="n">
-        <v>47.0</v>
+        <v>68.0</v>
       </c>
       <c r="D130" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -4223,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -4240,22 +4240,22 @@
         <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>7.0</v>
+        <v>48.0</v>
       </c>
       <c r="C131" t="n">
-        <v>63.0</v>
+        <v>55.0</v>
       </c>
       <c r="D131" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="n">
         <v>17.0</v>
-      </c>
-      <c r="E131" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="n">
-        <v>19.0</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -4272,13 +4272,13 @@
         <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="C132" t="n">
-        <v>68.0</v>
+        <v>47.0</v>
       </c>
       <c r="D132" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -4287,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="H132" t="s">
         <v>11</v>
@@ -4304,22 +4304,22 @@
         <v>16</v>
       </c>
       <c r="B133" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="n">
         <v>8.0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="n">
-        <v>23.0</v>
       </c>
       <c r="H133" t="s">
         <v>11</v>
@@ -4336,13 +4336,13 @@
         <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="C134" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="D134" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -4351,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="G134" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="H134" t="s">
         <v>11</v>
@@ -4368,13 +4368,13 @@
         <v>16</v>
       </c>
       <c r="B135" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="C135" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="D135" t="n">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -4383,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="G135" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H135" t="s">
         <v>11</v>
@@ -4464,13 +4464,13 @@
         <v>16</v>
       </c>
       <c r="B138" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="C138" t="n">
-        <v>49.0</v>
+        <v>46.0</v>
       </c>
       <c r="D138" t="n">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -4479,7 +4479,7 @@
         <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="H138" t="s">
         <v>11</v>
@@ -4496,13 +4496,13 @@
         <v>16</v>
       </c>
       <c r="B139" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="C139" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="D139" t="n">
-        <v>52.0</v>
+        <v>32.0</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -4511,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="G139" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="H139" t="s">
         <v>11</v>
@@ -4528,14 +4528,14 @@
         <v>16</v>
       </c>
       <c r="B140" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D140" t="n">
         <v>30.0</v>
       </c>
-      <c r="C140" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>58.0</v>
-      </c>
       <c r="E140" t="s">
         <v>11</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>11</v>
       </c>
       <c r="G140" t="n">
-        <v>19.0</v>
+        <v>160.0</v>
       </c>
       <c r="H140" t="s">
         <v>11</v>
@@ -4560,13 +4560,13 @@
         <v>16</v>
       </c>
       <c r="B141" t="n">
-        <v>39.0</v>
+        <v>47.0</v>
       </c>
       <c r="C141" t="n">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="D141" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -4575,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="G141" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="H141" t="s">
         <v>11</v>
@@ -4592,13 +4592,13 @@
         <v>16</v>
       </c>
       <c r="B142" t="n">
-        <v>49.0</v>
+        <v>12.0</v>
       </c>
       <c r="C142" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="D142" t="n">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -4607,7 +4607,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="H142" t="s">
         <v>11</v>
@@ -4624,13 +4624,13 @@
         <v>16</v>
       </c>
       <c r="B143" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C143" t="n">
-        <v>35.0</v>
+        <v>15.0</v>
       </c>
       <c r="D143" t="n">
-        <v>45.0</v>
+        <v>59.0</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -4639,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="G143" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="H143" t="s">
         <v>11</v>
@@ -4656,13 +4656,13 @@
         <v>16</v>
       </c>
       <c r="B144" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="C144" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="D144" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -4671,7 +4671,7 @@
         <v>11</v>
       </c>
       <c r="G144" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H144" t="s">
         <v>11</v>
@@ -4688,13 +4688,13 @@
         <v>16</v>
       </c>
       <c r="B145" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="C145" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D145" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -4703,7 +4703,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="H145" t="s">
         <v>11</v>
@@ -4720,13 +4720,13 @@
         <v>16</v>
       </c>
       <c r="B146" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C146" t="n">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="D146" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -4735,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H146" t="s">
         <v>11</v>
@@ -4752,13 +4752,13 @@
         <v>16</v>
       </c>
       <c r="B147" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="C147" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="D147" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
@@ -4767,7 +4767,7 @@
         <v>11</v>
       </c>
       <c r="G147" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="H147" t="s">
         <v>11</v>
@@ -4825,10 +4825,10 @@
         <v>11</v>
       </c>
       <c r="E149" t="n">
-        <v>417.0</v>
+        <v>397.0</v>
       </c>
       <c r="F149" t="n">
-        <v>355.5601806640625</v>
+        <v>310.2921447753906</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
@@ -4876,13 +4876,13 @@
         <v>16</v>
       </c>
       <c r="B151" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="C151" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="D151" t="n">
-        <v>13.0</v>
+        <v>39.0</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -4891,7 +4891,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H151" t="s">
         <v>11</v>
@@ -4908,22 +4908,22 @@
         <v>16</v>
       </c>
       <c r="B152" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="C152" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" t="n">
         <v>10.0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="E152" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="n">
-        <v>13.0</v>
       </c>
       <c r="H152" t="s">
         <v>11</v>
@@ -4940,13 +4940,13 @@
         <v>16</v>
       </c>
       <c r="B153" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="C153" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="D153" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -4955,7 +4955,7 @@
         <v>11</v>
       </c>
       <c r="G153" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="H153" t="s">
         <v>11</v>
@@ -4972,13 +4972,13 @@
         <v>16</v>
       </c>
       <c r="B154" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="C154" t="n">
-        <v>10.0</v>
+        <v>28.0</v>
       </c>
       <c r="D154" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -4987,7 +4987,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="H154" t="s">
         <v>11</v>
@@ -5004,13 +5004,13 @@
         <v>16</v>
       </c>
       <c r="B155" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="C155" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="D155" t="n">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -5019,7 +5019,7 @@
         <v>11</v>
       </c>
       <c r="G155" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="H155" t="s">
         <v>11</v>
@@ -5036,13 +5036,13 @@
         <v>16</v>
       </c>
       <c r="B156" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="C156" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="D156" t="n">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -5051,7 +5051,7 @@
         <v>11</v>
       </c>
       <c r="G156" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="H156" t="s">
         <v>11</v>
@@ -5068,13 +5068,13 @@
         <v>16</v>
       </c>
       <c r="B157" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="C157" t="n">
         <v>33.0</v>
       </c>
       <c r="D157" t="n">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
@@ -5083,7 +5083,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="H157" t="s">
         <v>11</v>
@@ -5132,13 +5132,13 @@
         <v>16</v>
       </c>
       <c r="B159" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="C159" t="n">
-        <v>42.0</v>
+        <v>33.0</v>
       </c>
       <c r="D159" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -5147,7 +5147,7 @@
         <v>11</v>
       </c>
       <c r="G159" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="H159" t="s">
         <v>11</v>
@@ -5164,13 +5164,13 @@
         <v>16</v>
       </c>
       <c r="B160" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="C160" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
       <c r="D160" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
@@ -5179,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H160" t="s">
         <v>11</v>
@@ -5196,13 +5196,13 @@
         <v>16</v>
       </c>
       <c r="B161" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="C161" t="n">
-        <v>41.0</v>
+        <v>48.0</v>
       </c>
       <c r="D161" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -5211,7 +5211,7 @@
         <v>11</v>
       </c>
       <c r="G161" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="H161" t="s">
         <v>11</v>
@@ -5228,13 +5228,13 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C162" t="n">
         <v>41.0</v>
       </c>
       <c r="D162" t="n">
-        <v>42.0</v>
+        <v>52.0</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -5243,7 +5243,7 @@
         <v>11</v>
       </c>
       <c r="G162" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H162" t="s">
         <v>11</v>
@@ -5260,13 +5260,13 @@
         <v>16</v>
       </c>
       <c r="B163" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="C163" t="n">
-        <v>63.0</v>
+        <v>49.0</v>
       </c>
       <c r="D163" t="n">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
@@ -5275,7 +5275,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="H163" t="s">
         <v>11</v>
@@ -5292,13 +5292,13 @@
         <v>16</v>
       </c>
       <c r="B164" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="C164" t="n">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
       <c r="D164" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -5307,7 +5307,7 @@
         <v>11</v>
       </c>
       <c r="G164" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="H164" t="s">
         <v>11</v>
@@ -5324,13 +5324,13 @@
         <v>16</v>
       </c>
       <c r="B165" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="C165" t="n">
-        <v>69.0</v>
+        <v>64.0</v>
       </c>
       <c r="D165" t="n">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
       <c r="E165" t="s">
         <v>11</v>
@@ -5339,7 +5339,7 @@
         <v>11</v>
       </c>
       <c r="G165" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="H165" t="s">
         <v>11</v>
@@ -5356,13 +5356,13 @@
         <v>16</v>
       </c>
       <c r="B166" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C166" t="n">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
       <c r="D166" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
@@ -5371,7 +5371,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="H166" t="s">
         <v>11</v>
@@ -5388,13 +5388,13 @@
         <v>16</v>
       </c>
       <c r="B167" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C167" t="n">
-        <v>32.0</v>
+        <v>52.0</v>
       </c>
       <c r="D167" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
@@ -5403,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="G167" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="H167" t="s">
         <v>11</v>
@@ -5420,13 +5420,13 @@
         <v>16</v>
       </c>
       <c r="B168" t="n">
-        <v>47.0</v>
+        <v>27.0</v>
       </c>
       <c r="C168" t="n">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="D168" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -5435,7 +5435,7 @@
         <v>11</v>
       </c>
       <c r="G168" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="H168" t="s">
         <v>11</v>
@@ -5452,13 +5452,13 @@
         <v>16</v>
       </c>
       <c r="B169" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C169" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="D169" t="n">
-        <v>17.0</v>
+        <v>42.0</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -5467,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="H169" t="s">
         <v>11</v>
@@ -5484,13 +5484,13 @@
         <v>16</v>
       </c>
       <c r="B170" t="n">
-        <v>48.0</v>
+        <v>38.0</v>
       </c>
       <c r="C170" t="n">
-        <v>55.0</v>
+        <v>35.0</v>
       </c>
       <c r="D170" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -5499,7 +5499,7 @@
         <v>11</v>
       </c>
       <c r="G170" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="H170" t="s">
         <v>11</v>
@@ -5516,13 +5516,13 @@
         <v>16</v>
       </c>
       <c r="B171" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="C171" t="n">
-        <v>57.0</v>
+        <v>22.0</v>
       </c>
       <c r="D171" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -5531,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="G171" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="H171" t="s">
         <v>11</v>
@@ -5548,13 +5548,13 @@
         <v>16</v>
       </c>
       <c r="B172" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="C172" t="n">
-        <v>64.0</v>
+        <v>23.0</v>
       </c>
       <c r="D172" t="n">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
       <c r="E172" t="s">
         <v>11</v>
@@ -5563,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="G172" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="H172" t="s">
         <v>11</v>
@@ -5580,13 +5580,13 @@
         <v>16</v>
       </c>
       <c r="B173" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="C173" t="n">
-        <v>52.0</v>
+        <v>33.0</v>
       </c>
       <c r="D173" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
@@ -5595,7 +5595,7 @@
         <v>11</v>
       </c>
       <c r="G173" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="H173" t="s">
         <v>11</v>
@@ -5612,13 +5612,13 @@
         <v>16</v>
       </c>
       <c r="B174" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="C174" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="D174" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -5627,7 +5627,7 @@
         <v>11</v>
       </c>
       <c r="G174" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="H174" t="s">
         <v>11</v>
@@ -5644,13 +5644,13 @@
         <v>16</v>
       </c>
       <c r="B175" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="C175" t="n">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c r="D175" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>11</v>
       </c>
       <c r="G175" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="H175" t="s">
         <v>11</v>
@@ -5676,10 +5676,10 @@
         <v>16</v>
       </c>
       <c r="B176" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="C176" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="D176" t="n">
         <v>5.0</v>
@@ -5691,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="G176" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="H176" t="s">
         <v>11</v>

--- a/temp/Temp_TR_Solutions.xlsx
+++ b/temp/Temp_TR_Solutions.xlsx
@@ -189,10 +189,10 @@
         <v>30.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0191859480507812E10</v>
+        <v>1.9539912459023438E10</v>
       </c>
       <c r="F3" t="n">
-        <v>2019.185791015625</v>
+        <v>1953.9912109375</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -220,7 +220,7 @@
         <v>937.0</v>
       </c>
       <c r="F4" t="n">
-        <v>673.0619506835938</v>
+        <v>651.3303833007812</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -245,15 +245,15 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>540.0</v>
+        <v>469.0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7698059082031</v>
+        <v>304.6520080566406</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -264,7 +264,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -296,13 +296,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -311,7 +311,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -328,13 +328,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -343,7 +343,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -360,13 +360,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="D9" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -375,7 +375,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -392,13 +392,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="C10" t="n">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="D10" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -407,7 +407,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -424,13 +424,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="C11" t="n">
-        <v>64.0</v>
+        <v>40.0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -439,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>11.0</v>
+        <v>160.0</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -456,13 +456,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="C12" t="n">
-        <v>57.0</v>
+        <v>46.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.0</v>
+        <v>38.0</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -488,22 +488,22 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
         <v>7.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="n">
-        <v>19.0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="C14" t="n">
-        <v>68.0</v>
+        <v>57.0</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="C15" t="n">
-        <v>55.0</v>
+        <v>67.0</v>
       </c>
       <c r="D15" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -567,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C16" t="n">
-        <v>47.0</v>
+        <v>64.0</v>
       </c>
       <c r="D16" t="n">
-        <v>21.0</v>
+        <v>52.0</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -616,13 +616,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="C17" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0</v>
+        <v>63.0</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -648,13 +648,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="C18" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="D18" t="n">
-        <v>37.0</v>
+        <v>62.0</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -680,22 +680,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="n">
         <v>28.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -712,13 +712,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>69.0</v>
+        <v>49.0</v>
       </c>
       <c r="D20" t="n">
-        <v>63.0</v>
+        <v>49.0</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -744,13 +744,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C21" t="n">
-        <v>58.0</v>
+        <v>37.0</v>
       </c>
       <c r="D21" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -776,13 +776,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="C22" t="n">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
       <c r="D22" t="n">
-        <v>38.0</v>
+        <v>52.0</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -791,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -808,13 +808,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="C23" t="n">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="D23" t="n">
-        <v>32.0</v>
+        <v>51.0</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -840,14 +840,14 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="C24" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D24" t="n">
         <v>40.0</v>
       </c>
-      <c r="D24" t="n">
-        <v>30.0</v>
-      </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
@@ -855,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>160.0</v>
+        <v>21.0</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="C25" t="n">
         <v>32.0</v>
       </c>
       <c r="D25" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -904,13 +904,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="C26" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="D26" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="C27" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="D27" t="n">
-        <v>59.0</v>
+        <v>32.0</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -951,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -968,22 +968,22 @@
         <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="C28" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="n">
         <v>10.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="n">
-        <v>23.0</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="C29" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="D29" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1015,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1032,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C30" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1056,39 +1056,35 @@
         <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>346.6783752441406</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1096,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C32" t="n">
         <v>0.0</v>
@@ -1125,30 +1121,34 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>310.2921447753906</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>11</v>
+        <v>41.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1156,13 +1156,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -1188,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="C35" t="n">
-        <v>10.0</v>
+        <v>32.0</v>
       </c>
       <c r="D35" t="n">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C36" t="n">
-        <v>16.0</v>
+        <v>33.0</v>
       </c>
       <c r="D36" t="n">
-        <v>36.0</v>
+        <v>17.0</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1252,13 +1252,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="C37" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -1284,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>49.0</v>
+        <v>24.0</v>
       </c>
       <c r="C38" t="n">
-        <v>28.0</v>
+        <v>52.0</v>
       </c>
       <c r="D38" t="n">
-        <v>48.0</v>
+        <v>8.0</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1299,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1316,13 +1316,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="C39" t="n">
-        <v>21.0</v>
+        <v>64.0</v>
       </c>
       <c r="D39" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1331,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1348,13 +1348,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="C40" t="n">
-        <v>27.0</v>
+        <v>57.0</v>
       </c>
       <c r="D40" t="n">
-        <v>58.0</v>
+        <v>16.0</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -1380,13 +1380,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="C41" t="n">
-        <v>33.0</v>
+        <v>63.0</v>
       </c>
       <c r="D41" t="n">
-        <v>52.0</v>
+        <v>17.0</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1395,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1412,13 +1412,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="C42" t="n">
-        <v>37.0</v>
+        <v>55.0</v>
       </c>
       <c r="D42" t="n">
-        <v>56.0</v>
+        <v>25.0</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -1444,13 +1444,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="C43" t="n">
-        <v>33.0</v>
+        <v>62.0</v>
       </c>
       <c r="D43" t="n">
-        <v>61.0</v>
+        <v>31.0</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1459,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -1476,13 +1476,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="C44" t="n">
-        <v>42.0</v>
+        <v>69.0</v>
       </c>
       <c r="D44" t="n">
-        <v>62.0</v>
+        <v>37.0</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1491,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -1508,13 +1508,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="C45" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="D45" t="n">
-        <v>58.0</v>
+        <v>37.0</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1523,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -1540,13 +1540,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="C46" t="n">
-        <v>41.0</v>
+        <v>48.0</v>
       </c>
       <c r="D46" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1555,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1572,13 +1572,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="C47" t="n">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
       <c r="D47" t="n">
-        <v>49.0</v>
+        <v>62.0</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1604,13 +1604,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C48" t="n">
-        <v>63.0</v>
+        <v>33.0</v>
       </c>
       <c r="D48" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -1636,13 +1636,13 @@
         <v>16</v>
       </c>
       <c r="B49" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="C49" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="D49" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -1651,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="H49" t="s">
         <v>11</v>
@@ -1668,13 +1668,13 @@
         <v>16</v>
       </c>
       <c r="B50" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="C50" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
       <c r="D50" t="n">
-        <v>31.0</v>
+        <v>52.0</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1683,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1700,13 +1700,13 @@
         <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C51" t="n">
-        <v>52.0</v>
+        <v>41.0</v>
       </c>
       <c r="D51" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="H51" t="s">
         <v>11</v>
@@ -1732,13 +1732,13 @@
         <v>16</v>
       </c>
       <c r="B52" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="C52" t="n">
-        <v>48.0</v>
+        <v>39.0</v>
       </c>
       <c r="D52" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
@@ -1764,13 +1764,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="n">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
       <c r="C53" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="D53" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1779,7 +1779,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
@@ -1796,13 +1796,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="C54" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="D54" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -1811,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H54" t="s">
         <v>11</v>
@@ -1828,13 +1828,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C55" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D55" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -1843,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -1860,22 +1860,22 @@
         <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="C56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="n">
         <v>23.0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3.0</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -1892,13 +1892,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="C57" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="D57" t="n">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -1907,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
@@ -1924,13 +1924,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="C58" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="D58" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1939,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
@@ -2020,7 +2020,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C61" t="n">
         <v>0.0</v>
@@ -2064,7 +2064,7 @@
         <v>937.0</v>
       </c>
       <c r="F62" t="n">
-        <v>673.0619506835938</v>
+        <v>651.3303833007812</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -2089,15 +2089,15 @@
         <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>540.0</v>
+        <v>469.0</v>
       </c>
       <c r="F63" t="n">
-        <v>362.7698059082031</v>
+        <v>304.6520080566406</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="J63" t="s">
         <v>11</v>
@@ -2108,7 +2108,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C64" t="n">
         <v>0.0</v>
@@ -2140,13 +2140,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="C65" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D65" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -2172,13 +2172,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="C66" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="D66" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2187,7 +2187,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2204,13 +2204,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="C67" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="D67" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2219,7 +2219,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -2236,13 +2236,13 @@
         <v>16</v>
       </c>
       <c r="B68" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="C68" t="n">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="D68" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2251,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2268,13 +2268,13 @@
         <v>16</v>
       </c>
       <c r="B69" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="C69" t="n">
-        <v>64.0</v>
+        <v>40.0</v>
       </c>
       <c r="D69" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2283,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>11.0</v>
+        <v>160.0</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
@@ -2300,13 +2300,13 @@
         <v>16</v>
       </c>
       <c r="B70" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="C70" t="n">
-        <v>57.0</v>
+        <v>46.0</v>
       </c>
       <c r="D70" t="n">
-        <v>16.0</v>
+        <v>38.0</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2315,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
@@ -2332,22 +2332,22 @@
         <v>16</v>
       </c>
       <c r="B71" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="n">
         <v>7.0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="n">
-        <v>19.0</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
@@ -2364,13 +2364,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="C72" t="n">
-        <v>68.0</v>
+        <v>57.0</v>
       </c>
       <c r="D72" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2379,7 +2379,7 @@
         <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H72" t="s">
         <v>11</v>
@@ -2396,13 +2396,13 @@
         <v>16</v>
       </c>
       <c r="B73" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="C73" t="n">
-        <v>55.0</v>
+        <v>67.0</v>
       </c>
       <c r="D73" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
@@ -2428,13 +2428,13 @@
         <v>16</v>
       </c>
       <c r="B74" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C74" t="n">
-        <v>47.0</v>
+        <v>64.0</v>
       </c>
       <c r="D74" t="n">
-        <v>21.0</v>
+        <v>52.0</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2443,7 +2443,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -2460,13 +2460,13 @@
         <v>16</v>
       </c>
       <c r="B75" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="C75" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="D75" t="n">
-        <v>42.0</v>
+        <v>63.0</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2475,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="G75" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -2492,13 +2492,13 @@
         <v>16</v>
       </c>
       <c r="B76" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="C76" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="D76" t="n">
-        <v>37.0</v>
+        <v>62.0</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2507,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
@@ -2524,22 +2524,22 @@
         <v>16</v>
       </c>
       <c r="B77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="n">
         <v>28.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="n">
-        <v>14.0</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2556,13 +2556,13 @@
         <v>16</v>
       </c>
       <c r="B78" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="C78" t="n">
-        <v>69.0</v>
+        <v>49.0</v>
       </c>
       <c r="D78" t="n">
-        <v>63.0</v>
+        <v>49.0</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2571,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -2588,13 +2588,13 @@
         <v>16</v>
       </c>
       <c r="B79" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C79" t="n">
-        <v>58.0</v>
+        <v>37.0</v>
       </c>
       <c r="D79" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2603,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
@@ -2620,13 +2620,13 @@
         <v>16</v>
       </c>
       <c r="B80" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="C80" t="n">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
       <c r="D80" t="n">
-        <v>38.0</v>
+        <v>52.0</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2635,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
@@ -2652,13 +2652,13 @@
         <v>16</v>
       </c>
       <c r="B81" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="C81" t="n">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="D81" t="n">
-        <v>32.0</v>
+        <v>51.0</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2684,14 +2684,14 @@
         <v>16</v>
       </c>
       <c r="B82" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="C82" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D82" t="n">
         <v>40.0</v>
       </c>
-      <c r="D82" t="n">
-        <v>30.0</v>
-      </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>160.0</v>
+        <v>21.0</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -2716,13 +2716,13 @@
         <v>16</v>
       </c>
       <c r="B83" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="C83" t="n">
         <v>32.0</v>
       </c>
       <c r="D83" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -2731,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -2748,13 +2748,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="C84" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="D84" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -2763,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2780,13 +2780,13 @@
         <v>16</v>
       </c>
       <c r="B85" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="C85" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="D85" t="n">
-        <v>59.0</v>
+        <v>32.0</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -2795,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -2812,22 +2812,22 @@
         <v>16</v>
       </c>
       <c r="B86" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="C86" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="n">
         <v>10.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="n">
-        <v>23.0</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -2844,13 +2844,13 @@
         <v>16</v>
       </c>
       <c r="B87" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="C87" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="D87" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2859,7 +2859,7 @@
         <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
@@ -2876,13 +2876,13 @@
         <v>16</v>
       </c>
       <c r="B88" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C88" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="D88" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -2891,7 +2891,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2900,39 +2900,35 @@
         <v>11</v>
       </c>
       <c r="J88" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>346.6783752441406</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -2940,7 +2936,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -2969,30 +2965,34 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>310.2921447753906</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>11</v>
+        <v>41.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,13 +3000,13 @@
         <v>16</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -3015,7 +3015,7 @@
         <v>11</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H92" t="s">
         <v>11</v>
@@ -3024,7 +3024,7 @@
         <v>11</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
@@ -3032,13 +3032,13 @@
         <v>16</v>
       </c>
       <c r="B93" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="C93" t="n">
-        <v>10.0</v>
+        <v>32.0</v>
       </c>
       <c r="D93" t="n">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3047,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="H93" t="s">
         <v>11</v>
@@ -3064,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="B94" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C94" t="n">
-        <v>16.0</v>
+        <v>33.0</v>
       </c>
       <c r="D94" t="n">
-        <v>36.0</v>
+        <v>17.0</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -3079,7 +3079,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="H94" t="s">
         <v>11</v>
@@ -3096,13 +3096,13 @@
         <v>16</v>
       </c>
       <c r="B95" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="C95" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="D95" t="n">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3111,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -3128,13 +3128,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="n">
-        <v>49.0</v>
+        <v>24.0</v>
       </c>
       <c r="C96" t="n">
-        <v>28.0</v>
+        <v>52.0</v>
       </c>
       <c r="D96" t="n">
-        <v>48.0</v>
+        <v>8.0</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3143,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
@@ -3160,13 +3160,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="C97" t="n">
-        <v>21.0</v>
+        <v>64.0</v>
       </c>
       <c r="D97" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -3175,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
@@ -3192,13 +3192,13 @@
         <v>16</v>
       </c>
       <c r="B98" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="C98" t="n">
-        <v>27.0</v>
+        <v>57.0</v>
       </c>
       <c r="D98" t="n">
-        <v>58.0</v>
+        <v>16.0</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -3207,7 +3207,7 @@
         <v>11</v>
       </c>
       <c r="G98" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="H98" t="s">
         <v>11</v>
@@ -3224,13 +3224,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="C99" t="n">
-        <v>33.0</v>
+        <v>63.0</v>
       </c>
       <c r="D99" t="n">
-        <v>52.0</v>
+        <v>17.0</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3239,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -3256,13 +3256,13 @@
         <v>16</v>
       </c>
       <c r="B100" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="C100" t="n">
-        <v>37.0</v>
+        <v>55.0</v>
       </c>
       <c r="D100" t="n">
-        <v>56.0</v>
+        <v>25.0</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="H100" t="s">
         <v>11</v>
@@ -3288,13 +3288,13 @@
         <v>16</v>
       </c>
       <c r="B101" t="n">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="C101" t="n">
-        <v>33.0</v>
+        <v>62.0</v>
       </c>
       <c r="D101" t="n">
-        <v>61.0</v>
+        <v>31.0</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3303,7 +3303,7 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -3320,13 +3320,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="C102" t="n">
-        <v>42.0</v>
+        <v>69.0</v>
       </c>
       <c r="D102" t="n">
-        <v>62.0</v>
+        <v>37.0</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3335,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="H102" t="s">
         <v>11</v>
@@ -3352,13 +3352,13 @@
         <v>16</v>
       </c>
       <c r="B103" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="C103" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="D103" t="n">
-        <v>58.0</v>
+        <v>37.0</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3367,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
@@ -3384,13 +3384,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="C104" t="n">
-        <v>41.0</v>
+        <v>48.0</v>
       </c>
       <c r="D104" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3399,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="H104" t="s">
         <v>11</v>
@@ -3416,13 +3416,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="C105" t="n">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
       <c r="D105" t="n">
-        <v>49.0</v>
+        <v>62.0</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3431,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="H105" t="s">
         <v>11</v>
@@ -3448,13 +3448,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C106" t="n">
-        <v>63.0</v>
+        <v>33.0</v>
       </c>
       <c r="D106" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -3463,7 +3463,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="H106" t="s">
         <v>11</v>
@@ -3480,13 +3480,13 @@
         <v>16</v>
       </c>
       <c r="B107" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="C107" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="D107" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3495,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="H107" t="s">
         <v>11</v>
@@ -3512,13 +3512,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="C108" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
       <c r="D108" t="n">
-        <v>31.0</v>
+        <v>52.0</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3527,7 +3527,7 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="H108" t="s">
         <v>11</v>
@@ -3544,13 +3544,13 @@
         <v>16</v>
       </c>
       <c r="B109" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C109" t="n">
-        <v>52.0</v>
+        <v>41.0</v>
       </c>
       <c r="D109" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3559,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -3576,13 +3576,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="C110" t="n">
-        <v>48.0</v>
+        <v>39.0</v>
       </c>
       <c r="D110" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -3591,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
@@ -3608,13 +3608,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="n">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
       <c r="C111" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="D111" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -3623,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H111" t="s">
         <v>11</v>
@@ -3640,13 +3640,13 @@
         <v>16</v>
       </c>
       <c r="B112" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="C112" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="D112" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
@@ -3672,13 +3672,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C113" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D113" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -3687,7 +3687,7 @@
         <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="H113" t="s">
         <v>11</v>
@@ -3704,22 +3704,22 @@
         <v>16</v>
       </c>
       <c r="B114" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="C114" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="n">
         <v>23.0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="n">
-        <v>3.0</v>
       </c>
       <c r="H114" t="s">
         <v>11</v>
@@ -3736,13 +3736,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="C115" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="D115" t="n">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -3751,7 +3751,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="H115" t="s">
         <v>11</v>
@@ -3768,13 +3768,13 @@
         <v>16</v>
       </c>
       <c r="B116" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="C116" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="D116" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -3783,7 +3783,7 @@
         <v>11</v>
       </c>
       <c r="G116" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="H116" t="s">
         <v>11</v>
@@ -3864,7 +3864,7 @@
         <v>16</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C119" t="n">
         <v>0.0</v>
@@ -3908,7 +3908,7 @@
         <v>937.0</v>
       </c>
       <c r="F120" t="n">
-        <v>673.0619506835938</v>
+        <v>651.3303833007812</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
@@ -3933,15 +3933,15 @@
         <v>11</v>
       </c>
       <c r="E121" t="n">
-        <v>540.0</v>
+        <v>469.0</v>
       </c>
       <c r="F121" t="n">
-        <v>362.7698059082031</v>
+        <v>304.6520080566406</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="J121" t="s">
         <v>11</v>
@@ -3952,7 +3952,7 @@
         <v>16</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C122" t="n">
         <v>0.0</v>
@@ -3984,13 +3984,13 @@
         <v>16</v>
       </c>
       <c r="B123" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="C123" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D123" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -3999,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="H123" t="s">
         <v>11</v>
@@ -4016,13 +4016,13 @@
         <v>16</v>
       </c>
       <c r="B124" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="C124" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="D124" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -4031,7 +4031,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
@@ -4048,13 +4048,13 @@
         <v>16</v>
       </c>
       <c r="B125" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="C125" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="D125" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -4063,7 +4063,7 @@
         <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="H125" t="s">
         <v>11</v>
@@ -4080,13 +4080,13 @@
         <v>16</v>
       </c>
       <c r="B126" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="C126" t="n">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="D126" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -4095,7 +4095,7 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -4112,13 +4112,13 @@
         <v>16</v>
       </c>
       <c r="B127" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="C127" t="n">
-        <v>64.0</v>
+        <v>40.0</v>
       </c>
       <c r="D127" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -4127,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>11.0</v>
+        <v>160.0</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -4144,13 +4144,13 @@
         <v>16</v>
       </c>
       <c r="B128" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="C128" t="n">
-        <v>57.0</v>
+        <v>46.0</v>
       </c>
       <c r="D128" t="n">
-        <v>16.0</v>
+        <v>38.0</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -4159,7 +4159,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -4176,22 +4176,22 @@
         <v>16</v>
       </c>
       <c r="B129" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" t="n">
         <v>7.0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="n">
-        <v>19.0</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
@@ -4208,13 +4208,13 @@
         <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="C130" t="n">
-        <v>68.0</v>
+        <v>57.0</v>
       </c>
       <c r="D130" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -4223,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -4240,13 +4240,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="C131" t="n">
-        <v>55.0</v>
+        <v>67.0</v>
       </c>
       <c r="D131" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -4255,7 +4255,7 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -4272,13 +4272,13 @@
         <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C132" t="n">
-        <v>47.0</v>
+        <v>64.0</v>
       </c>
       <c r="D132" t="n">
-        <v>21.0</v>
+        <v>52.0</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -4287,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H132" t="s">
         <v>11</v>
@@ -4304,13 +4304,13 @@
         <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="C133" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="D133" t="n">
-        <v>42.0</v>
+        <v>63.0</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -4319,7 +4319,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="H133" t="s">
         <v>11</v>
@@ -4336,13 +4336,13 @@
         <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="C134" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="D134" t="n">
-        <v>37.0</v>
+        <v>62.0</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -4351,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="G134" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="H134" t="s">
         <v>11</v>
@@ -4368,22 +4368,22 @@
         <v>16</v>
       </c>
       <c r="B135" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="n">
         <v>28.0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="E135" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="n">
-        <v>14.0</v>
       </c>
       <c r="H135" t="s">
         <v>11</v>
@@ -4400,13 +4400,13 @@
         <v>16</v>
       </c>
       <c r="B136" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="C136" t="n">
-        <v>69.0</v>
+        <v>49.0</v>
       </c>
       <c r="D136" t="n">
-        <v>63.0</v>
+        <v>49.0</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -4415,7 +4415,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="H136" t="s">
         <v>11</v>
@@ -4432,13 +4432,13 @@
         <v>16</v>
       </c>
       <c r="B137" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C137" t="n">
-        <v>58.0</v>
+        <v>37.0</v>
       </c>
       <c r="D137" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -4447,7 +4447,7 @@
         <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="H137" t="s">
         <v>11</v>
@@ -4464,13 +4464,13 @@
         <v>16</v>
       </c>
       <c r="B138" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="C138" t="n">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
       <c r="D138" t="n">
-        <v>38.0</v>
+        <v>52.0</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -4479,7 +4479,7 @@
         <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H138" t="s">
         <v>11</v>
@@ -4496,13 +4496,13 @@
         <v>16</v>
       </c>
       <c r="B139" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="C139" t="n">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="D139" t="n">
-        <v>32.0</v>
+        <v>51.0</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -4528,14 +4528,14 @@
         <v>16</v>
       </c>
       <c r="B140" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="C140" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D140" t="n">
         <v>40.0</v>
       </c>
-      <c r="D140" t="n">
-        <v>30.0</v>
-      </c>
       <c r="E140" t="s">
         <v>11</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>11</v>
       </c>
       <c r="G140" t="n">
-        <v>160.0</v>
+        <v>21.0</v>
       </c>
       <c r="H140" t="s">
         <v>11</v>
@@ -4560,13 +4560,13 @@
         <v>16</v>
       </c>
       <c r="B141" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="C141" t="n">
         <v>32.0</v>
       </c>
       <c r="D141" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -4575,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="G141" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="H141" t="s">
         <v>11</v>
@@ -4592,13 +4592,13 @@
         <v>16</v>
       </c>
       <c r="B142" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="C142" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="D142" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -4607,7 +4607,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="H142" t="s">
         <v>11</v>
@@ -4624,13 +4624,13 @@
         <v>16</v>
       </c>
       <c r="B143" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="C143" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="D143" t="n">
-        <v>59.0</v>
+        <v>32.0</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -4639,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="G143" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="H143" t="s">
         <v>11</v>
@@ -4656,22 +4656,22 @@
         <v>16</v>
       </c>
       <c r="B144" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="C144" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" t="n">
         <v>10.0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="n">
-        <v>23.0</v>
       </c>
       <c r="H144" t="s">
         <v>11</v>
@@ -4688,13 +4688,13 @@
         <v>16</v>
       </c>
       <c r="B145" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="C145" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="D145" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -4703,7 +4703,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="H145" t="s">
         <v>11</v>
@@ -4720,13 +4720,13 @@
         <v>16</v>
       </c>
       <c r="B146" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C146" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="D146" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -4735,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="H146" t="s">
         <v>11</v>
@@ -4744,39 +4744,35 @@
         <v>11</v>
       </c>
       <c r="J146" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B147" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="C147" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D147" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="E147" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="H147" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" t="s">
-        <v>11</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>346.6783752441406</v>
+      </c>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="148">
@@ -4784,7 +4780,7 @@
         <v>16</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C148" t="n">
         <v>0.0</v>
@@ -4813,30 +4809,34 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="F149" t="n">
-        <v>310.2921447753906</v>
-      </c>
-      <c r="G149"/>
-      <c r="H149"/>
-      <c r="I149" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="J149" t="s">
-        <v>11</v>
+        <v>41.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" t="s">
+        <v>11</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
@@ -4844,13 +4844,13 @@
         <v>16</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
@@ -4859,7 +4859,7 @@
         <v>11</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H150" t="s">
         <v>11</v>
@@ -4868,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="151">
@@ -4876,13 +4876,13 @@
         <v>16</v>
       </c>
       <c r="B151" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="C151" t="n">
-        <v>10.0</v>
+        <v>32.0</v>
       </c>
       <c r="D151" t="n">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -4891,7 +4891,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="H151" t="s">
         <v>11</v>
@@ -4908,13 +4908,13 @@
         <v>16</v>
       </c>
       <c r="B152" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C152" t="n">
-        <v>16.0</v>
+        <v>33.0</v>
       </c>
       <c r="D152" t="n">
-        <v>36.0</v>
+        <v>17.0</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
@@ -4923,7 +4923,7 @@
         <v>11</v>
       </c>
       <c r="G152" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="H152" t="s">
         <v>11</v>
@@ -4940,13 +4940,13 @@
         <v>16</v>
       </c>
       <c r="B153" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="C153" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="D153" t="n">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -4955,7 +4955,7 @@
         <v>11</v>
       </c>
       <c r="G153" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="H153" t="s">
         <v>11</v>
@@ -4972,13 +4972,13 @@
         <v>16</v>
       </c>
       <c r="B154" t="n">
-        <v>49.0</v>
+        <v>24.0</v>
       </c>
       <c r="C154" t="n">
-        <v>28.0</v>
+        <v>52.0</v>
       </c>
       <c r="D154" t="n">
-        <v>48.0</v>
+        <v>8.0</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -4987,7 +4987,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="H154" t="s">
         <v>11</v>
@@ -5004,13 +5004,13 @@
         <v>16</v>
       </c>
       <c r="B155" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="C155" t="n">
-        <v>21.0</v>
+        <v>64.0</v>
       </c>
       <c r="D155" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -5019,7 +5019,7 @@
         <v>11</v>
       </c>
       <c r="G155" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H155" t="s">
         <v>11</v>
@@ -5036,13 +5036,13 @@
         <v>16</v>
       </c>
       <c r="B156" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="C156" t="n">
-        <v>27.0</v>
+        <v>57.0</v>
       </c>
       <c r="D156" t="n">
-        <v>58.0</v>
+        <v>16.0</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -5051,7 +5051,7 @@
         <v>11</v>
       </c>
       <c r="G156" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="H156" t="s">
         <v>11</v>
@@ -5068,13 +5068,13 @@
         <v>16</v>
       </c>
       <c r="B157" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="C157" t="n">
-        <v>33.0</v>
+        <v>63.0</v>
       </c>
       <c r="D157" t="n">
-        <v>52.0</v>
+        <v>17.0</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
@@ -5083,7 +5083,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="H157" t="s">
         <v>11</v>
@@ -5100,13 +5100,13 @@
         <v>16</v>
       </c>
       <c r="B158" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="C158" t="n">
-        <v>37.0</v>
+        <v>55.0</v>
       </c>
       <c r="D158" t="n">
-        <v>56.0</v>
+        <v>25.0</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
@@ -5115,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="G158" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="H158" t="s">
         <v>11</v>
@@ -5132,13 +5132,13 @@
         <v>16</v>
       </c>
       <c r="B159" t="n">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="C159" t="n">
-        <v>33.0</v>
+        <v>62.0</v>
       </c>
       <c r="D159" t="n">
-        <v>61.0</v>
+        <v>31.0</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -5147,7 +5147,7 @@
         <v>11</v>
       </c>
       <c r="G159" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="H159" t="s">
         <v>11</v>
@@ -5164,13 +5164,13 @@
         <v>16</v>
       </c>
       <c r="B160" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="C160" t="n">
-        <v>42.0</v>
+        <v>69.0</v>
       </c>
       <c r="D160" t="n">
-        <v>62.0</v>
+        <v>37.0</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
@@ -5179,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="H160" t="s">
         <v>11</v>
@@ -5196,13 +5196,13 @@
         <v>16</v>
       </c>
       <c r="B161" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="C161" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="D161" t="n">
-        <v>58.0</v>
+        <v>37.0</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -5211,7 +5211,7 @@
         <v>11</v>
       </c>
       <c r="G161" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H161" t="s">
         <v>11</v>
@@ -5228,13 +5228,13 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="C162" t="n">
-        <v>41.0</v>
+        <v>48.0</v>
       </c>
       <c r="D162" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -5243,7 +5243,7 @@
         <v>11</v>
       </c>
       <c r="G162" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="H162" t="s">
         <v>11</v>
@@ -5260,13 +5260,13 @@
         <v>16</v>
       </c>
       <c r="B163" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="C163" t="n">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
       <c r="D163" t="n">
-        <v>49.0</v>
+        <v>62.0</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
@@ -5275,7 +5275,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="H163" t="s">
         <v>11</v>
@@ -5292,13 +5292,13 @@
         <v>16</v>
       </c>
       <c r="B164" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C164" t="n">
-        <v>63.0</v>
+        <v>33.0</v>
       </c>
       <c r="D164" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -5307,7 +5307,7 @@
         <v>11</v>
       </c>
       <c r="G164" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="H164" t="s">
         <v>11</v>
@@ -5324,13 +5324,13 @@
         <v>16</v>
       </c>
       <c r="B165" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="C165" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="D165" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E165" t="s">
         <v>11</v>
@@ -5339,7 +5339,7 @@
         <v>11</v>
       </c>
       <c r="G165" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="H165" t="s">
         <v>11</v>
@@ -5356,13 +5356,13 @@
         <v>16</v>
       </c>
       <c r="B166" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="C166" t="n">
-        <v>62.0</v>
+        <v>41.0</v>
       </c>
       <c r="D166" t="n">
-        <v>31.0</v>
+        <v>52.0</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
@@ -5371,7 +5371,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="H166" t="s">
         <v>11</v>
@@ -5388,13 +5388,13 @@
         <v>16</v>
       </c>
       <c r="B167" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C167" t="n">
-        <v>52.0</v>
+        <v>41.0</v>
       </c>
       <c r="D167" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
@@ -5403,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="G167" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="H167" t="s">
         <v>11</v>
@@ -5420,13 +5420,13 @@
         <v>16</v>
       </c>
       <c r="B168" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="C168" t="n">
-        <v>48.0</v>
+        <v>39.0</v>
       </c>
       <c r="D168" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -5435,7 +5435,7 @@
         <v>11</v>
       </c>
       <c r="G168" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="H168" t="s">
         <v>11</v>
@@ -5452,13 +5452,13 @@
         <v>16</v>
       </c>
       <c r="B169" t="n">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
       <c r="C169" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="D169" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -5467,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="H169" t="s">
         <v>11</v>
@@ -5484,13 +5484,13 @@
         <v>16</v>
       </c>
       <c r="B170" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="C170" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="D170" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -5499,7 +5499,7 @@
         <v>11</v>
       </c>
       <c r="G170" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H170" t="s">
         <v>11</v>
@@ -5516,13 +5516,13 @@
         <v>16</v>
       </c>
       <c r="B171" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="C171" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="D171" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -5531,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="G171" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="H171" t="s">
         <v>11</v>
@@ -5548,22 +5548,22 @@
         <v>16</v>
       </c>
       <c r="B172" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="C172" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" t="n">
         <v>23.0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="E172" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="n">
-        <v>3.0</v>
       </c>
       <c r="H172" t="s">
         <v>11</v>
@@ -5580,13 +5580,13 @@
         <v>16</v>
       </c>
       <c r="B173" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="C173" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="D173" t="n">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
@@ -5595,7 +5595,7 @@
         <v>11</v>
       </c>
       <c r="G173" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="H173" t="s">
         <v>11</v>
@@ -5612,13 +5612,13 @@
         <v>16</v>
       </c>
       <c r="B174" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="C174" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="D174" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -5627,7 +5627,7 @@
         <v>11</v>
       </c>
       <c r="G174" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="H174" t="s">
         <v>11</v>
@@ -5708,7 +5708,7 @@
         <v>16</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C177" t="n">
         <v>0.0</v>

--- a/temp/Temp_TR_Solutions.xlsx
+++ b/temp/Temp_TR_Solutions.xlsx
@@ -189,10 +189,10 @@
         <v>30.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.9539912459023438E10</v>
+        <v>1.9831024519570312E10</v>
       </c>
       <c r="F3" t="n">
-        <v>1953.9912109375</v>
+        <v>1983.102294921875</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -220,7 +220,7 @@
         <v>937.0</v>
       </c>
       <c r="F4" t="n">
-        <v>651.3303833007812</v>
+        <v>661.0341186523438</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -245,15 +245,15 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>469.0</v>
+        <v>483.0</v>
       </c>
       <c r="F5" t="n">
-        <v>304.6520080566406</v>
+        <v>315.614501953125</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -296,13 +296,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="C7" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="D7" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -311,7 +311,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -328,13 +328,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="C8" t="n">
-        <v>42.0</v>
+        <v>32.0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -343,7 +343,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -360,13 +360,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>6.0</v>
+        <v>46.0</v>
       </c>
       <c r="C9" t="n">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -375,7 +375,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -392,10 +392,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0</v>
+        <v>51.0</v>
       </c>
       <c r="C10" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="D10" t="n">
         <v>30.0</v>
@@ -407,7 +407,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0</v>
+        <v>160.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -424,13 +424,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>51.0</v>
+        <v>6.0</v>
       </c>
       <c r="C11" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -439,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>160.0</v>
+        <v>15.0</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -456,13 +456,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="D12" t="n">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -488,13 +488,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="C13" t="n">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0</v>
+        <v>5.0</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" t="n">
-        <v>57.0</v>
+        <v>63.0</v>
       </c>
       <c r="D14" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -552,13 +552,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>28.0</v>
+        <v>48.0</v>
       </c>
       <c r="C15" t="n">
-        <v>67.0</v>
+        <v>55.0</v>
       </c>
       <c r="D15" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -567,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -584,13 +584,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0</v>
+        <v>31.0</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -616,13 +616,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="C17" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="D17" t="n">
-        <v>63.0</v>
+        <v>43.0</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -648,13 +648,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>35.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="D18" t="n">
-        <v>62.0</v>
+        <v>52.0</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -680,13 +680,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C19" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="D19" t="n">
-        <v>57.0</v>
+        <v>42.0</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -695,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -712,13 +712,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>2.0</v>
+        <v>36.0</v>
       </c>
       <c r="C20" t="n">
-        <v>49.0</v>
+        <v>69.0</v>
       </c>
       <c r="D20" t="n">
-        <v>49.0</v>
+        <v>63.0</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -744,13 +744,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="C21" t="n">
-        <v>37.0</v>
+        <v>63.0</v>
       </c>
       <c r="D21" t="n">
-        <v>56.0</v>
+        <v>62.0</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -776,13 +776,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="C22" t="n">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="D22" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -791,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -808,13 +808,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
       <c r="D23" t="n">
-        <v>51.0</v>
+        <v>42.0</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -823,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="C24" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="D24" t="n">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -855,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>49.0</v>
       </c>
       <c r="C25" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="D25" t="n">
-        <v>31.0</v>
+        <v>48.0</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -904,13 +904,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="C26" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="D26" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -936,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="C27" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="D27" t="n">
-        <v>32.0</v>
+        <v>51.0</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -951,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="C29" t="n">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="D29" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1015,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1032,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.0</v>
+        <v>19.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1056,67 +1056,67 @@
         <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="n">
-        <v>468.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>346.6783752441406</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>345.41961669921875</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1124,13 +1124,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>41.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C33" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1139,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1148,7 +1148,7 @@
         <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1156,22 +1156,22 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="n">
         <v>13.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="n">
-        <v>23.0</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
@@ -1188,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>47.0</v>
+        <v>44.0</v>
       </c>
       <c r="C35" t="n">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="D35" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="C36" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="D36" t="n">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1252,13 +1252,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="C37" t="n">
-        <v>38.0</v>
+        <v>10.0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.0</v>
+        <v>46.0</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -1284,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="C38" t="n">
-        <v>52.0</v>
+        <v>15.0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.0</v>
+        <v>59.0</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1299,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1316,13 +1316,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="C39" t="n">
-        <v>64.0</v>
+        <v>22.0</v>
       </c>
       <c r="D39" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1331,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1348,13 +1348,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.0</v>
+        <v>30.0</v>
       </c>
       <c r="D40" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -1380,13 +1380,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C41" t="n">
-        <v>63.0</v>
+        <v>33.0</v>
       </c>
       <c r="D41" t="n">
-        <v>17.0</v>
+        <v>52.0</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1395,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1412,13 +1412,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="C42" t="n">
-        <v>55.0</v>
+        <v>37.0</v>
       </c>
       <c r="D42" t="n">
-        <v>25.0</v>
+        <v>56.0</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -1444,13 +1444,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>8.0</v>
+        <v>34.0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.0</v>
+        <v>33.0</v>
       </c>
       <c r="D43" t="n">
-        <v>31.0</v>
+        <v>61.0</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1459,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -1476,13 +1476,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="C44" t="n">
-        <v>69.0</v>
+        <v>42.0</v>
       </c>
       <c r="D44" t="n">
-        <v>37.0</v>
+        <v>62.0</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1491,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -1508,14 +1508,14 @@
         <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="C45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D45" t="n">
         <v>52.0</v>
       </c>
-      <c r="D45" t="n">
-        <v>37.0</v>
-      </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -1540,13 +1540,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="C46" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.0</v>
+        <v>49.0</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1555,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1572,13 +1572,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C47" t="n">
-        <v>42.0</v>
+        <v>58.0</v>
       </c>
       <c r="D47" t="n">
-        <v>62.0</v>
+        <v>57.0</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1604,13 +1604,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="C48" t="n">
-        <v>33.0</v>
+        <v>69.0</v>
       </c>
       <c r="D48" t="n">
-        <v>61.0</v>
+        <v>37.0</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -1636,14 +1636,14 @@
         <v>16</v>
       </c>
       <c r="B49" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="C49" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D49" t="n">
         <v>27.0</v>
       </c>
-      <c r="D49" t="n">
-        <v>58.0</v>
-      </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="H49" t="s">
         <v>11</v>
@@ -1668,13 +1668,13 @@
         <v>16</v>
       </c>
       <c r="B50" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="C50" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="D50" t="n">
-        <v>52.0</v>
+        <v>37.0</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1683,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1700,13 +1700,13 @@
         <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>11.0</v>
+        <v>32.0</v>
       </c>
       <c r="C51" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="D51" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="H51" t="s">
         <v>11</v>
@@ -1732,13 +1732,13 @@
         <v>16</v>
       </c>
       <c r="B52" t="n">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="C52" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="D52" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
@@ -1764,13 +1764,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="n">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="C53" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="D53" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1779,7 +1779,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>15.0</v>
+        <v>29.0</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
@@ -1796,13 +1796,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>49.0</v>
+        <v>4.0</v>
       </c>
       <c r="C54" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="D54" t="n">
-        <v>48.0</v>
+        <v>20.0</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -1811,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="H54" t="s">
         <v>11</v>
@@ -1828,13 +1828,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="n">
-        <v>39.0</v>
+        <v>18.0</v>
       </c>
       <c r="C55" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="D55" t="n">
-        <v>59.0</v>
+        <v>17.0</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -1843,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -1860,13 +1860,13 @@
         <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="C56" t="n">
-        <v>10.0</v>
+        <v>42.0</v>
       </c>
       <c r="D56" t="n">
-        <v>46.0</v>
+        <v>12.0</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -1875,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -1892,13 +1892,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>45.0</v>
+        <v>24.0</v>
       </c>
       <c r="C57" t="n">
-        <v>10.0</v>
+        <v>52.0</v>
       </c>
       <c r="D57" t="n">
-        <v>39.0</v>
+        <v>8.0</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -1924,13 +1924,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>44.0</v>
+        <v>25.0</v>
       </c>
       <c r="C58" t="n">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="D58" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1939,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
@@ -1956,13 +1956,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="C59" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="D59" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
@@ -2064,7 +2064,7 @@
         <v>937.0</v>
       </c>
       <c r="F62" t="n">
-        <v>651.3303833007812</v>
+        <v>661.0341186523438</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -2089,15 +2089,15 @@
         <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>469.0</v>
+        <v>483.0</v>
       </c>
       <c r="F63" t="n">
-        <v>304.6520080566406</v>
+        <v>315.614501953125</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="J63" t="s">
         <v>11</v>
@@ -2140,13 +2140,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="C65" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="D65" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -2172,13 +2172,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="C66" t="n">
-        <v>42.0</v>
+        <v>32.0</v>
       </c>
       <c r="D66" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2187,7 +2187,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2204,13 +2204,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="n">
-        <v>6.0</v>
+        <v>46.0</v>
       </c>
       <c r="C67" t="n">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
       <c r="D67" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2219,7 +2219,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -2236,10 +2236,10 @@
         <v>16</v>
       </c>
       <c r="B68" t="n">
-        <v>27.0</v>
+        <v>51.0</v>
       </c>
       <c r="C68" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="D68" t="n">
         <v>30.0</v>
@@ -2251,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>15.0</v>
+        <v>160.0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2268,13 +2268,13 @@
         <v>16</v>
       </c>
       <c r="B69" t="n">
-        <v>51.0</v>
+        <v>6.0</v>
       </c>
       <c r="C69" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="D69" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2283,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>160.0</v>
+        <v>15.0</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
@@ -2300,13 +2300,13 @@
         <v>16</v>
       </c>
       <c r="B70" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="C70" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="D70" t="n">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2315,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
@@ -2332,13 +2332,13 @@
         <v>16</v>
       </c>
       <c r="B71" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="C71" t="n">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="D71" t="n">
-        <v>27.0</v>
+        <v>5.0</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2347,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
@@ -2364,13 +2364,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="C72" t="n">
-        <v>57.0</v>
+        <v>63.0</v>
       </c>
       <c r="D72" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2379,7 +2379,7 @@
         <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="H72" t="s">
         <v>11</v>
@@ -2396,13 +2396,13 @@
         <v>16</v>
       </c>
       <c r="B73" t="n">
-        <v>28.0</v>
+        <v>48.0</v>
       </c>
       <c r="C73" t="n">
-        <v>67.0</v>
+        <v>55.0</v>
       </c>
       <c r="D73" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
@@ -2428,13 +2428,13 @@
         <v>16</v>
       </c>
       <c r="B74" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C74" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="D74" t="n">
-        <v>52.0</v>
+        <v>31.0</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2443,7 +2443,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -2460,13 +2460,13 @@
         <v>16</v>
       </c>
       <c r="B75" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="C75" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="D75" t="n">
-        <v>63.0</v>
+        <v>43.0</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2475,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="G75" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -2492,13 +2492,13 @@
         <v>16</v>
       </c>
       <c r="B76" t="n">
-        <v>35.0</v>
+        <v>3.0</v>
       </c>
       <c r="C76" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="D76" t="n">
-        <v>62.0</v>
+        <v>52.0</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2507,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
@@ -2524,13 +2524,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C77" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="D77" t="n">
-        <v>57.0</v>
+        <v>42.0</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2539,7 +2539,7 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2556,13 +2556,13 @@
         <v>16</v>
       </c>
       <c r="B78" t="n">
-        <v>2.0</v>
+        <v>36.0</v>
       </c>
       <c r="C78" t="n">
-        <v>49.0</v>
+        <v>69.0</v>
       </c>
       <c r="D78" t="n">
-        <v>49.0</v>
+        <v>63.0</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2571,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -2588,13 +2588,13 @@
         <v>16</v>
       </c>
       <c r="B79" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="C79" t="n">
-        <v>37.0</v>
+        <v>63.0</v>
       </c>
       <c r="D79" t="n">
-        <v>56.0</v>
+        <v>62.0</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2603,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
@@ -2620,13 +2620,13 @@
         <v>16</v>
       </c>
       <c r="B80" t="n">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="C80" t="n">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="D80" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2635,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
@@ -2652,13 +2652,13 @@
         <v>16</v>
       </c>
       <c r="B81" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C81" t="n">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
       <c r="D81" t="n">
-        <v>51.0</v>
+        <v>42.0</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2667,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -2684,13 +2684,13 @@
         <v>16</v>
       </c>
       <c r="B82" t="n">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="C82" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="D82" t="n">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2699,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -2716,13 +2716,13 @@
         <v>16</v>
       </c>
       <c r="B83" t="n">
-        <v>12.0</v>
+        <v>49.0</v>
       </c>
       <c r="C83" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="D83" t="n">
-        <v>31.0</v>
+        <v>48.0</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -2731,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -2748,13 +2748,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="C84" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="D84" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -2763,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2780,13 +2780,13 @@
         <v>16</v>
       </c>
       <c r="B85" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="C85" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="D85" t="n">
-        <v>32.0</v>
+        <v>51.0</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -2795,7 +2795,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -2844,13 +2844,13 @@
         <v>16</v>
       </c>
       <c r="B87" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="C87" t="n">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="D87" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2859,7 +2859,7 @@
         <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
@@ -2876,13 +2876,13 @@
         <v>16</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.0</v>
+        <v>19.0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -2891,7 +2891,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2900,67 +2900,67 @@
         <v>11</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" t="n">
-        <v>468.0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>346.6783752441406</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>345.41961669921875</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -2968,13 +2968,13 @@
         <v>16</v>
       </c>
       <c r="B91" t="n">
-        <v>41.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C91" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="D91" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -2983,7 +2983,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
@@ -2992,7 +2992,7 @@
         <v>11</v>
       </c>
       <c r="J91" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         <v>16</v>
       </c>
       <c r="B92" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="n">
         <v>13.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="n">
-        <v>23.0</v>
       </c>
       <c r="H92" t="s">
         <v>11</v>
@@ -3032,13 +3032,13 @@
         <v>16</v>
       </c>
       <c r="B93" t="n">
-        <v>47.0</v>
+        <v>44.0</v>
       </c>
       <c r="C93" t="n">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="D93" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3047,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="H93" t="s">
         <v>11</v>
@@ -3064,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="B94" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="C94" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="D94" t="n">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -3079,7 +3079,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="H94" t="s">
         <v>11</v>
@@ -3096,13 +3096,13 @@
         <v>16</v>
       </c>
       <c r="B95" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="C95" t="n">
-        <v>38.0</v>
+        <v>10.0</v>
       </c>
       <c r="D95" t="n">
-        <v>7.0</v>
+        <v>46.0</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3111,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -3128,13 +3128,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="C96" t="n">
-        <v>52.0</v>
+        <v>15.0</v>
       </c>
       <c r="D96" t="n">
-        <v>8.0</v>
+        <v>59.0</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3143,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
@@ -3160,13 +3160,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="C97" t="n">
-        <v>64.0</v>
+        <v>22.0</v>
       </c>
       <c r="D97" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -3175,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
@@ -3192,13 +3192,13 @@
         <v>16</v>
       </c>
       <c r="B98" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C98" t="n">
-        <v>57.0</v>
+        <v>30.0</v>
       </c>
       <c r="D98" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -3207,7 +3207,7 @@
         <v>11</v>
       </c>
       <c r="G98" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="H98" t="s">
         <v>11</v>
@@ -3224,13 +3224,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C99" t="n">
-        <v>63.0</v>
+        <v>33.0</v>
       </c>
       <c r="D99" t="n">
-        <v>17.0</v>
+        <v>52.0</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3239,7 +3239,7 @@
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -3256,13 +3256,13 @@
         <v>16</v>
       </c>
       <c r="B100" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="C100" t="n">
-        <v>55.0</v>
+        <v>37.0</v>
       </c>
       <c r="D100" t="n">
-        <v>25.0</v>
+        <v>56.0</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="H100" t="s">
         <v>11</v>
@@ -3288,13 +3288,13 @@
         <v>16</v>
       </c>
       <c r="B101" t="n">
-        <v>8.0</v>
+        <v>34.0</v>
       </c>
       <c r="C101" t="n">
-        <v>62.0</v>
+        <v>33.0</v>
       </c>
       <c r="D101" t="n">
-        <v>31.0</v>
+        <v>61.0</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3303,7 +3303,7 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -3320,13 +3320,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="C102" t="n">
-        <v>69.0</v>
+        <v>42.0</v>
       </c>
       <c r="D102" t="n">
-        <v>37.0</v>
+        <v>62.0</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3335,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="H102" t="s">
         <v>11</v>
@@ -3352,14 +3352,14 @@
         <v>16</v>
       </c>
       <c r="B103" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="C103" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D103" t="n">
         <v>52.0</v>
       </c>
-      <c r="D103" t="n">
-        <v>37.0</v>
-      </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
@@ -3384,13 +3384,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="C104" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D104" t="n">
-        <v>58.0</v>
+        <v>49.0</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3399,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="H104" t="s">
         <v>11</v>
@@ -3416,13 +3416,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C105" t="n">
-        <v>42.0</v>
+        <v>58.0</v>
       </c>
       <c r="D105" t="n">
-        <v>62.0</v>
+        <v>57.0</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3431,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="H105" t="s">
         <v>11</v>
@@ -3448,13 +3448,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="n">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="C106" t="n">
-        <v>33.0</v>
+        <v>69.0</v>
       </c>
       <c r="D106" t="n">
-        <v>61.0</v>
+        <v>37.0</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -3463,7 +3463,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="H106" t="s">
         <v>11</v>
@@ -3480,14 +3480,14 @@
         <v>16</v>
       </c>
       <c r="B107" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="C107" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D107" t="n">
         <v>27.0</v>
       </c>
-      <c r="D107" t="n">
-        <v>58.0</v>
-      </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="H107" t="s">
         <v>11</v>
@@ -3512,13 +3512,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="C108" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="D108" t="n">
-        <v>52.0</v>
+        <v>37.0</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3527,7 +3527,7 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="H108" t="s">
         <v>11</v>
@@ -3544,13 +3544,13 @@
         <v>16</v>
       </c>
       <c r="B109" t="n">
-        <v>11.0</v>
+        <v>32.0</v>
       </c>
       <c r="C109" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="D109" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3559,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -3576,13 +3576,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="n">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="C110" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="D110" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -3591,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
@@ -3608,13 +3608,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="n">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="C111" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="D111" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -3623,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>15.0</v>
+        <v>29.0</v>
       </c>
       <c r="H111" t="s">
         <v>11</v>
@@ -3640,13 +3640,13 @@
         <v>16</v>
       </c>
       <c r="B112" t="n">
-        <v>49.0</v>
+        <v>4.0</v>
       </c>
       <c r="C112" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="D112" t="n">
-        <v>48.0</v>
+        <v>20.0</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
@@ -3672,13 +3672,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="n">
-        <v>39.0</v>
+        <v>18.0</v>
       </c>
       <c r="C113" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="D113" t="n">
-        <v>59.0</v>
+        <v>17.0</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -3687,7 +3687,7 @@
         <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="H113" t="s">
         <v>11</v>
@@ -3704,13 +3704,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="n">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="C114" t="n">
-        <v>10.0</v>
+        <v>42.0</v>
       </c>
       <c r="D114" t="n">
-        <v>46.0</v>
+        <v>12.0</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -3719,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="G114" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="H114" t="s">
         <v>11</v>
@@ -3736,13 +3736,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>45.0</v>
+        <v>24.0</v>
       </c>
       <c r="C115" t="n">
-        <v>10.0</v>
+        <v>52.0</v>
       </c>
       <c r="D115" t="n">
-        <v>39.0</v>
+        <v>8.0</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -3768,13 +3768,13 @@
         <v>16</v>
       </c>
       <c r="B116" t="n">
-        <v>44.0</v>
+        <v>25.0</v>
       </c>
       <c r="C116" t="n">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="D116" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -3783,7 +3783,7 @@
         <v>11</v>
       </c>
       <c r="G116" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="H116" t="s">
         <v>11</v>
@@ -3800,13 +3800,13 @@
         <v>16</v>
       </c>
       <c r="B117" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="C117" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="D117" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -3815,7 +3815,7 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
       <c r="H117" t="s">
         <v>11</v>
@@ -3908,7 +3908,7 @@
         <v>937.0</v>
       </c>
       <c r="F120" t="n">
-        <v>651.3303833007812</v>
+        <v>661.0341186523438</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
@@ -3933,15 +3933,15 @@
         <v>11</v>
       </c>
       <c r="E121" t="n">
-        <v>469.0</v>
+        <v>483.0</v>
       </c>
       <c r="F121" t="n">
-        <v>304.6520080566406</v>
+        <v>315.614501953125</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="J121" t="s">
         <v>11</v>
@@ -3984,13 +3984,13 @@
         <v>16</v>
       </c>
       <c r="B123" t="n">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="C123" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="D123" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -3999,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="H123" t="s">
         <v>11</v>
@@ -4016,13 +4016,13 @@
         <v>16</v>
       </c>
       <c r="B124" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="C124" t="n">
-        <v>42.0</v>
+        <v>32.0</v>
       </c>
       <c r="D124" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -4031,7 +4031,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
@@ -4048,13 +4048,13 @@
         <v>16</v>
       </c>
       <c r="B125" t="n">
-        <v>6.0</v>
+        <v>46.0</v>
       </c>
       <c r="C125" t="n">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
       <c r="D125" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -4063,7 +4063,7 @@
         <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="H125" t="s">
         <v>11</v>
@@ -4080,10 +4080,10 @@
         <v>16</v>
       </c>
       <c r="B126" t="n">
-        <v>27.0</v>
+        <v>51.0</v>
       </c>
       <c r="C126" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="D126" t="n">
         <v>30.0</v>
@@ -4095,7 +4095,7 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>15.0</v>
+        <v>160.0</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -4112,13 +4112,13 @@
         <v>16</v>
       </c>
       <c r="B127" t="n">
-        <v>51.0</v>
+        <v>6.0</v>
       </c>
       <c r="C127" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="D127" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -4127,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>160.0</v>
+        <v>15.0</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -4144,13 +4144,13 @@
         <v>16</v>
       </c>
       <c r="B128" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="C128" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="D128" t="n">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -4159,7 +4159,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -4176,13 +4176,13 @@
         <v>16</v>
       </c>
       <c r="B129" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="C129" t="n">
-        <v>68.0</v>
+        <v>64.0</v>
       </c>
       <c r="D129" t="n">
-        <v>27.0</v>
+        <v>5.0</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -4191,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
@@ -4208,13 +4208,13 @@
         <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="C130" t="n">
-        <v>57.0</v>
+        <v>63.0</v>
       </c>
       <c r="D130" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -4223,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -4240,13 +4240,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>28.0</v>
+        <v>48.0</v>
       </c>
       <c r="C131" t="n">
-        <v>67.0</v>
+        <v>55.0</v>
       </c>
       <c r="D131" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -4255,7 +4255,7 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -4272,13 +4272,13 @@
         <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C132" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="D132" t="n">
-        <v>52.0</v>
+        <v>31.0</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -4287,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="H132" t="s">
         <v>11</v>
@@ -4304,13 +4304,13 @@
         <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="C133" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="D133" t="n">
-        <v>63.0</v>
+        <v>43.0</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -4319,7 +4319,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="H133" t="s">
         <v>11</v>
@@ -4336,13 +4336,13 @@
         <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>35.0</v>
+        <v>3.0</v>
       </c>
       <c r="C134" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="D134" t="n">
-        <v>62.0</v>
+        <v>52.0</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -4351,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="G134" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="H134" t="s">
         <v>11</v>
@@ -4368,13 +4368,13 @@
         <v>16</v>
       </c>
       <c r="B135" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C135" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="D135" t="n">
-        <v>57.0</v>
+        <v>42.0</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -4383,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="G135" t="n">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="H135" t="s">
         <v>11</v>
@@ -4400,13 +4400,13 @@
         <v>16</v>
       </c>
       <c r="B136" t="n">
-        <v>2.0</v>
+        <v>36.0</v>
       </c>
       <c r="C136" t="n">
-        <v>49.0</v>
+        <v>69.0</v>
       </c>
       <c r="D136" t="n">
-        <v>49.0</v>
+        <v>63.0</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -4415,7 +4415,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="n">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="H136" t="s">
         <v>11</v>
@@ -4432,13 +4432,13 @@
         <v>16</v>
       </c>
       <c r="B137" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="C137" t="n">
-        <v>37.0</v>
+        <v>63.0</v>
       </c>
       <c r="D137" t="n">
-        <v>56.0</v>
+        <v>62.0</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -4447,7 +4447,7 @@
         <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="H137" t="s">
         <v>11</v>
@@ -4464,13 +4464,13 @@
         <v>16</v>
       </c>
       <c r="B138" t="n">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="C138" t="n">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="D138" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -4479,7 +4479,7 @@
         <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="H138" t="s">
         <v>11</v>
@@ -4496,13 +4496,13 @@
         <v>16</v>
       </c>
       <c r="B139" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C139" t="n">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
       <c r="D139" t="n">
-        <v>51.0</v>
+        <v>42.0</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -4511,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="G139" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="H139" t="s">
         <v>11</v>
@@ -4528,13 +4528,13 @@
         <v>16</v>
       </c>
       <c r="B140" t="n">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="C140" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="D140" t="n">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -4543,7 +4543,7 @@
         <v>11</v>
       </c>
       <c r="G140" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="H140" t="s">
         <v>11</v>
@@ -4560,13 +4560,13 @@
         <v>16</v>
       </c>
       <c r="B141" t="n">
-        <v>12.0</v>
+        <v>49.0</v>
       </c>
       <c r="C141" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="D141" t="n">
-        <v>31.0</v>
+        <v>48.0</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -4575,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="G141" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="H141" t="s">
         <v>11</v>
@@ -4592,13 +4592,13 @@
         <v>16</v>
       </c>
       <c r="B142" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="C142" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="D142" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -4607,7 +4607,7 @@
         <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="H142" t="s">
         <v>11</v>
@@ -4624,13 +4624,13 @@
         <v>16</v>
       </c>
       <c r="B143" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="C143" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="D143" t="n">
-        <v>32.0</v>
+        <v>51.0</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -4639,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="G143" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="H143" t="s">
         <v>11</v>
@@ -4688,13 +4688,13 @@
         <v>16</v>
       </c>
       <c r="B145" t="n">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="C145" t="n">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="D145" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -4703,7 +4703,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="H145" t="s">
         <v>11</v>
@@ -4720,13 +4720,13 @@
         <v>16</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.0</v>
+        <v>19.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -4735,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H146" t="s">
         <v>11</v>
@@ -4744,67 +4744,67 @@
         <v>11</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B147" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" t="n">
-        <v>468.0</v>
-      </c>
-      <c r="F147" t="n">
-        <v>346.6783752441406</v>
-      </c>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="J147" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" t="s">
+        <v>11</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E148" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H148" t="s">
-        <v>11</v>
-      </c>
-      <c r="I148" t="s">
-        <v>11</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>345.41961669921875</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="149">
@@ -4812,13 +4812,13 @@
         <v>16</v>
       </c>
       <c r="B149" t="n">
-        <v>41.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C149" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="D149" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -4827,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="G149" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="H149" t="s">
         <v>11</v>
@@ -4836,7 +4836,7 @@
         <v>11</v>
       </c>
       <c r="J149" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
@@ -4844,22 +4844,22 @@
         <v>16</v>
       </c>
       <c r="B150" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="n">
         <v>13.0</v>
-      </c>
-      <c r="C150" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E150" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="n">
-        <v>23.0</v>
       </c>
       <c r="H150" t="s">
         <v>11</v>
@@ -4876,13 +4876,13 @@
         <v>16</v>
       </c>
       <c r="B151" t="n">
-        <v>47.0</v>
+        <v>44.0</v>
       </c>
       <c r="C151" t="n">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="D151" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -4891,7 +4891,7 @@
         <v>11</v>
       </c>
       <c r="G151" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="H151" t="s">
         <v>11</v>
@@ -4908,13 +4908,13 @@
         <v>16</v>
       </c>
       <c r="B152" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="C152" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="D152" t="n">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
@@ -4923,7 +4923,7 @@
         <v>11</v>
       </c>
       <c r="G152" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="H152" t="s">
         <v>11</v>
@@ -4940,13 +4940,13 @@
         <v>16</v>
       </c>
       <c r="B153" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="C153" t="n">
-        <v>38.0</v>
+        <v>10.0</v>
       </c>
       <c r="D153" t="n">
-        <v>7.0</v>
+        <v>46.0</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -4955,7 +4955,7 @@
         <v>11</v>
       </c>
       <c r="G153" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="H153" t="s">
         <v>11</v>
@@ -4972,13 +4972,13 @@
         <v>16</v>
       </c>
       <c r="B154" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="C154" t="n">
-        <v>52.0</v>
+        <v>15.0</v>
       </c>
       <c r="D154" t="n">
-        <v>8.0</v>
+        <v>59.0</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -4987,7 +4987,7 @@
         <v>11</v>
       </c>
       <c r="G154" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="H154" t="s">
         <v>11</v>
@@ -5004,13 +5004,13 @@
         <v>16</v>
       </c>
       <c r="B155" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="C155" t="n">
-        <v>64.0</v>
+        <v>22.0</v>
       </c>
       <c r="D155" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -5019,7 +5019,7 @@
         <v>11</v>
       </c>
       <c r="G155" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="H155" t="s">
         <v>11</v>
@@ -5036,13 +5036,13 @@
         <v>16</v>
       </c>
       <c r="B156" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C156" t="n">
-        <v>57.0</v>
+        <v>30.0</v>
       </c>
       <c r="D156" t="n">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -5051,7 +5051,7 @@
         <v>11</v>
       </c>
       <c r="G156" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="H156" t="s">
         <v>11</v>
@@ -5068,13 +5068,13 @@
         <v>16</v>
       </c>
       <c r="B157" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C157" t="n">
-        <v>63.0</v>
+        <v>33.0</v>
       </c>
       <c r="D157" t="n">
-        <v>17.0</v>
+        <v>52.0</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
@@ -5083,7 +5083,7 @@
         <v>11</v>
       </c>
       <c r="G157" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="H157" t="s">
         <v>11</v>
@@ -5100,13 +5100,13 @@
         <v>16</v>
       </c>
       <c r="B158" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="C158" t="n">
-        <v>55.0</v>
+        <v>37.0</v>
       </c>
       <c r="D158" t="n">
-        <v>25.0</v>
+        <v>56.0</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
@@ -5115,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="G158" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="H158" t="s">
         <v>11</v>
@@ -5132,13 +5132,13 @@
         <v>16</v>
       </c>
       <c r="B159" t="n">
-        <v>8.0</v>
+        <v>34.0</v>
       </c>
       <c r="C159" t="n">
-        <v>62.0</v>
+        <v>33.0</v>
       </c>
       <c r="D159" t="n">
-        <v>31.0</v>
+        <v>61.0</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -5147,7 +5147,7 @@
         <v>11</v>
       </c>
       <c r="G159" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="H159" t="s">
         <v>11</v>
@@ -5164,13 +5164,13 @@
         <v>16</v>
       </c>
       <c r="B160" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="C160" t="n">
-        <v>69.0</v>
+        <v>42.0</v>
       </c>
       <c r="D160" t="n">
-        <v>37.0</v>
+        <v>62.0</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
@@ -5179,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="G160" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="H160" t="s">
         <v>11</v>
@@ -5196,14 +5196,14 @@
         <v>16</v>
       </c>
       <c r="B161" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="C161" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D161" t="n">
         <v>52.0</v>
       </c>
-      <c r="D161" t="n">
-        <v>37.0</v>
-      </c>
       <c r="E161" t="s">
         <v>11</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>11</v>
       </c>
       <c r="G161" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="H161" t="s">
         <v>11</v>
@@ -5228,13 +5228,13 @@
         <v>16</v>
       </c>
       <c r="B162" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="C162" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D162" t="n">
-        <v>58.0</v>
+        <v>49.0</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -5243,7 +5243,7 @@
         <v>11</v>
       </c>
       <c r="G162" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="H162" t="s">
         <v>11</v>
@@ -5260,13 +5260,13 @@
         <v>16</v>
       </c>
       <c r="B163" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C163" t="n">
-        <v>42.0</v>
+        <v>58.0</v>
       </c>
       <c r="D163" t="n">
-        <v>62.0</v>
+        <v>57.0</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
@@ -5275,7 +5275,7 @@
         <v>11</v>
       </c>
       <c r="G163" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="H163" t="s">
         <v>11</v>
@@ -5292,13 +5292,13 @@
         <v>16</v>
       </c>
       <c r="B164" t="n">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="C164" t="n">
-        <v>33.0</v>
+        <v>69.0</v>
       </c>
       <c r="D164" t="n">
-        <v>61.0</v>
+        <v>37.0</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -5307,7 +5307,7 @@
         <v>11</v>
       </c>
       <c r="G164" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="H164" t="s">
         <v>11</v>
@@ -5324,14 +5324,14 @@
         <v>16</v>
       </c>
       <c r="B165" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="C165" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D165" t="n">
         <v>27.0</v>
       </c>
-      <c r="D165" t="n">
-        <v>58.0</v>
-      </c>
       <c r="E165" t="s">
         <v>11</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>11</v>
       </c>
       <c r="G165" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="H165" t="s">
         <v>11</v>
@@ -5356,13 +5356,13 @@
         <v>16</v>
       </c>
       <c r="B166" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="C166" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="D166" t="n">
-        <v>52.0</v>
+        <v>37.0</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
@@ -5371,7 +5371,7 @@
         <v>11</v>
       </c>
       <c r="G166" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="H166" t="s">
         <v>11</v>
@@ -5388,13 +5388,13 @@
         <v>16</v>
       </c>
       <c r="B167" t="n">
-        <v>11.0</v>
+        <v>32.0</v>
       </c>
       <c r="C167" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="D167" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
@@ -5403,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="G167" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="H167" t="s">
         <v>11</v>
@@ -5420,13 +5420,13 @@
         <v>16</v>
       </c>
       <c r="B168" t="n">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="C168" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="D168" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -5435,7 +5435,7 @@
         <v>11</v>
       </c>
       <c r="G168" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="H168" t="s">
         <v>11</v>
@@ -5452,13 +5452,13 @@
         <v>16</v>
       </c>
       <c r="B169" t="n">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="C169" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="D169" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -5467,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>15.0</v>
+        <v>29.0</v>
       </c>
       <c r="H169" t="s">
         <v>11</v>
@@ -5484,13 +5484,13 @@
         <v>16</v>
       </c>
       <c r="B170" t="n">
-        <v>49.0</v>
+        <v>4.0</v>
       </c>
       <c r="C170" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="D170" t="n">
-        <v>48.0</v>
+        <v>20.0</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -5499,7 +5499,7 @@
         <v>11</v>
       </c>
       <c r="G170" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="H170" t="s">
         <v>11</v>
@@ -5516,13 +5516,13 @@
         <v>16</v>
       </c>
       <c r="B171" t="n">
-        <v>39.0</v>
+        <v>18.0</v>
       </c>
       <c r="C171" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="D171" t="n">
-        <v>59.0</v>
+        <v>17.0</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -5531,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="G171" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="H171" t="s">
         <v>11</v>
@@ -5548,13 +5548,13 @@
         <v>16</v>
       </c>
       <c r="B172" t="n">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="C172" t="n">
-        <v>10.0</v>
+        <v>42.0</v>
       </c>
       <c r="D172" t="n">
-        <v>46.0</v>
+        <v>12.0</v>
       </c>
       <c r="E172" t="s">
         <v>11</v>
@@ -5563,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="G172" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="H172" t="s">
         <v>11</v>
@@ -5580,13 +5580,13 @@
         <v>16</v>
       </c>
       <c r="B173" t="n">
-        <v>45.0</v>
+        <v>24.0</v>
       </c>
       <c r="C173" t="n">
-        <v>10.0</v>
+        <v>52.0</v>
       </c>
       <c r="D173" t="n">
-        <v>39.0</v>
+        <v>8.0</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
@@ -5612,13 +5612,13 @@
         <v>16</v>
       </c>
       <c r="B174" t="n">
-        <v>44.0</v>
+        <v>25.0</v>
       </c>
       <c r="C174" t="n">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="D174" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -5627,7 +5627,7 @@
         <v>11</v>
       </c>
       <c r="G174" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="H174" t="s">
         <v>11</v>
@@ -5644,13 +5644,13 @@
         <v>16</v>
       </c>
       <c r="B175" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="C175" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="D175" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>11</v>
       </c>
       <c r="G175" t="n">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
       <c r="H175" t="s">
         <v>11</v>

--- a/temp/Temp_TR_Solutions.xlsx
+++ b/temp/Temp_TR_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="17">
   <si>
     <t>0_NAME</t>
   </si>
@@ -191,10 +191,10 @@
         <v>41.057835</v>
       </c>
       <c r="E3" t="n">
-        <v>15.796416759490967</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>15.796417236328125</v>
+        <v>13.537293434143066</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -219,10 +219,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>738.0</v>
+        <v>648.0</v>
       </c>
       <c r="F4" t="n">
-        <v>15.796416759490967</v>
+        <v>13.537293553352356</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -247,15 +247,15 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>103.0</v>
+        <v>109.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.242934226989746</v>
+        <v>2.3344414234161377</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -298,13 +298,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-80.04431</v>
+        <v>-80.0457</v>
       </c>
       <c r="D7" t="n">
-        <v>41.06092536</v>
+        <v>41.06212885</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -322,7 +322,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -330,13 +330,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-80.04257</v>
+        <v>-80.04431</v>
       </c>
       <c r="D8" t="n">
-        <v>41.06085219</v>
+        <v>41.06092536</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -354,7 +354,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -362,13 +362,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-80.04273</v>
+        <v>-80.04257</v>
       </c>
       <c r="D9" t="n">
-        <v>41.06188615</v>
+        <v>41.06085219</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -377,7 +377,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -394,13 +394,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-80.04046</v>
+        <v>-80.04273</v>
       </c>
       <c r="D10" t="n">
-        <v>41.06106754</v>
+        <v>41.06188615</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -409,7 +409,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -418,7 +418,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -426,13 +426,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-80.03876</v>
+        <v>-80.04349</v>
       </c>
       <c r="D11" t="n">
-        <v>41.06529995</v>
+        <v>41.06326948</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -458,13 +458,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-80.04078</v>
+        <v>-80.03876</v>
       </c>
       <c r="D12" t="n">
-        <v>41.06539249</v>
+        <v>41.06529995</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -473,7 +473,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -482,7 +482,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-80.04349</v>
+        <v>-80.04904</v>
       </c>
       <c r="D18" t="n">
-        <v>41.06326948</v>
+        <v>41.06199026</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -682,13 +682,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38.0</v>
+        <v>56.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-80.0457</v>
+        <v>-80.05029</v>
       </c>
       <c r="D19" t="n">
-        <v>41.06212885</v>
+        <v>41.06199246</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -697,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -746,13 +746,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-80.05009</v>
+        <v>-80.04951</v>
       </c>
       <c r="D21" t="n">
-        <v>41.06067186</v>
+        <v>41.06127026</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -761,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-80.0488</v>
+        <v>-80.05009</v>
       </c>
       <c r="D22" t="n">
-        <v>41.06003739</v>
+        <v>41.06067186</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -802,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -810,13 +810,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-80.04841</v>
+        <v>-80.0488</v>
       </c>
       <c r="D23" t="n">
-        <v>41.05778901</v>
+        <v>41.06003739</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -825,16 +825,16 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
         <v>4.0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-80.04808</v>
+        <v>-80.04967</v>
       </c>
       <c r="D24" t="n">
-        <v>41.05762051</v>
+        <v>41.05954292</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -857,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -866,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -874,13 +874,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-80.046878</v>
+        <v>-80.04841</v>
       </c>
       <c r="D25" t="n">
-        <v>41.057835</v>
+        <v>41.05778901</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -889,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -898,35 +898,39 @@
         <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-80.04754</v>
+      </c>
+      <c r="D26" t="n">
+        <v>41.05828804</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4.249732494354248</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -963,34 +967,30 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-80.04666</v>
-      </c>
-      <c r="D28" t="n">
-        <v>41.05817512</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
         <v>1.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.544760227203369</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -998,13 +998,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>34.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-80.04257</v>
+        <v>-80.046878</v>
       </c>
       <c r="D29" t="n">
-        <v>41.06085219</v>
+        <v>41.057835</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1022,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1030,13 +1030,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="C30" t="n">
-        <v>-80.03464</v>
+        <v>-80.04808</v>
       </c>
       <c r="D30" t="n">
-        <v>41.06182129</v>
+        <v>41.05762051</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1045,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1054,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -1062,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>11.0</v>
+        <v>58.0</v>
       </c>
       <c r="C31" t="n">
-        <v>-80.03329</v>
+        <v>-80.05221</v>
       </c>
       <c r="D31" t="n">
-        <v>41.06307594</v>
+        <v>41.0612051</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1077,16 +1077,16 @@
         <v>11</v>
       </c>
       <c r="G31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
         <v>2.0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -1094,13 +1094,13 @@
         <v>16</v>
       </c>
       <c r="B32" t="n">
-        <v>12.0</v>
+        <v>57.0</v>
       </c>
       <c r="C32" t="n">
-        <v>-80.03358</v>
+        <v>-80.05152</v>
       </c>
       <c r="D32" t="n">
-        <v>41.06328294</v>
+        <v>41.061453</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1109,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1118,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -1126,13 +1126,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>16.0</v>
+        <v>49.0</v>
       </c>
       <c r="C33" t="n">
-        <v>-80.03693</v>
+        <v>-80.05009</v>
       </c>
       <c r="D33" t="n">
-        <v>41.06944105</v>
+        <v>41.06067186</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1150,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -1158,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>19.0</v>
+        <v>51.0</v>
       </c>
       <c r="C34" t="n">
-        <v>-80.03939</v>
+        <v>-80.04918</v>
       </c>
       <c r="D34" t="n">
-        <v>41.06750213</v>
+        <v>41.06111633</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="G34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="n">
         <v>2.0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -1190,13 +1190,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>20.0</v>
+        <v>53.0</v>
       </c>
       <c r="C35" t="n">
-        <v>-80.04046</v>
+        <v>-80.04843</v>
       </c>
       <c r="D35" t="n">
-        <v>41.06778319</v>
+        <v>41.06219888</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1205,16 +1205,16 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
         <v>2.0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1222,13 +1222,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="C36" t="n">
-        <v>-80.04038</v>
+        <v>-80.04349</v>
       </c>
       <c r="D36" t="n">
-        <v>41.06717882</v>
+        <v>41.06326948</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1237,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="J36" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
@@ -1254,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C37" t="n">
-        <v>-80.04192</v>
+        <v>-80.04381</v>
       </c>
       <c r="D37" t="n">
-        <v>41.06552861</v>
+        <v>41.0649643</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1318,13 +1318,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C39" t="n">
-        <v>-80.04381</v>
+        <v>-80.0422</v>
       </c>
       <c r="D39" t="n">
-        <v>41.0649643</v>
+        <v>41.06527751</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1350,13 +1350,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C40" t="n">
-        <v>-80.0422</v>
+        <v>-80.04192</v>
       </c>
       <c r="D40" t="n">
-        <v>41.06527751</v>
+        <v>41.06552861</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1382,13 +1382,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="C41" t="n">
-        <v>-80.03876</v>
+        <v>-80.04078</v>
       </c>
       <c r="D41" t="n">
-        <v>41.06529995</v>
+        <v>41.06539249</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1397,7 +1397,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1406,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="J41" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
@@ -1414,13 +1414,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C42" t="n">
-        <v>-80.03649</v>
+        <v>-80.03876</v>
       </c>
       <c r="D42" t="n">
-        <v>41.06399662</v>
+        <v>41.06529995</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -1438,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
@@ -1446,13 +1446,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="C43" t="n">
-        <v>-80.03641</v>
+        <v>-80.03329</v>
       </c>
       <c r="D43" t="n">
-        <v>41.06307329</v>
+        <v>41.06307594</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1461,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -1478,13 +1478,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="C44" t="n">
-        <v>-80.03837</v>
+        <v>-80.04046</v>
       </c>
       <c r="D44" t="n">
-        <v>41.0630362</v>
+        <v>41.06106754</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1493,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -1502,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -1510,13 +1510,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="C45" t="n">
-        <v>-80.04046</v>
+        <v>-80.04273</v>
       </c>
       <c r="D45" t="n">
-        <v>41.06106754</v>
+        <v>41.06188615</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1525,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -1534,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -1542,13 +1542,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="C46" t="n">
-        <v>-80.04273</v>
+        <v>-80.04431</v>
       </c>
       <c r="D46" t="n">
-        <v>41.06188615</v>
+        <v>41.06092536</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1557,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -1574,13 +1574,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>30.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C47" t="n">
-        <v>-80.04349</v>
+        <v>-80.046878</v>
       </c>
       <c r="D47" t="n">
-        <v>41.06326948</v>
+        <v>41.057835</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1598,39 +1598,35 @@
         <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-80.04431</v>
-      </c>
-      <c r="D48" t="n">
-        <v>41.06092536</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.444021701812744</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1638,13 +1634,13 @@
         <v>16</v>
       </c>
       <c r="B49" t="n">
-        <v>42.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C49" t="n">
-        <v>-80.0459</v>
+        <v>-80.046878</v>
       </c>
       <c r="D49" t="n">
-        <v>41.06011254</v>
+        <v>41.057835</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -1653,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="s">
         <v>11</v>
@@ -1662,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1670,13 +1666,13 @@
         <v>16</v>
       </c>
       <c r="B50" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="C50" t="n">
-        <v>-80.04595</v>
+        <v>-80.04618</v>
       </c>
       <c r="D50" t="n">
-        <v>41.05988253</v>
+        <v>41.06131199</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1694,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1702,13 +1698,13 @@
         <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>45.0</v>
+        <v>36.0</v>
       </c>
       <c r="C51" t="n">
-        <v>-80.04838</v>
+        <v>-80.04431</v>
       </c>
       <c r="D51" t="n">
-        <v>41.06107385</v>
+        <v>41.06092536</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -1717,7 +1713,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H51" t="s">
         <v>11</v>
@@ -1726,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="J51" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -1734,13 +1730,13 @@
         <v>16</v>
       </c>
       <c r="B52" t="n">
-        <v>50.0</v>
+        <v>31.0</v>
       </c>
       <c r="C52" t="n">
-        <v>-80.04951</v>
+        <v>-80.04273</v>
       </c>
       <c r="D52" t="n">
-        <v>41.06127026</v>
+        <v>41.06188615</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -1749,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
@@ -1758,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="J52" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53">
@@ -1766,13 +1762,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="n">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="C53" t="n">
-        <v>-80.05009</v>
+        <v>-80.04257</v>
       </c>
       <c r="D53" t="n">
-        <v>41.06067186</v>
+        <v>41.06085219</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1781,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
@@ -1790,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="J53" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="54">
@@ -1798,13 +1794,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>57.0</v>
+        <v>33.0</v>
       </c>
       <c r="C54" t="n">
-        <v>-80.05152</v>
+        <v>-80.04046</v>
       </c>
       <c r="D54" t="n">
-        <v>41.061453</v>
+        <v>41.06106754</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -1822,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -1830,13 +1826,13 @@
         <v>16</v>
       </c>
       <c r="B55" t="n">
-        <v>59.0</v>
+        <v>18.0</v>
       </c>
       <c r="C55" t="n">
-        <v>-80.05309</v>
+        <v>-80.03876</v>
       </c>
       <c r="D55" t="n">
-        <v>41.0620405</v>
+        <v>41.06529995</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -1845,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -1854,7 +1850,7 @@
         <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
@@ -1862,13 +1858,13 @@
         <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>48.0</v>
+        <v>19.0</v>
       </c>
       <c r="C56" t="n">
-        <v>-80.05073</v>
+        <v>-80.03939</v>
       </c>
       <c r="D56" t="n">
-        <v>41.05993479</v>
+        <v>41.06750213</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -1877,16 +1873,16 @@
         <v>11</v>
       </c>
       <c r="G56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -1894,13 +1890,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>47.0</v>
+        <v>22.0</v>
       </c>
       <c r="C57" t="n">
-        <v>-80.05088</v>
+        <v>-80.04068</v>
       </c>
       <c r="D57" t="n">
-        <v>41.05933591</v>
+        <v>41.06667837</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -1909,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
@@ -1926,13 +1922,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>44.0</v>
+        <v>26.0</v>
       </c>
       <c r="C58" t="n">
-        <v>-80.0488</v>
+        <v>-80.04192</v>
       </c>
       <c r="D58" t="n">
-        <v>41.06003739</v>
+        <v>41.06552861</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1941,7 +1937,7 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
@@ -1950,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
@@ -1958,23 +1954,23 @@
         <v>16</v>
       </c>
       <c r="B59" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-80.0422</v>
+      </c>
+      <c r="D59" t="n">
+        <v>41.06527751</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="n">
         <v>10.0</v>
       </c>
-      <c r="C59" t="n">
-        <v>-80.04743</v>
-      </c>
-      <c r="D59" t="n">
-        <v>41.05852433</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2.0</v>
-      </c>
       <c r="H59" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="J59" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
@@ -1990,13 +1986,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>8.0</v>
+        <v>29.0</v>
       </c>
       <c r="C60" t="n">
-        <v>-80.04738</v>
+        <v>-80.0436</v>
       </c>
       <c r="D60" t="n">
-        <v>41.05841401</v>
+        <v>41.06516554</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2005,7 +2001,7 @@
         <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
@@ -2014,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="J60" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -2022,13 +2018,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="n">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="C61" t="n">
-        <v>-80.04754</v>
+        <v>-80.04381</v>
       </c>
       <c r="D61" t="n">
-        <v>41.05828804</v>
+        <v>41.0649643</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2037,7 +2033,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H61" t="s">
         <v>11</v>
@@ -2046,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="J61" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62">
@@ -2054,13 +2050,13 @@
         <v>16</v>
       </c>
       <c r="B62" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="C62" t="n">
-        <v>-80.04773</v>
+        <v>-80.04349</v>
       </c>
       <c r="D62" t="n">
-        <v>41.0580007</v>
+        <v>41.06326948</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -2069,7 +2065,7 @@
         <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H62" t="s">
         <v>11</v>
@@ -2078,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="J62" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="63">
@@ -2086,13 +2082,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="n">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="C63" t="n">
-        <v>-80.04759</v>
+        <v>-80.0457</v>
       </c>
       <c r="D63" t="n">
-        <v>41.05780933</v>
+        <v>41.06212885</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2101,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H63" t="s">
         <v>11</v>
@@ -2110,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="J63" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
@@ -2118,13 +2114,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>39.0</v>
+        <v>52.0</v>
       </c>
       <c r="C64" t="n">
-        <v>-80.04841</v>
+        <v>-80.04904</v>
       </c>
       <c r="D64" t="n">
-        <v>41.05778901</v>
+        <v>41.06199026</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -2133,7 +2129,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="s">
         <v>11</v>
@@ -2142,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="J64" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
@@ -2150,13 +2146,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="C65" t="n">
-        <v>-80.04808</v>
+        <v>-80.05029</v>
       </c>
       <c r="D65" t="n">
-        <v>41.05762051</v>
+        <v>41.06199246</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2174,7 +2170,7 @@
         <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -2182,13 +2178,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>3.0</v>
+        <v>57.0</v>
       </c>
       <c r="C66" t="n">
-        <v>-80.04781</v>
+        <v>-80.05152</v>
       </c>
       <c r="D66" t="n">
-        <v>41.05762504</v>
+        <v>41.061453</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2206,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="J66" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
@@ -2214,13 +2210,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="n">
-        <v>4.0</v>
+        <v>50.0</v>
       </c>
       <c r="C67" t="n">
-        <v>-80.047</v>
+        <v>-80.04951</v>
       </c>
       <c r="D67" t="n">
-        <v>41.05760118</v>
+        <v>41.06127026</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2229,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -2238,7 +2234,7 @@
         <v>11</v>
       </c>
       <c r="J67" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
@@ -2246,13 +2242,13 @@
         <v>16</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.0</v>
+        <v>49.0</v>
       </c>
       <c r="C68" t="n">
-        <v>-80.046878</v>
+        <v>-80.05009</v>
       </c>
       <c r="D68" t="n">
-        <v>41.057835</v>
+        <v>41.06067186</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2261,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2270,35 +2266,39 @@
         <v>11</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-80.0488</v>
+      </c>
+      <c r="D69" t="n">
+        <v>41.06003739</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="n">
         <v>2.0</v>
       </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2.2626311779022217</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>11</v>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
@@ -2306,13 +2306,13 @@
         <v>16</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.0</v>
+        <v>39.0</v>
       </c>
       <c r="C70" t="n">
-        <v>-80.046878</v>
+        <v>-80.04841</v>
       </c>
       <c r="D70" t="n">
-        <v>41.057835</v>
+        <v>41.05778901</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2321,7 +2321,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
@@ -2330,7 +2330,7 @@
         <v>11</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -2338,13 +2338,13 @@
         <v>16</v>
       </c>
       <c r="B71" t="n">
-        <v>46.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C71" t="n">
-        <v>-80.04967</v>
+        <v>-80.046878</v>
       </c>
       <c r="D71" t="n">
-        <v>41.05954292</v>
+        <v>41.057835</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2353,7 +2353,7 @@
         <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
@@ -2362,39 +2362,35 @@
         <v>11</v>
       </c>
       <c r="J71" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-80.05009</v>
-      </c>
-      <c r="D72" t="n">
-        <v>41.06067186</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.0568490028381348</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -2402,13 +2398,13 @@
         <v>16</v>
       </c>
       <c r="B73" t="n">
-        <v>51.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C73" t="n">
-        <v>-80.04918</v>
+        <v>-80.046878</v>
       </c>
       <c r="D73" t="n">
-        <v>41.06111633</v>
+        <v>41.057835</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -2417,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
@@ -2426,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="J73" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -2434,13 +2430,13 @@
         <v>16</v>
       </c>
       <c r="B74" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="C74" t="n">
-        <v>-80.04951</v>
+        <v>-80.04429</v>
       </c>
       <c r="D74" t="n">
-        <v>41.06127026</v>
+        <v>41.06019151</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2449,7 +2445,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -2458,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="J74" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
@@ -2466,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B75" t="n">
-        <v>58.0</v>
+        <v>36.0</v>
       </c>
       <c r="C75" t="n">
-        <v>-80.05221</v>
+        <v>-80.04431</v>
       </c>
       <c r="D75" t="n">
-        <v>41.0612051</v>
+        <v>41.06092536</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2481,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="G75" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -2490,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="J75" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="76">
@@ -2498,13 +2494,13 @@
         <v>16</v>
       </c>
       <c r="B76" t="n">
-        <v>57.0</v>
+        <v>34.0</v>
       </c>
       <c r="C76" t="n">
-        <v>-80.05152</v>
+        <v>-80.04257</v>
       </c>
       <c r="D76" t="n">
-        <v>41.061453</v>
+        <v>41.06085219</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2522,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="J76" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="77">
@@ -2530,13 +2526,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="n">
-        <v>56.0</v>
+        <v>18.0</v>
       </c>
       <c r="C77" t="n">
-        <v>-80.05029</v>
+        <v>-80.03876</v>
       </c>
       <c r="D77" t="n">
-        <v>41.06199246</v>
+        <v>41.06529995</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2545,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2554,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="78">
@@ -2562,13 +2558,13 @@
         <v>16</v>
       </c>
       <c r="B78" t="n">
-        <v>52.0</v>
+        <v>25.0</v>
       </c>
       <c r="C78" t="n">
-        <v>-80.04904</v>
+        <v>-80.04078</v>
       </c>
       <c r="D78" t="n">
-        <v>41.06199026</v>
+        <v>41.06539249</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2577,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -2586,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="J78" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
@@ -2594,13 +2590,13 @@
         <v>16</v>
       </c>
       <c r="B79" t="n">
-        <v>53.0</v>
+        <v>26.0</v>
       </c>
       <c r="C79" t="n">
-        <v>-80.04843</v>
+        <v>-80.04192</v>
       </c>
       <c r="D79" t="n">
-        <v>41.06219888</v>
+        <v>41.06552861</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2609,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
@@ -2618,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="J79" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="80">
@@ -2626,13 +2622,13 @@
         <v>16</v>
       </c>
       <c r="B80" t="n">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="C80" t="n">
-        <v>-80.04618</v>
+        <v>-80.0422</v>
       </c>
       <c r="D80" t="n">
-        <v>41.06131199</v>
+        <v>41.06527751</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2641,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
@@ -2650,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="J80" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="81">
@@ -2658,13 +2654,13 @@
         <v>16</v>
       </c>
       <c r="B81" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="C81" t="n">
-        <v>-80.0457</v>
+        <v>-80.0436</v>
       </c>
       <c r="D81" t="n">
-        <v>41.06212885</v>
+        <v>41.06516554</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2673,7 +2669,7 @@
         <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -2682,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="J81" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="82">
@@ -2690,13 +2686,13 @@
         <v>16</v>
       </c>
       <c r="B82" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="C82" t="n">
-        <v>-80.04349</v>
+        <v>-80.04381</v>
       </c>
       <c r="D82" t="n">
-        <v>41.06326948</v>
+        <v>41.0649643</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2722,13 +2718,13 @@
         <v>16</v>
       </c>
       <c r="B83" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="C83" t="n">
-        <v>-80.03876</v>
+        <v>-80.04349</v>
       </c>
       <c r="D83" t="n">
-        <v>41.06529995</v>
+        <v>41.06326948</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -2754,13 +2750,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="n">
-        <v>22.0</v>
+        <v>51.0</v>
       </c>
       <c r="C84" t="n">
-        <v>-80.04068</v>
+        <v>-80.04918</v>
       </c>
       <c r="D84" t="n">
-        <v>41.06667837</v>
+        <v>41.06111633</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -2769,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2778,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="J84" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
@@ -2786,13 +2782,13 @@
         <v>16</v>
       </c>
       <c r="B85" t="n">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="C85" t="n">
-        <v>-80.04078</v>
+        <v>-80.04951</v>
       </c>
       <c r="D85" t="n">
-        <v>41.06539249</v>
+        <v>41.06127026</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -2810,7 +2806,7 @@
         <v>11</v>
       </c>
       <c r="J85" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="86">
@@ -2818,13 +2814,13 @@
         <v>16</v>
       </c>
       <c r="B86" t="n">
-        <v>26.0</v>
+        <v>57.0</v>
       </c>
       <c r="C86" t="n">
-        <v>-80.04192</v>
+        <v>-80.05152</v>
       </c>
       <c r="D86" t="n">
-        <v>41.06552861</v>
+        <v>41.061453</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -2833,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -2850,13 +2846,13 @@
         <v>16</v>
       </c>
       <c r="B87" t="n">
-        <v>27.0</v>
+        <v>58.0</v>
       </c>
       <c r="C87" t="n">
-        <v>-80.0422</v>
+        <v>-80.05221</v>
       </c>
       <c r="D87" t="n">
-        <v>41.06527751</v>
+        <v>41.0612051</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2865,7 +2861,7 @@
         <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
@@ -2874,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="J87" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
@@ -2882,13 +2878,13 @@
         <v>16</v>
       </c>
       <c r="B88" t="n">
-        <v>29.0</v>
+        <v>49.0</v>
       </c>
       <c r="C88" t="n">
-        <v>-80.0436</v>
+        <v>-80.05009</v>
       </c>
       <c r="D88" t="n">
-        <v>41.06516554</v>
+        <v>41.06067186</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -2897,7 +2893,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2914,13 +2910,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="C89" t="n">
-        <v>-80.04381</v>
+        <v>-80.0488</v>
       </c>
       <c r="D89" t="n">
-        <v>41.0649643</v>
+        <v>41.06003739</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -2929,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="H89" t="s">
         <v>11</v>
@@ -2938,7 +2934,7 @@
         <v>11</v>
       </c>
       <c r="J89" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="90">
@@ -2946,13 +2942,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="C90" t="n">
-        <v>-80.04431</v>
+        <v>-80.04808</v>
       </c>
       <c r="D90" t="n">
-        <v>41.06092536</v>
+        <v>41.05762051</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -2961,7 +2957,7 @@
         <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H90" t="s">
         <v>11</v>
@@ -2970,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="J90" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2974,13 @@
         <v>16</v>
       </c>
       <c r="B91" t="n">
-        <v>35.0</v>
+        <v>4.0</v>
       </c>
       <c r="C91" t="n">
-        <v>-80.04429</v>
+        <v>-80.047</v>
       </c>
       <c r="D91" t="n">
-        <v>41.06019151</v>
+        <v>41.05760118</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -2993,7 +2989,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
@@ -3002,7 +2998,7 @@
         <v>11</v>
       </c>
       <c r="J91" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
@@ -3042,7 +3038,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -3051,15 +3047,15 @@
         <v>11</v>
       </c>
       <c r="E93" t="n">
-        <v>121.0</v>
+        <v>109.0</v>
       </c>
       <c r="F93" t="n">
-        <v>2.4519267082214355</v>
+        <v>2.2568979263305664</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="J93" t="s">
         <v>11</v>
@@ -3102,13 +3098,13 @@
         <v>16</v>
       </c>
       <c r="B95" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="C95" t="n">
-        <v>-80.04808</v>
+        <v>-80.04431</v>
       </c>
       <c r="D95" t="n">
-        <v>41.05762051</v>
+        <v>41.06092536</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3117,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -3126,7 +3122,7 @@
         <v>11</v>
       </c>
       <c r="J95" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="96">
@@ -3134,13 +3130,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="C96" t="n">
-        <v>-80.04841</v>
+        <v>-80.04257</v>
       </c>
       <c r="D96" t="n">
-        <v>41.05778901</v>
+        <v>41.06085219</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3149,16 +3145,16 @@
         <v>11</v>
       </c>
       <c r="G96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" t="n">
         <v>4.0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" t="s">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="97">
@@ -3166,13 +3162,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="n">
-        <v>47.0</v>
+        <v>31.0</v>
       </c>
       <c r="C97" t="n">
-        <v>-80.05088</v>
+        <v>-80.04273</v>
       </c>
       <c r="D97" t="n">
-        <v>41.05933591</v>
+        <v>41.06188615</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -3190,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="J97" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="98">
@@ -3198,13 +3194,13 @@
         <v>16</v>
       </c>
       <c r="B98" t="n">
-        <v>48.0</v>
+        <v>33.0</v>
       </c>
       <c r="C98" t="n">
-        <v>-80.05073</v>
+        <v>-80.04046</v>
       </c>
       <c r="D98" t="n">
-        <v>41.05993479</v>
+        <v>41.06106754</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -3230,13 +3226,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="n">
-        <v>59.0</v>
+        <v>18.0</v>
       </c>
       <c r="C99" t="n">
-        <v>-80.05309</v>
+        <v>-80.03876</v>
       </c>
       <c r="D99" t="n">
-        <v>41.0620405</v>
+        <v>41.06529995</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3245,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -3254,7 +3250,7 @@
         <v>11</v>
       </c>
       <c r="J99" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="100">
@@ -3262,13 +3258,13 @@
         <v>16</v>
       </c>
       <c r="B100" t="n">
-        <v>57.0</v>
+        <v>22.0</v>
       </c>
       <c r="C100" t="n">
-        <v>-80.05152</v>
+        <v>-80.04068</v>
       </c>
       <c r="D100" t="n">
-        <v>41.061453</v>
+        <v>41.06667837</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -3277,7 +3273,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H100" t="s">
         <v>11</v>
@@ -3286,7 +3282,7 @@
         <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="101">
@@ -3294,13 +3290,13 @@
         <v>16</v>
       </c>
       <c r="B101" t="n">
-        <v>49.0</v>
+        <v>26.0</v>
       </c>
       <c r="C101" t="n">
-        <v>-80.05009</v>
+        <v>-80.04192</v>
       </c>
       <c r="D101" t="n">
-        <v>41.06067186</v>
+        <v>41.06552861</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3309,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -3326,13 +3322,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="n">
-        <v>50.0</v>
+        <v>27.0</v>
       </c>
       <c r="C102" t="n">
-        <v>-80.04951</v>
+        <v>-80.0422</v>
       </c>
       <c r="D102" t="n">
-        <v>41.06127026</v>
+        <v>41.06527751</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3341,7 +3337,7 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H102" t="s">
         <v>11</v>
@@ -3350,7 +3346,7 @@
         <v>11</v>
       </c>
       <c r="J102" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="103">
@@ -3358,13 +3354,13 @@
         <v>16</v>
       </c>
       <c r="B103" t="n">
-        <v>45.0</v>
+        <v>29.0</v>
       </c>
       <c r="C103" t="n">
-        <v>-80.04838</v>
+        <v>-80.0436</v>
       </c>
       <c r="D103" t="n">
-        <v>41.06107385</v>
+        <v>41.06516554</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3373,7 +3369,7 @@
         <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
@@ -3382,7 +3378,7 @@
         <v>11</v>
       </c>
       <c r="J103" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="104">
@@ -3390,13 +3386,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="n">
-        <v>44.0</v>
+        <v>28.0</v>
       </c>
       <c r="C104" t="n">
-        <v>-80.0488</v>
+        <v>-80.04381</v>
       </c>
       <c r="D104" t="n">
-        <v>41.06003739</v>
+        <v>41.0649643</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3405,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="H104" t="s">
         <v>11</v>
@@ -3414,7 +3410,7 @@
         <v>11</v>
       </c>
       <c r="J104" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="105">
@@ -3422,13 +3418,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="n">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
       <c r="C105" t="n">
-        <v>-80.04595</v>
+        <v>-80.04349</v>
       </c>
       <c r="D105" t="n">
-        <v>41.05988253</v>
+        <v>41.06326948</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3437,7 +3433,7 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="H105" t="s">
         <v>11</v>
@@ -3446,7 +3442,7 @@
         <v>11</v>
       </c>
       <c r="J105" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="106">
@@ -3454,13 +3450,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="C106" t="n">
-        <v>-80.0459</v>
+        <v>-80.0457</v>
       </c>
       <c r="D106" t="n">
-        <v>41.06011254</v>
+        <v>41.06212885</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -3469,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H106" t="s">
         <v>11</v>
@@ -3486,13 +3482,13 @@
         <v>16</v>
       </c>
       <c r="B107" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="C107" t="n">
-        <v>-80.04431</v>
+        <v>-80.04618</v>
       </c>
       <c r="D107" t="n">
-        <v>41.06092536</v>
+        <v>41.06131199</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3501,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H107" t="s">
         <v>11</v>
@@ -3510,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="J107" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="108">
@@ -3518,13 +3514,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="n">
-        <v>31.0</v>
+        <v>50.0</v>
       </c>
       <c r="C108" t="n">
-        <v>-80.04273</v>
+        <v>-80.04951</v>
       </c>
       <c r="D108" t="n">
-        <v>41.06188615</v>
+        <v>41.06127026</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3533,7 +3529,7 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="H108" t="s">
         <v>11</v>
@@ -3542,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="J108" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="109">
@@ -3550,13 +3546,13 @@
         <v>16</v>
       </c>
       <c r="B109" t="n">
-        <v>30.0</v>
+        <v>57.0</v>
       </c>
       <c r="C109" t="n">
-        <v>-80.04349</v>
+        <v>-80.05152</v>
       </c>
       <c r="D109" t="n">
-        <v>41.06326948</v>
+        <v>41.061453</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3565,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -3582,13 +3578,13 @@
         <v>16</v>
       </c>
       <c r="B110" t="n">
-        <v>28.0</v>
+        <v>49.0</v>
       </c>
       <c r="C110" t="n">
-        <v>-80.04381</v>
+        <v>-80.05009</v>
       </c>
       <c r="D110" t="n">
-        <v>41.0649643</v>
+        <v>41.06067186</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -3597,7 +3593,7 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
@@ -3614,13 +3610,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="n">
-        <v>29.0</v>
+        <v>44.0</v>
       </c>
       <c r="C111" t="n">
-        <v>-80.0436</v>
+        <v>-80.0488</v>
       </c>
       <c r="D111" t="n">
-        <v>41.06516554</v>
+        <v>41.06003739</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -3629,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="H111" t="s">
         <v>11</v>
@@ -3638,7 +3634,7 @@
         <v>11</v>
       </c>
       <c r="J111" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="112">
@@ -3646,13 +3642,13 @@
         <v>16</v>
       </c>
       <c r="B112" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="C112" t="n">
-        <v>-80.0422</v>
+        <v>-80.04967</v>
       </c>
       <c r="D112" t="n">
-        <v>41.06527751</v>
+        <v>41.05954292</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -3661,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
@@ -3670,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="J112" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113">
@@ -3678,13 +3674,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="C113" t="n">
-        <v>-80.04192</v>
+        <v>-80.04808</v>
       </c>
       <c r="D113" t="n">
-        <v>41.06552861</v>
+        <v>41.05762051</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -3693,7 +3689,7 @@
         <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="H113" t="s">
         <v>11</v>
@@ -3702,7 +3698,7 @@
         <v>11</v>
       </c>
       <c r="J113" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="114">
@@ -3710,13 +3706,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="C114" t="n">
-        <v>-80.03876</v>
+        <v>-80.04759</v>
       </c>
       <c r="D114" t="n">
-        <v>41.06529995</v>
+        <v>41.05780933</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -3725,7 +3721,7 @@
         <v>11</v>
       </c>
       <c r="G114" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="H114" t="s">
         <v>11</v>
@@ -3734,7 +3730,7 @@
         <v>11</v>
       </c>
       <c r="J114" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
@@ -3742,13 +3738,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>33.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C115" t="n">
-        <v>-80.04046</v>
+        <v>-80.046878</v>
       </c>
       <c r="D115" t="n">
-        <v>41.06106754</v>
+        <v>41.057835</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -3757,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H115" t="s">
         <v>11</v>
@@ -3766,39 +3762,35 @@
         <v>11</v>
       </c>
       <c r="J115" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>-80.04257</v>
-      </c>
-      <c r="D116" t="n">
-        <v>41.06085219</v>
-      </c>
-      <c r="E116" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" t="s">
-        <v>11</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.9003232717514038</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -3835,30 +3827,34 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B118" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2.2626311779022217</v>
-      </c>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>11</v>
+        <v>35.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-80.04429</v>
+      </c>
+      <c r="D118" t="n">
+        <v>41.06019151</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="119">
@@ -3866,13 +3862,13 @@
         <v>16</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.0</v>
+        <v>36.0</v>
       </c>
       <c r="C119" t="n">
-        <v>-80.046878</v>
+        <v>-80.04431</v>
       </c>
       <c r="D119" t="n">
-        <v>41.057835</v>
+        <v>41.06092536</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -3881,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H119" t="s">
         <v>11</v>
@@ -3890,7 +3886,7 @@
         <v>11</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="120">
@@ -3898,13 +3894,13 @@
         <v>16</v>
       </c>
       <c r="B120" t="n">
-        <v>46.0</v>
+        <v>30.0</v>
       </c>
       <c r="C120" t="n">
-        <v>-80.04967</v>
+        <v>-80.04349</v>
       </c>
       <c r="D120" t="n">
-        <v>41.05954292</v>
+        <v>41.06326948</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -3913,7 +3909,7 @@
         <v>11</v>
       </c>
       <c r="G120" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="H120" t="s">
         <v>11</v>
@@ -3922,7 +3918,7 @@
         <v>11</v>
       </c>
       <c r="J120" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="121">
@@ -3930,13 +3926,13 @@
         <v>16</v>
       </c>
       <c r="B121" t="n">
-        <v>49.0</v>
+        <v>18.0</v>
       </c>
       <c r="C121" t="n">
-        <v>-80.05009</v>
+        <v>-80.03876</v>
       </c>
       <c r="D121" t="n">
-        <v>41.06067186</v>
+        <v>41.06529995</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -3945,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="H121" t="s">
         <v>11</v>
@@ -3962,13 +3958,13 @@
         <v>16</v>
       </c>
       <c r="B122" t="n">
-        <v>51.0</v>
+        <v>25.0</v>
       </c>
       <c r="C122" t="n">
-        <v>-80.04918</v>
+        <v>-80.04078</v>
       </c>
       <c r="D122" t="n">
-        <v>41.06111633</v>
+        <v>41.06539249</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -3977,16 +3973,16 @@
         <v>11</v>
       </c>
       <c r="G122" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" t="n">
         <v>3.0</v>
-      </c>
-      <c r="H122" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" t="s">
-        <v>11</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3990,13 @@
         <v>16</v>
       </c>
       <c r="B123" t="n">
-        <v>50.0</v>
+        <v>26.0</v>
       </c>
       <c r="C123" t="n">
-        <v>-80.04951</v>
+        <v>-80.04192</v>
       </c>
       <c r="D123" t="n">
-        <v>41.06127026</v>
+        <v>41.06552861</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -4009,7 +4005,7 @@
         <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H123" t="s">
         <v>11</v>
@@ -4018,7 +4014,7 @@
         <v>11</v>
       </c>
       <c r="J123" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="124">
@@ -4026,13 +4022,13 @@
         <v>16</v>
       </c>
       <c r="B124" t="n">
-        <v>58.0</v>
+        <v>27.0</v>
       </c>
       <c r="C124" t="n">
-        <v>-80.05221</v>
+        <v>-80.0422</v>
       </c>
       <c r="D124" t="n">
-        <v>41.0612051</v>
+        <v>41.06527751</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -4041,7 +4037,7 @@
         <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
@@ -4050,7 +4046,7 @@
         <v>11</v>
       </c>
       <c r="J124" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="125">
@@ -4058,13 +4054,13 @@
         <v>16</v>
       </c>
       <c r="B125" t="n">
-        <v>57.0</v>
+        <v>29.0</v>
       </c>
       <c r="C125" t="n">
-        <v>-80.05152</v>
+        <v>-80.0436</v>
       </c>
       <c r="D125" t="n">
-        <v>41.061453</v>
+        <v>41.06516554</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -4073,7 +4069,7 @@
         <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H125" t="s">
         <v>11</v>
@@ -4090,13 +4086,13 @@
         <v>16</v>
       </c>
       <c r="B126" t="n">
-        <v>56.0</v>
+        <v>28.0</v>
       </c>
       <c r="C126" t="n">
-        <v>-80.05029</v>
+        <v>-80.04381</v>
       </c>
       <c r="D126" t="n">
-        <v>41.06199246</v>
+        <v>41.0649643</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -4105,7 +4101,7 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -4114,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="J126" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="127">
@@ -4122,13 +4118,13 @@
         <v>16</v>
       </c>
       <c r="B127" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="C127" t="n">
-        <v>-80.04904</v>
+        <v>-80.04843</v>
       </c>
       <c r="D127" t="n">
-        <v>41.06199026</v>
+        <v>41.06219888</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -4137,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -4154,13 +4150,13 @@
         <v>16</v>
       </c>
       <c r="B128" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="C128" t="n">
-        <v>-80.04843</v>
+        <v>-80.04951</v>
       </c>
       <c r="D128" t="n">
-        <v>41.06219888</v>
+        <v>41.06127026</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -4169,7 +4165,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -4178,7 +4174,7 @@
         <v>11</v>
       </c>
       <c r="J128" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="129">
@@ -4186,13 +4182,13 @@
         <v>16</v>
       </c>
       <c r="B129" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="C129" t="n">
-        <v>-80.04618</v>
+        <v>-80.05152</v>
       </c>
       <c r="D129" t="n">
-        <v>41.06131199</v>
+        <v>41.061453</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -4201,7 +4197,7 @@
         <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
@@ -4210,7 +4206,7 @@
         <v>11</v>
       </c>
       <c r="J129" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="130">
@@ -4218,13 +4214,13 @@
         <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="C130" t="n">
-        <v>-80.0457</v>
+        <v>-80.05009</v>
       </c>
       <c r="D130" t="n">
-        <v>41.06212885</v>
+        <v>41.06067186</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -4233,7 +4229,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -4242,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="J130" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="131">
@@ -4250,13 +4246,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="C131" t="n">
-        <v>-80.04349</v>
+        <v>-80.04841</v>
       </c>
       <c r="D131" t="n">
-        <v>41.06326948</v>
+        <v>41.05778901</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -4265,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -4274,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="J131" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
@@ -4282,13 +4278,13 @@
         <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="C132" t="n">
-        <v>-80.03876</v>
+        <v>-80.04808</v>
       </c>
       <c r="D132" t="n">
-        <v>41.06529995</v>
+        <v>41.05762051</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -4297,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="H132" t="s">
         <v>11</v>
@@ -4306,7 +4302,7 @@
         <v>11</v>
       </c>
       <c r="J132" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="133">
@@ -4314,13 +4310,13 @@
         <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="C133" t="n">
-        <v>-80.04068</v>
+        <v>-80.04773</v>
       </c>
       <c r="D133" t="n">
-        <v>41.06667837</v>
+        <v>41.0580007</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -4329,7 +4325,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H133" t="s">
         <v>11</v>
@@ -4338,7 +4334,7 @@
         <v>11</v>
       </c>
       <c r="J133" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="134">
@@ -4346,13 +4342,13 @@
         <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>25.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C134" t="n">
-        <v>-80.04078</v>
+        <v>-80.046878</v>
       </c>
       <c r="D134" t="n">
-        <v>41.06539249</v>
+        <v>41.057835</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -4361,7 +4357,7 @@
         <v>11</v>
       </c>
       <c r="G134" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="H134" t="s">
         <v>11</v>
@@ -4370,962 +4366,6 @@
         <v>11</v>
       </c>
       <c r="J134" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>-80.04192</v>
-      </c>
-      <c r="D135" t="n">
-        <v>41.06552861</v>
-      </c>
-      <c r="E135" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H135" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>16</v>
-      </c>
-      <c r="B136" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>-80.0422</v>
-      </c>
-      <c r="D136" t="n">
-        <v>41.06527751</v>
-      </c>
-      <c r="E136" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H136" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" t="s">
-        <v>11</v>
-      </c>
-      <c r="J136" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>-80.0436</v>
-      </c>
-      <c r="D137" t="n">
-        <v>41.06516554</v>
-      </c>
-      <c r="E137" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H137" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" t="s">
-        <v>11</v>
-      </c>
-      <c r="J137" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>-80.04381</v>
-      </c>
-      <c r="D138" t="n">
-        <v>41.0649643</v>
-      </c>
-      <c r="E138" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H138" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" t="s">
-        <v>11</v>
-      </c>
-      <c r="J138" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>-80.04431</v>
-      </c>
-      <c r="D139" t="n">
-        <v>41.06092536</v>
-      </c>
-      <c r="E139" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H139" t="s">
-        <v>11</v>
-      </c>
-      <c r="I139" t="s">
-        <v>11</v>
-      </c>
-      <c r="J139" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>-80.04429</v>
-      </c>
-      <c r="D140" t="n">
-        <v>41.06019151</v>
-      </c>
-      <c r="E140" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H140" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" t="s">
-        <v>11</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D141" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E141" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H141" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" t="s">
-        <v>11</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2.3265609741210938</v>
-      </c>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="J142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D143" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E143" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H143" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" t="s">
-        <v>11</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>16</v>
-      </c>
-      <c r="B144" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>-80.04808</v>
-      </c>
-      <c r="D144" t="n">
-        <v>41.05762051</v>
-      </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H144" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" t="s">
-        <v>11</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>-80.05088</v>
-      </c>
-      <c r="D145" t="n">
-        <v>41.05933591</v>
-      </c>
-      <c r="E145" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H145" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145" t="s">
-        <v>11</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>16</v>
-      </c>
-      <c r="B146" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="C146" t="n">
-        <v>-80.05073</v>
-      </c>
-      <c r="D146" t="n">
-        <v>41.05993479</v>
-      </c>
-      <c r="E146" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H146" t="s">
-        <v>11</v>
-      </c>
-      <c r="I146" t="s">
-        <v>11</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="C147" t="n">
-        <v>-80.05309</v>
-      </c>
-      <c r="D147" t="n">
-        <v>41.0620405</v>
-      </c>
-      <c r="E147" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H147" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" t="s">
-        <v>11</v>
-      </c>
-      <c r="J147" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="C148" t="n">
-        <v>-80.05152</v>
-      </c>
-      <c r="D148" t="n">
-        <v>41.061453</v>
-      </c>
-      <c r="E148" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H148" t="s">
-        <v>11</v>
-      </c>
-      <c r="I148" t="s">
-        <v>11</v>
-      </c>
-      <c r="J148" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C149" t="n">
-        <v>-80.04951</v>
-      </c>
-      <c r="D149" t="n">
-        <v>41.06127026</v>
-      </c>
-      <c r="E149" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H149" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" t="s">
-        <v>11</v>
-      </c>
-      <c r="J149" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>16</v>
-      </c>
-      <c r="B150" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="C150" t="n">
-        <v>-80.05009</v>
-      </c>
-      <c r="D150" t="n">
-        <v>41.06067186</v>
-      </c>
-      <c r="E150" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H150" t="s">
-        <v>11</v>
-      </c>
-      <c r="I150" t="s">
-        <v>11</v>
-      </c>
-      <c r="J150" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>16</v>
-      </c>
-      <c r="B151" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="C151" t="n">
-        <v>-80.0488</v>
-      </c>
-      <c r="D151" t="n">
-        <v>41.06003739</v>
-      </c>
-      <c r="E151" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H151" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" t="s">
-        <v>11</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="C152" t="n">
-        <v>-80.04838</v>
-      </c>
-      <c r="D152" t="n">
-        <v>41.06107385</v>
-      </c>
-      <c r="E152" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H152" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" t="s">
-        <v>11</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>16</v>
-      </c>
-      <c r="B153" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C153" t="n">
-        <v>-80.04349</v>
-      </c>
-      <c r="D153" t="n">
-        <v>41.06326948</v>
-      </c>
-      <c r="E153" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H153" t="s">
-        <v>11</v>
-      </c>
-      <c r="I153" t="s">
-        <v>11</v>
-      </c>
-      <c r="J153" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="C154" t="n">
-        <v>-80.04381</v>
-      </c>
-      <c r="D154" t="n">
-        <v>41.0649643</v>
-      </c>
-      <c r="E154" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H154" t="s">
-        <v>11</v>
-      </c>
-      <c r="I154" t="s">
-        <v>11</v>
-      </c>
-      <c r="J154" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>16</v>
-      </c>
-      <c r="B155" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="C155" t="n">
-        <v>-80.0436</v>
-      </c>
-      <c r="D155" t="n">
-        <v>41.06516554</v>
-      </c>
-      <c r="E155" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H155" t="s">
-        <v>11</v>
-      </c>
-      <c r="I155" t="s">
-        <v>11</v>
-      </c>
-      <c r="J155" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>16</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>-80.0422</v>
-      </c>
-      <c r="D156" t="n">
-        <v>41.06527751</v>
-      </c>
-      <c r="E156" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H156" t="s">
-        <v>11</v>
-      </c>
-      <c r="I156" t="s">
-        <v>11</v>
-      </c>
-      <c r="J156" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>16</v>
-      </c>
-      <c r="B157" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="C157" t="n">
-        <v>-80.04192</v>
-      </c>
-      <c r="D157" t="n">
-        <v>41.06552861</v>
-      </c>
-      <c r="E157" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H157" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157" t="s">
-        <v>11</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>16</v>
-      </c>
-      <c r="B158" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>-80.03876</v>
-      </c>
-      <c r="D158" t="n">
-        <v>41.06529995</v>
-      </c>
-      <c r="E158" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H158" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158" t="s">
-        <v>11</v>
-      </c>
-      <c r="J158" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>-80.04273</v>
-      </c>
-      <c r="D159" t="n">
-        <v>41.06188615</v>
-      </c>
-      <c r="E159" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H159" t="s">
-        <v>11</v>
-      </c>
-      <c r="I159" t="s">
-        <v>11</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="C160" t="n">
-        <v>-80.04257</v>
-      </c>
-      <c r="D160" t="n">
-        <v>41.06085219</v>
-      </c>
-      <c r="E160" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H160" t="s">
-        <v>11</v>
-      </c>
-      <c r="I160" t="s">
-        <v>11</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>16</v>
-      </c>
-      <c r="B161" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="C161" t="n">
-        <v>-80.04431</v>
-      </c>
-      <c r="D161" t="n">
-        <v>41.06092536</v>
-      </c>
-      <c r="E161" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H161" t="s">
-        <v>11</v>
-      </c>
-      <c r="I161" t="s">
-        <v>11</v>
-      </c>
-      <c r="J161" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>16</v>
-      </c>
-      <c r="B162" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="C162" t="n">
-        <v>-80.0459</v>
-      </c>
-      <c r="D162" t="n">
-        <v>41.06011254</v>
-      </c>
-      <c r="E162" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H162" t="s">
-        <v>11</v>
-      </c>
-      <c r="I162" t="s">
-        <v>11</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>16</v>
-      </c>
-      <c r="B163" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>-80.04595</v>
-      </c>
-      <c r="D163" t="n">
-        <v>41.05988253</v>
-      </c>
-      <c r="E163" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H163" t="s">
-        <v>11</v>
-      </c>
-      <c r="I163" t="s">
-        <v>11</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D164" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H164" t="s">
-        <v>11</v>
-      </c>
-      <c r="I164" t="s">
-        <v>11</v>
-      </c>
-      <c r="J164" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/temp/Temp_TR_Solutions.xlsx
+++ b/temp/Temp_TR_Solutions.xlsx
@@ -194,7 +194,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>13.537293434143066</v>
+        <v>13.989328384399414</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -222,7 +222,7 @@
         <v>648.0</v>
       </c>
       <c r="F4" t="n">
-        <v>13.537293553352356</v>
+        <v>13.989328145980835</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -247,15 +247,15 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>109.0</v>
+        <v>108.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3344414234161377</v>
+        <v>2.2315924167633057</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -298,13 +298,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-80.0457</v>
+        <v>-80.04618</v>
       </c>
       <c r="D7" t="n">
-        <v>41.06212885</v>
+        <v>41.06131199</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -313,7 +313,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -322,7 +322,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -330,13 +330,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-80.04431</v>
+        <v>-80.0457</v>
       </c>
       <c r="D8" t="n">
-        <v>41.06092536</v>
+        <v>41.06212885</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -354,7 +354,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -362,13 +362,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-80.04257</v>
+        <v>-80.04431</v>
       </c>
       <c r="D9" t="n">
-        <v>41.06085219</v>
+        <v>41.06092536</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -386,7 +386,7 @@
         <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -394,13 +394,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-80.04273</v>
+        <v>-80.04257</v>
       </c>
       <c r="D10" t="n">
-        <v>41.06188615</v>
+        <v>41.06085219</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -409,7 +409,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -426,13 +426,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-80.04349</v>
+        <v>-80.04273</v>
       </c>
       <c r="D11" t="n">
-        <v>41.06326948</v>
+        <v>41.06188615</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -441,7 +441,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -450,7 +450,7 @@
         <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -458,13 +458,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-80.03876</v>
+        <v>-80.04349</v>
       </c>
       <c r="D12" t="n">
-        <v>41.06529995</v>
+        <v>41.06326948</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -490,13 +490,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-80.04068</v>
+        <v>-80.03876</v>
       </c>
       <c r="D13" t="n">
-        <v>41.06667837</v>
+        <v>41.06529995</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -505,7 +505,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -522,13 +522,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-80.04192</v>
+        <v>-80.04078</v>
       </c>
       <c r="D14" t="n">
-        <v>41.06552861</v>
+        <v>41.06539249</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -537,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -554,13 +554,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-80.0422</v>
+        <v>-80.04192</v>
       </c>
       <c r="D15" t="n">
-        <v>41.06527751</v>
+        <v>41.06552861</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-80.0436</v>
+        <v>-80.0422</v>
       </c>
       <c r="D16" t="n">
-        <v>41.06516554</v>
+        <v>41.06527751</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -618,13 +618,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-80.04381</v>
+        <v>-80.0436</v>
       </c>
       <c r="D17" t="n">
-        <v>41.0649643</v>
+        <v>41.06516554</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -650,13 +650,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>52.0</v>
+        <v>28.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-80.04904</v>
+        <v>-80.04381</v>
       </c>
       <c r="D18" t="n">
-        <v>41.06199026</v>
+        <v>41.0649643</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -682,13 +682,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-80.05029</v>
+        <v>-80.05152</v>
       </c>
       <c r="D19" t="n">
-        <v>41.06199246</v>
+        <v>41.061453</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -697,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -714,13 +714,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-80.05152</v>
+        <v>-80.05221</v>
       </c>
       <c r="D20" t="n">
-        <v>41.061453</v>
+        <v>41.0612051</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -729,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -746,13 +746,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-80.04951</v>
+        <v>-80.05009</v>
       </c>
       <c r="D21" t="n">
-        <v>41.06127026</v>
+        <v>41.06067186</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -761,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -778,13 +778,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-80.05009</v>
+        <v>-80.0488</v>
       </c>
       <c r="D22" t="n">
-        <v>41.06067186</v>
+        <v>41.06003739</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -802,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -810,13 +810,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-80.0488</v>
+        <v>-80.04967</v>
       </c>
       <c r="D23" t="n">
-        <v>41.06003739</v>
+        <v>41.05954292</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -825,16 +825,16 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
         <v>2.0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>46.0</v>
+        <v>39.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-80.04967</v>
+        <v>-80.04841</v>
       </c>
       <c r="D24" t="n">
-        <v>41.05954292</v>
+        <v>41.05778901</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -866,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -874,13 +874,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-80.04841</v>
+        <v>-80.04808</v>
       </c>
       <c r="D25" t="n">
-        <v>41.05778901</v>
+        <v>41.05762051</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -889,16 +889,16 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
         <v>4.0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -906,13 +906,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-80.04754</v>
+        <v>-80.046878</v>
       </c>
       <c r="D26" t="n">
-        <v>41.05828804</v>
+        <v>41.057835</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -921,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -930,67 +930,67 @@
         <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D27" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.345822334289551</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.544760227203369</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="D28" t="n">
+        <v>41.057835</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -998,13 +998,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.0</v>
+        <v>36.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-80.046878</v>
+        <v>-80.04431</v>
       </c>
       <c r="D29" t="n">
-        <v>41.057835</v>
+        <v>41.06092536</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -1022,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -1030,13 +1030,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="C30" t="n">
-        <v>-80.04808</v>
+        <v>-80.04257</v>
       </c>
       <c r="D30" t="n">
-        <v>41.05762051</v>
+        <v>41.06085219</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1045,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1062,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>58.0</v>
+        <v>33.0</v>
       </c>
       <c r="C31" t="n">
-        <v>-80.05221</v>
+        <v>-80.04046</v>
       </c>
       <c r="D31" t="n">
-        <v>41.0612051</v>
+        <v>41.06106754</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1077,16 +1077,16 @@
         <v>11</v>
       </c>
       <c r="G31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -1094,13 +1094,13 @@
         <v>16</v>
       </c>
       <c r="B32" t="n">
-        <v>57.0</v>
+        <v>31.0</v>
       </c>
       <c r="C32" t="n">
-        <v>-80.05152</v>
+        <v>-80.04273</v>
       </c>
       <c r="D32" t="n">
-        <v>41.061453</v>
+        <v>41.06188615</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1109,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1118,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
@@ -1126,13 +1126,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>49.0</v>
+        <v>30.0</v>
       </c>
       <c r="C33" t="n">
-        <v>-80.05009</v>
+        <v>-80.04349</v>
       </c>
       <c r="D33" t="n">
-        <v>41.06067186</v>
+        <v>41.06326948</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1158,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>51.0</v>
+        <v>18.0</v>
       </c>
       <c r="C34" t="n">
-        <v>-80.04918</v>
+        <v>-80.03876</v>
       </c>
       <c r="D34" t="n">
-        <v>41.06111633</v>
+        <v>41.06529995</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1173,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
@@ -1182,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -1190,13 +1190,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>53.0</v>
+        <v>19.0</v>
       </c>
       <c r="C35" t="n">
-        <v>-80.04843</v>
+        <v>-80.03939</v>
       </c>
       <c r="D35" t="n">
-        <v>41.06219888</v>
+        <v>41.06750213</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -1214,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="J35" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1222,13 +1222,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="n">
-        <v>-80.04349</v>
+        <v>-80.04068</v>
       </c>
       <c r="D36" t="n">
-        <v>41.06326948</v>
+        <v>41.06667837</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1237,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="J36" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
@@ -1254,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="C37" t="n">
-        <v>-80.04381</v>
+        <v>-80.04192</v>
       </c>
       <c r="D37" t="n">
-        <v>41.0649643</v>
+        <v>41.06552861</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1286,13 +1286,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="C38" t="n">
-        <v>-80.0436</v>
+        <v>-80.0422</v>
       </c>
       <c r="D38" t="n">
-        <v>41.06516554</v>
+        <v>41.06527751</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1318,13 +1318,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="C39" t="n">
-        <v>-80.0422</v>
+        <v>-80.0436</v>
       </c>
       <c r="D39" t="n">
-        <v>41.06527751</v>
+        <v>41.06516554</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1350,13 +1350,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C40" t="n">
-        <v>-80.04192</v>
+        <v>-80.04381</v>
       </c>
       <c r="D40" t="n">
-        <v>41.06552861</v>
+        <v>41.0649643</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1382,13 +1382,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>25.0</v>
+        <v>53.0</v>
       </c>
       <c r="C41" t="n">
-        <v>-80.04078</v>
+        <v>-80.04843</v>
       </c>
       <c r="D41" t="n">
-        <v>41.06539249</v>
+        <v>41.06219888</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1397,7 +1397,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1406,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="J41" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1414,13 +1414,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>18.0</v>
+        <v>50.0</v>
       </c>
       <c r="C42" t="n">
-        <v>-80.03876</v>
+        <v>-80.04951</v>
       </c>
       <c r="D42" t="n">
-        <v>41.06529995</v>
+        <v>41.06127026</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -1438,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="43">
@@ -1446,13 +1446,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>11.0</v>
+        <v>57.0</v>
       </c>
       <c r="C43" t="n">
-        <v>-80.03329</v>
+        <v>-80.05152</v>
       </c>
       <c r="D43" t="n">
-        <v>41.06307594</v>
+        <v>41.061453</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1461,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
@@ -1478,13 +1478,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="n">
-        <v>33.0</v>
+        <v>49.0</v>
       </c>
       <c r="C44" t="n">
-        <v>-80.04046</v>
+        <v>-80.05009</v>
       </c>
       <c r="D44" t="n">
-        <v>41.06106754</v>
+        <v>41.06067186</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1493,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -1502,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -1510,13 +1510,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>31.0</v>
+        <v>44.0</v>
       </c>
       <c r="C45" t="n">
-        <v>-80.04273</v>
+        <v>-80.0488</v>
       </c>
       <c r="D45" t="n">
-        <v>41.06188615</v>
+        <v>41.06003739</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1525,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -1542,13 +1542,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="C46" t="n">
-        <v>-80.04431</v>
+        <v>-80.04841</v>
       </c>
       <c r="D46" t="n">
-        <v>41.06092536</v>
+        <v>41.05778901</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1557,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -1574,13 +1574,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.0</v>
+        <v>40.0</v>
       </c>
       <c r="C47" t="n">
-        <v>-80.046878</v>
+        <v>-80.04808</v>
       </c>
       <c r="D47" t="n">
-        <v>41.057835</v>
+        <v>41.05762051</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -1598,67 +1598,67 @@
         <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2.444021701812744</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="D48" t="n">
+        <v>41.057835</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D49" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.624532699584961</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1666,13 +1666,13 @@
         <v>16</v>
       </c>
       <c r="B50" t="n">
-        <v>37.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C50" t="n">
-        <v>-80.04618</v>
+        <v>-80.046878</v>
       </c>
       <c r="D50" t="n">
-        <v>41.06131199</v>
+        <v>41.057835</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -1681,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1690,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -1762,13 +1762,13 @@
         <v>16</v>
       </c>
       <c r="B53" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="C53" t="n">
-        <v>-80.04257</v>
+        <v>-80.04349</v>
       </c>
       <c r="D53" t="n">
-        <v>41.06085219</v>
+        <v>41.06326948</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -1777,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
@@ -1786,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="J53" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
@@ -1794,13 +1794,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="C54" t="n">
-        <v>-80.04046</v>
+        <v>-80.03329</v>
       </c>
       <c r="D54" t="n">
-        <v>41.06106754</v>
+        <v>41.06307594</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -1809,16 +1809,16 @@
         <v>11</v>
       </c>
       <c r="G54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
         <v>1.0</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -1858,13 +1858,13 @@
         <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="C56" t="n">
-        <v>-80.03939</v>
+        <v>-80.04078</v>
       </c>
       <c r="D56" t="n">
-        <v>41.06750213</v>
+        <v>41.06539249</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -1873,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -1882,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="J56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -1890,13 +1890,13 @@
         <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="C57" t="n">
-        <v>-80.04068</v>
+        <v>-80.04192</v>
       </c>
       <c r="D57" t="n">
-        <v>41.06667837</v>
+        <v>41.06552861</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -1905,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
@@ -1914,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="J57" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
@@ -1922,13 +1922,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C58" t="n">
-        <v>-80.04192</v>
+        <v>-80.0422</v>
       </c>
       <c r="D58" t="n">
-        <v>41.06552861</v>
+        <v>41.06527751</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -1954,13 +1954,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="C59" t="n">
-        <v>-80.0422</v>
+        <v>-80.0436</v>
       </c>
       <c r="D59" t="n">
-        <v>41.06527751</v>
+        <v>41.06516554</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -1986,13 +1986,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C60" t="n">
-        <v>-80.0436</v>
+        <v>-80.04381</v>
       </c>
       <c r="D60" t="n">
-        <v>41.06516554</v>
+        <v>41.0649643</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2018,13 +2018,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="n">
-        <v>28.0</v>
+        <v>38.0</v>
       </c>
       <c r="C61" t="n">
-        <v>-80.04381</v>
+        <v>-80.0457</v>
       </c>
       <c r="D61" t="n">
-        <v>41.0649643</v>
+        <v>41.06212885</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2033,7 +2033,7 @@
         <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="H61" t="s">
         <v>11</v>
@@ -2042,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="J61" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -2050,13 +2050,13 @@
         <v>16</v>
       </c>
       <c r="B62" t="n">
-        <v>30.0</v>
+        <v>56.0</v>
       </c>
       <c r="C62" t="n">
-        <v>-80.04349</v>
+        <v>-80.05029</v>
       </c>
       <c r="D62" t="n">
-        <v>41.06326948</v>
+        <v>41.06199246</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -2065,7 +2065,7 @@
         <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="H62" t="s">
         <v>11</v>
@@ -2074,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="J62" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -2082,13 +2082,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="n">
-        <v>38.0</v>
+        <v>57.0</v>
       </c>
       <c r="C63" t="n">
-        <v>-80.0457</v>
+        <v>-80.05152</v>
       </c>
       <c r="D63" t="n">
-        <v>41.06212885</v>
+        <v>41.061453</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2106,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="J63" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="64">
@@ -2114,13 +2114,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="C64" t="n">
-        <v>-80.04904</v>
+        <v>-80.04951</v>
       </c>
       <c r="D64" t="n">
-        <v>41.06199026</v>
+        <v>41.06127026</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -2129,7 +2129,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H64" t="s">
         <v>11</v>
@@ -2138,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="J64" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="65">
@@ -2146,13 +2146,13 @@
         <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="C65" t="n">
-        <v>-80.05029</v>
+        <v>-80.05009</v>
       </c>
       <c r="D65" t="n">
-        <v>41.06199246</v>
+        <v>41.06067186</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2161,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -2170,7 +2170,7 @@
         <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
@@ -2178,13 +2178,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>57.0</v>
+        <v>44.0</v>
       </c>
       <c r="C66" t="n">
-        <v>-80.05152</v>
+        <v>-80.0488</v>
       </c>
       <c r="D66" t="n">
-        <v>41.061453</v>
+        <v>41.06003739</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2193,7 +2193,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2202,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="J66" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
@@ -2210,13 +2210,13 @@
         <v>16</v>
       </c>
       <c r="B67" t="n">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="C67" t="n">
-        <v>-80.04951</v>
+        <v>-80.04967</v>
       </c>
       <c r="D67" t="n">
-        <v>41.06127026</v>
+        <v>41.05954292</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2225,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -2234,7 +2234,7 @@
         <v>11</v>
       </c>
       <c r="J67" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
@@ -2242,13 +2242,13 @@
         <v>16</v>
       </c>
       <c r="B68" t="n">
-        <v>49.0</v>
+        <v>5.0</v>
       </c>
       <c r="C68" t="n">
-        <v>-80.05009</v>
+        <v>-80.04759</v>
       </c>
       <c r="D68" t="n">
-        <v>41.06067186</v>
+        <v>41.05780933</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2257,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -2266,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="J68" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
@@ -2274,13 +2274,13 @@
         <v>16</v>
       </c>
       <c r="B69" t="n">
-        <v>44.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C69" t="n">
-        <v>-80.0488</v>
+        <v>-80.046878</v>
       </c>
       <c r="D69" t="n">
-        <v>41.06003739</v>
+        <v>41.057835</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2289,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
@@ -2298,39 +2298,35 @@
         <v>11</v>
       </c>
       <c r="J69" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-80.04841</v>
-      </c>
-      <c r="D70" t="n">
-        <v>41.05778901</v>
-      </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H70" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
         <v>3.0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.120365858078003</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -2367,30 +2363,34 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2.0568490028381348</v>
-      </c>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J72" t="s">
-        <v>11</v>
+        <v>35.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-80.04429</v>
+      </c>
+      <c r="D72" t="n">
+        <v>41.06019151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -2398,13 +2398,13 @@
         <v>16</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.0</v>
+        <v>36.0</v>
       </c>
       <c r="C73" t="n">
-        <v>-80.046878</v>
+        <v>-80.04431</v>
       </c>
       <c r="D73" t="n">
-        <v>41.057835</v>
+        <v>41.06092536</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -2413,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
@@ -2422,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="74">
@@ -2430,13 +2430,13 @@
         <v>16</v>
       </c>
       <c r="B74" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C74" t="n">
-        <v>-80.04429</v>
+        <v>-80.04257</v>
       </c>
       <c r="D74" t="n">
-        <v>41.06019151</v>
+        <v>41.06085219</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2445,7 +2445,7 @@
         <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -2454,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="J74" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B75" t="n">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="C75" t="n">
-        <v>-80.04431</v>
+        <v>-80.04349</v>
       </c>
       <c r="D75" t="n">
-        <v>41.06092536</v>
+        <v>41.06326948</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2477,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="G75" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -2494,13 +2494,13 @@
         <v>16</v>
       </c>
       <c r="B76" t="n">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="C76" t="n">
-        <v>-80.04257</v>
+        <v>-80.03876</v>
       </c>
       <c r="D76" t="n">
-        <v>41.06085219</v>
+        <v>41.06529995</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2509,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
@@ -2518,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="J76" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77">
@@ -2526,13 +2526,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C77" t="n">
-        <v>-80.03876</v>
+        <v>-80.04068</v>
       </c>
       <c r="D77" t="n">
-        <v>41.06529995</v>
+        <v>41.06667837</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2541,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2550,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
@@ -2558,13 +2558,13 @@
         <v>16</v>
       </c>
       <c r="B78" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C78" t="n">
-        <v>-80.04078</v>
+        <v>-80.04192</v>
       </c>
       <c r="D78" t="n">
-        <v>41.06539249</v>
+        <v>41.06552861</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2573,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -2582,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="J78" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="79">
@@ -2590,13 +2590,13 @@
         <v>16</v>
       </c>
       <c r="B79" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C79" t="n">
-        <v>-80.04192</v>
+        <v>-80.0422</v>
       </c>
       <c r="D79" t="n">
-        <v>41.06552861</v>
+        <v>41.06527751</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2622,13 +2622,13 @@
         <v>16</v>
       </c>
       <c r="B80" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="C80" t="n">
-        <v>-80.0422</v>
+        <v>-80.0436</v>
       </c>
       <c r="D80" t="n">
-        <v>41.06527751</v>
+        <v>41.06516554</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2654,13 +2654,13 @@
         <v>16</v>
       </c>
       <c r="B81" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C81" t="n">
-        <v>-80.0436</v>
+        <v>-80.04381</v>
       </c>
       <c r="D81" t="n">
-        <v>41.06516554</v>
+        <v>41.0649643</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2686,13 +2686,13 @@
         <v>16</v>
       </c>
       <c r="B82" t="n">
-        <v>28.0</v>
+        <v>52.0</v>
       </c>
       <c r="C82" t="n">
-        <v>-80.04381</v>
+        <v>-80.04904</v>
       </c>
       <c r="D82" t="n">
-        <v>41.0649643</v>
+        <v>41.06199026</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2701,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -2710,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="J82" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -2718,13 +2718,13 @@
         <v>16</v>
       </c>
       <c r="B83" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="C83" t="n">
-        <v>-80.04349</v>
+        <v>-80.04918</v>
       </c>
       <c r="D83" t="n">
-        <v>41.06326948</v>
+        <v>41.06111633</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -2733,7 +2733,7 @@
         <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -2742,7 +2742,7 @@
         <v>11</v>
       </c>
       <c r="J83" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
@@ -2750,13 +2750,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="C84" t="n">
-        <v>-80.04918</v>
+        <v>-80.04951</v>
       </c>
       <c r="D84" t="n">
-        <v>41.06111633</v>
+        <v>41.06127026</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -2765,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2774,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="J84" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="85">
@@ -2782,13 +2782,13 @@
         <v>16</v>
       </c>
       <c r="B85" t="n">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="C85" t="n">
-        <v>-80.04951</v>
+        <v>-80.05152</v>
       </c>
       <c r="D85" t="n">
-        <v>41.06127026</v>
+        <v>41.061453</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -2797,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -2806,7 +2806,7 @@
         <v>11</v>
       </c>
       <c r="J85" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="86">
@@ -2814,13 +2814,13 @@
         <v>16</v>
       </c>
       <c r="B86" t="n">
-        <v>57.0</v>
+        <v>49.0</v>
       </c>
       <c r="C86" t="n">
-        <v>-80.05152</v>
+        <v>-80.05009</v>
       </c>
       <c r="D86" t="n">
-        <v>41.061453</v>
+        <v>41.06067186</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -2829,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -2846,13 +2846,13 @@
         <v>16</v>
       </c>
       <c r="B87" t="n">
-        <v>58.0</v>
+        <v>39.0</v>
       </c>
       <c r="C87" t="n">
-        <v>-80.05221</v>
+        <v>-80.04841</v>
       </c>
       <c r="D87" t="n">
-        <v>41.0612051</v>
+        <v>41.05778901</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2861,16 +2861,16 @@
         <v>11</v>
       </c>
       <c r="G87" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" t="n">
         <v>3.0</v>
-      </c>
-      <c r="H87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="88">
@@ -2878,13 +2878,13 @@
         <v>16</v>
       </c>
       <c r="B88" t="n">
-        <v>49.0</v>
+        <v>40.0</v>
       </c>
       <c r="C88" t="n">
-        <v>-80.05009</v>
+        <v>-80.04808</v>
       </c>
       <c r="D88" t="n">
-        <v>41.06067186</v>
+        <v>41.05762051</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -2893,7 +2893,7 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2902,7 +2902,7 @@
         <v>11</v>
       </c>
       <c r="J88" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="89">
@@ -2910,13 +2910,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="n">
-        <v>44.0</v>
+        <v>6.0</v>
       </c>
       <c r="C89" t="n">
-        <v>-80.0488</v>
+        <v>-80.04773</v>
       </c>
       <c r="D89" t="n">
-        <v>41.06003739</v>
+        <v>41.0580007</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -2934,7 +2934,7 @@
         <v>11</v>
       </c>
       <c r="J89" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
@@ -2942,13 +2942,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="n">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="C90" t="n">
-        <v>-80.04808</v>
+        <v>-80.047</v>
       </c>
       <c r="D90" t="n">
-        <v>41.05762051</v>
+        <v>41.05760118</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -2957,7 +2957,7 @@
         <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H90" t="s">
         <v>11</v>
@@ -2966,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="J90" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -2974,13 +2974,13 @@
         <v>16</v>
       </c>
       <c r="B91" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C91" t="n">
-        <v>-80.047</v>
+        <v>-80.046878</v>
       </c>
       <c r="D91" t="n">
-        <v>41.05760118</v>
+        <v>41.057835</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -2989,7 +2989,7 @@
         <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
@@ -2998,67 +2998,67 @@
         <v>11</v>
       </c>
       <c r="J91" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="D92" t="n">
-        <v>41.057835</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" t="s">
-        <v>11</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.39312481880188</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B93" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2.2568979263305664</v>
-      </c>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>11</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="D93" t="n">
+        <v>41.057835</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -3066,13 +3066,13 @@
         <v>16</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.0</v>
+        <v>37.0</v>
       </c>
       <c r="C94" t="n">
-        <v>-80.046878</v>
+        <v>-80.04618</v>
       </c>
       <c r="D94" t="n">
-        <v>41.057835</v>
+        <v>41.06131199</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -3081,7 +3081,7 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H94" t="s">
         <v>11</v>
@@ -3090,7 +3090,7 @@
         <v>11</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="95">
@@ -3098,13 +3098,13 @@
         <v>16</v>
       </c>
       <c r="B95" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C95" t="n">
-        <v>-80.04431</v>
+        <v>-80.0457</v>
       </c>
       <c r="D95" t="n">
-        <v>41.06092536</v>
+        <v>41.06212885</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3122,7 +3122,7 @@
         <v>11</v>
       </c>
       <c r="J95" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
@@ -3130,13 +3130,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="C96" t="n">
-        <v>-80.04257</v>
+        <v>-80.04431</v>
       </c>
       <c r="D96" t="n">
-        <v>41.06085219</v>
+        <v>41.06092536</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3154,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="J96" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="97">
@@ -3194,13 +3194,13 @@
         <v>16</v>
       </c>
       <c r="B98" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="C98" t="n">
-        <v>-80.04046</v>
+        <v>-80.04349</v>
       </c>
       <c r="D98" t="n">
-        <v>41.06106754</v>
+        <v>41.06326948</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -3209,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="G98" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H98" t="s">
         <v>11</v>
@@ -3218,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="J98" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="99">
@@ -3226,13 +3226,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="C99" t="n">
-        <v>-80.03876</v>
+        <v>-80.04046</v>
       </c>
       <c r="D99" t="n">
-        <v>41.06529995</v>
+        <v>41.06106754</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3241,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -3250,7 +3250,7 @@
         <v>11</v>
       </c>
       <c r="J99" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="100">
@@ -3258,13 +3258,13 @@
         <v>16</v>
       </c>
       <c r="B100" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="C100" t="n">
-        <v>-80.04068</v>
+        <v>-80.03876</v>
       </c>
       <c r="D100" t="n">
-        <v>41.06667837</v>
+        <v>41.06529995</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -3273,7 +3273,7 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="H100" t="s">
         <v>11</v>
@@ -3282,7 +3282,7 @@
         <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="101">
@@ -3290,13 +3290,13 @@
         <v>16</v>
       </c>
       <c r="B101" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C101" t="n">
-        <v>-80.04192</v>
+        <v>-80.04078</v>
       </c>
       <c r="D101" t="n">
-        <v>41.06552861</v>
+        <v>41.06539249</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3305,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -3314,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="J101" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="102">
@@ -3322,13 +3322,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C102" t="n">
-        <v>-80.0422</v>
+        <v>-80.04192</v>
       </c>
       <c r="D102" t="n">
-        <v>41.06527751</v>
+        <v>41.06552861</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3354,13 +3354,13 @@
         <v>16</v>
       </c>
       <c r="B103" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="C103" t="n">
-        <v>-80.0436</v>
+        <v>-80.0422</v>
       </c>
       <c r="D103" t="n">
-        <v>41.06516554</v>
+        <v>41.06527751</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3386,13 +3386,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C104" t="n">
-        <v>-80.04381</v>
+        <v>-80.0436</v>
       </c>
       <c r="D104" t="n">
-        <v>41.0649643</v>
+        <v>41.06516554</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3418,13 +3418,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="C105" t="n">
-        <v>-80.04349</v>
+        <v>-80.04381</v>
       </c>
       <c r="D105" t="n">
-        <v>41.06326948</v>
+        <v>41.0649643</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3450,13 +3450,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="n">
-        <v>38.0</v>
+        <v>56.0</v>
       </c>
       <c r="C106" t="n">
-        <v>-80.0457</v>
+        <v>-80.05029</v>
       </c>
       <c r="D106" t="n">
-        <v>41.06212885</v>
+        <v>41.06199246</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -3465,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H106" t="s">
         <v>11</v>
@@ -3474,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="J106" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="107">
@@ -3482,13 +3482,13 @@
         <v>16</v>
       </c>
       <c r="B107" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="C107" t="n">
-        <v>-80.04618</v>
+        <v>-80.05152</v>
       </c>
       <c r="D107" t="n">
-        <v>41.06131199</v>
+        <v>41.061453</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3497,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="G107" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H107" t="s">
         <v>11</v>
@@ -3506,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="J107" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="108">
@@ -3514,13 +3514,13 @@
         <v>16</v>
       </c>
       <c r="B108" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="C108" t="n">
-        <v>-80.04951</v>
+        <v>-80.05221</v>
       </c>
       <c r="D108" t="n">
-        <v>41.06127026</v>
+        <v>41.0612051</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3529,7 +3529,7 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="H108" t="s">
         <v>11</v>
@@ -3538,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="J108" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="109">
@@ -3546,13 +3546,13 @@
         <v>16</v>
       </c>
       <c r="B109" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="C109" t="n">
-        <v>-80.05152</v>
+        <v>-80.04951</v>
       </c>
       <c r="D109" t="n">
-        <v>41.061453</v>
+        <v>41.06127026</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3561,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -3570,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="J109" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="110">
@@ -3642,13 +3642,13 @@
         <v>16</v>
       </c>
       <c r="B112" t="n">
-        <v>46.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C112" t="n">
-        <v>-80.04967</v>
+        <v>-80.046878</v>
       </c>
       <c r="D112" t="n">
-        <v>41.05954292</v>
+        <v>41.057835</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -3657,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="H112" t="s">
         <v>11</v>
@@ -3666,39 +3666,35 @@
         <v>11</v>
       </c>
       <c r="J112" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>-80.04808</v>
-      </c>
-      <c r="D113" t="n">
-        <v>41.05762051</v>
-      </c>
-      <c r="E113" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H113" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" t="s">
-        <v>11</v>
-      </c>
-      <c r="J113" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.2738900184631348</v>
+      </c>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="114">
@@ -3706,13 +3702,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="n">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C114" t="n">
-        <v>-80.04759</v>
+        <v>-80.046878</v>
       </c>
       <c r="D114" t="n">
-        <v>41.05780933</v>
+        <v>41.057835</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -3721,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="G114" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H114" t="s">
         <v>11</v>
@@ -3730,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="J114" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
@@ -3738,13 +3734,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.0</v>
+        <v>35.0</v>
       </c>
       <c r="C115" t="n">
-        <v>-80.046878</v>
+        <v>-80.04429</v>
       </c>
       <c r="D115" t="n">
-        <v>41.057835</v>
+        <v>41.06019151</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -3753,7 +3749,7 @@
         <v>11</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H115" t="s">
         <v>11</v>
@@ -3762,35 +3758,39 @@
         <v>11</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1.9003232717514038</v>
-      </c>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="J116" t="s">
-        <v>11</v>
+        <v>36.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-80.04431</v>
+      </c>
+      <c r="D116" t="n">
+        <v>41.06092536</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="117">
@@ -3798,13 +3798,13 @@
         <v>16</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.0</v>
+        <v>34.0</v>
       </c>
       <c r="C117" t="n">
-        <v>-80.046878</v>
+        <v>-80.04257</v>
       </c>
       <c r="D117" t="n">
-        <v>41.057835</v>
+        <v>41.06085219</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -3813,7 +3813,7 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H117" t="s">
         <v>11</v>
@@ -3822,7 +3822,7 @@
         <v>11</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="118">
@@ -3830,13 +3830,13 @@
         <v>16</v>
       </c>
       <c r="B118" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="C118" t="n">
-        <v>-80.04429</v>
+        <v>-80.04046</v>
       </c>
       <c r="D118" t="n">
-        <v>41.06019151</v>
+        <v>41.06106754</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -3845,7 +3845,7 @@
         <v>11</v>
       </c>
       <c r="G118" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H118" t="s">
         <v>11</v>
@@ -3854,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="J118" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="119">
@@ -3862,13 +3862,13 @@
         <v>16</v>
       </c>
       <c r="B119" t="n">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="C119" t="n">
-        <v>-80.04431</v>
+        <v>-80.04349</v>
       </c>
       <c r="D119" t="n">
-        <v>41.06092536</v>
+        <v>41.06326948</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -3877,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="G119" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="H119" t="s">
         <v>11</v>
@@ -3894,13 +3894,13 @@
         <v>16</v>
       </c>
       <c r="B120" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="C120" t="n">
-        <v>-80.04349</v>
+        <v>-80.03876</v>
       </c>
       <c r="D120" t="n">
-        <v>41.06326948</v>
+        <v>41.06529995</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -3926,13 +3926,13 @@
         <v>16</v>
       </c>
       <c r="B121" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C121" t="n">
-        <v>-80.03876</v>
+        <v>-80.04068</v>
       </c>
       <c r="D121" t="n">
-        <v>41.06529995</v>
+        <v>41.06667837</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -3941,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="G121" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H121" t="s">
         <v>11</v>
@@ -3950,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="J121" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="122">
@@ -3958,13 +3958,13 @@
         <v>16</v>
       </c>
       <c r="B122" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C122" t="n">
-        <v>-80.04078</v>
+        <v>-80.04192</v>
       </c>
       <c r="D122" t="n">
-        <v>41.06539249</v>
+        <v>41.06552861</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -3973,7 +3973,7 @@
         <v>11</v>
       </c>
       <c r="G122" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H122" t="s">
         <v>11</v>
@@ -3982,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="J122" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="123">
@@ -3990,13 +3990,13 @@
         <v>16</v>
       </c>
       <c r="B123" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C123" t="n">
-        <v>-80.04192</v>
+        <v>-80.0422</v>
       </c>
       <c r="D123" t="n">
-        <v>41.06552861</v>
+        <v>41.06527751</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -4022,13 +4022,13 @@
         <v>16</v>
       </c>
       <c r="B124" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="C124" t="n">
-        <v>-80.0422</v>
+        <v>-80.0436</v>
       </c>
       <c r="D124" t="n">
-        <v>41.06527751</v>
+        <v>41.06516554</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -4054,13 +4054,13 @@
         <v>16</v>
       </c>
       <c r="B125" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C125" t="n">
-        <v>-80.0436</v>
+        <v>-80.04381</v>
       </c>
       <c r="D125" t="n">
-        <v>41.06516554</v>
+        <v>41.0649643</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -4086,13 +4086,13 @@
         <v>16</v>
       </c>
       <c r="B126" t="n">
-        <v>28.0</v>
+        <v>53.0</v>
       </c>
       <c r="C126" t="n">
-        <v>-80.04381</v>
+        <v>-80.04843</v>
       </c>
       <c r="D126" t="n">
-        <v>41.0649643</v>
+        <v>41.06219888</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -4101,7 +4101,7 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -4110,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="J126" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="127">
@@ -4118,13 +4118,13 @@
         <v>16</v>
       </c>
       <c r="B127" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="C127" t="n">
-        <v>-80.04843</v>
+        <v>-80.04904</v>
       </c>
       <c r="D127" t="n">
-        <v>41.06219888</v>
+        <v>41.06199026</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -4133,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -4150,13 +4150,13 @@
         <v>16</v>
       </c>
       <c r="B128" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C128" t="n">
-        <v>-80.04951</v>
+        <v>-80.04918</v>
       </c>
       <c r="D128" t="n">
-        <v>41.06127026</v>
+        <v>41.06111633</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -4165,7 +4165,7 @@
         <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -4174,7 +4174,7 @@
         <v>11</v>
       </c>
       <c r="J128" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="129">
@@ -4182,13 +4182,13 @@
         <v>16</v>
       </c>
       <c r="B129" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="C129" t="n">
-        <v>-80.05152</v>
+        <v>-80.04951</v>
       </c>
       <c r="D129" t="n">
-        <v>41.061453</v>
+        <v>41.06127026</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -4197,7 +4197,7 @@
         <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
@@ -4206,7 +4206,7 @@
         <v>11</v>
       </c>
       <c r="J129" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="130">
@@ -4214,13 +4214,13 @@
         <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>49.0</v>
+        <v>57.0</v>
       </c>
       <c r="C130" t="n">
-        <v>-80.05009</v>
+        <v>-80.05152</v>
       </c>
       <c r="D130" t="n">
-        <v>41.06067186</v>
+        <v>41.061453</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -4229,7 +4229,7 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -4246,13 +4246,13 @@
         <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>39.0</v>
+        <v>49.0</v>
       </c>
       <c r="C131" t="n">
-        <v>-80.04841</v>
+        <v>-80.05009</v>
       </c>
       <c r="D131" t="n">
-        <v>41.05778901</v>
+        <v>41.06067186</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -4261,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -4270,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="J131" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="132">
@@ -4278,13 +4278,13 @@
         <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="C132" t="n">
-        <v>-80.04808</v>
+        <v>-80.04754</v>
       </c>
       <c r="D132" t="n">
-        <v>41.05762051</v>
+        <v>41.05828804</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -4293,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H132" t="s">
         <v>11</v>
@@ -4302,7 +4302,7 @@
         <v>11</v>
       </c>
       <c r="J132" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
@@ -4310,13 +4310,13 @@
         <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>6.0</v>
+        <v>40.0</v>
       </c>
       <c r="C133" t="n">
-        <v>-80.04773</v>
+        <v>-80.04808</v>
       </c>
       <c r="D133" t="n">
-        <v>41.0580007</v>
+        <v>41.05762051</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -4325,7 +4325,7 @@
         <v>11</v>
       </c>
       <c r="G133" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H133" t="s">
         <v>11</v>
@@ -4334,7 +4334,7 @@
         <v>11</v>
       </c>
       <c r="J133" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="134">
